--- a/ep/ep/export/flourish/Romania_name_group.xlsx
+++ b/ep/ep/export/flourish/Romania_name_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="125">
   <si>
     <t>name1</t>
   </si>
@@ -372,12 +372,30 @@
   <si>
     <t>S&amp;D</t>
   </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +410,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -426,16 +451,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,6 +825,9 @@
       <c r="C2" t="s">
         <v>113</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E2">
         <v>0.98</v>
       </c>
@@ -844,6 +878,9 @@
       <c r="C3" t="s">
         <v>114</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M3">
         <v>0.8110000000000001</v>
       </c>
@@ -870,6 +907,9 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E4">
         <v>0.5580000000000001</v>
       </c>
@@ -896,6 +936,9 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E5">
         <v>0.601</v>
       </c>
@@ -934,6 +977,9 @@
       <c r="C6" t="s">
         <v>117</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E6">
         <v>0.728</v>
       </c>
@@ -984,6 +1030,9 @@
       <c r="C7" t="s">
         <v>118</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E7">
         <v>0.782</v>
       </c>
@@ -1034,6 +1083,9 @@
       <c r="C8" t="s">
         <v>113</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G8">
         <v>0.738</v>
       </c>
@@ -1048,6 +1100,9 @@
       <c r="C9" t="s">
         <v>117</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G9">
         <v>0.981</v>
       </c>
@@ -1062,6 +1117,9 @@
       <c r="C10" t="s">
         <v>118</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G10">
         <v>0.762</v>
       </c>
@@ -1076,6 +1134,9 @@
       <c r="C11" t="s">
         <v>113</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E11">
         <v>0.734</v>
       </c>
@@ -1111,6 +1172,9 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E12">
         <v>0.505</v>
       </c>
@@ -1125,6 +1189,9 @@
       <c r="C13" t="s">
         <v>116</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E13">
         <v>0.644</v>
       </c>
@@ -1157,6 +1224,9 @@
       <c r="C14" t="s">
         <v>117</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E14">
         <v>0.646</v>
       </c>
@@ -1192,6 +1262,9 @@
       <c r="C15" t="s">
         <v>118</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E15">
         <v>0.949</v>
       </c>
@@ -1227,6 +1300,9 @@
       <c r="C16" t="s">
         <v>113</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E16">
         <v>0.747</v>
       </c>
@@ -1241,6 +1317,9 @@
       <c r="C17" t="s">
         <v>115</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E17">
         <v>0.57</v>
       </c>
@@ -1255,6 +1334,9 @@
       <c r="C18" t="s">
         <v>116</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E18">
         <v>0.641</v>
       </c>
@@ -1269,6 +1351,9 @@
       <c r="C19" t="s">
         <v>117</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E19">
         <v>0.615</v>
       </c>
@@ -1283,6 +1368,9 @@
       <c r="C20" t="s">
         <v>118</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E20">
         <v>0.969</v>
       </c>
@@ -1297,6 +1385,9 @@
       <c r="C21" t="s">
         <v>113</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G21">
         <v>0.734</v>
       </c>
@@ -1311,6 +1402,9 @@
       <c r="C22" t="s">
         <v>117</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G22">
         <v>0.984</v>
       </c>
@@ -1325,6 +1419,9 @@
       <c r="C23" t="s">
         <v>118</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G23">
         <v>0.716</v>
       </c>
@@ -1339,6 +1436,9 @@
       <c r="C24" t="s">
         <v>113</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E24">
         <v>0.888</v>
       </c>
@@ -1353,6 +1453,9 @@
       <c r="C25" t="s">
         <v>115</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E25">
         <v>0.52</v>
       </c>
@@ -1367,6 +1470,9 @@
       <c r="C26" t="s">
         <v>116</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E26">
         <v>0.619</v>
       </c>
@@ -1381,6 +1487,9 @@
       <c r="C27" t="s">
         <v>117</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E27">
         <v>0.776</v>
       </c>
@@ -1395,6 +1504,9 @@
       <c r="C28" t="s">
         <v>118</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E28">
         <v>0.642</v>
       </c>
@@ -1409,6 +1521,9 @@
       <c r="C29" t="s">
         <v>113</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G29">
         <v>0.763</v>
       </c>
@@ -1423,6 +1538,9 @@
       <c r="C30" t="s">
         <v>117</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G30">
         <v>0.824</v>
       </c>
@@ -1437,6 +1555,9 @@
       <c r="C31" t="s">
         <v>118</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G31">
         <v>0.979</v>
       </c>
@@ -1451,6 +1572,9 @@
       <c r="C32" t="s">
         <v>113</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L32">
         <v>0.885</v>
       </c>
@@ -1480,6 +1604,9 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M33">
         <v>0.774</v>
       </c>
@@ -1506,6 +1633,9 @@
       <c r="C34" t="s">
         <v>115</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M34">
         <v>0.503</v>
       </c>
@@ -1529,6 +1659,9 @@
       <c r="C35" t="s">
         <v>116</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P35">
         <v>0.732</v>
       </c>
@@ -1546,6 +1679,9 @@
       <c r="C36" t="s">
         <v>117</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L36">
         <v>0.88</v>
       </c>
@@ -1575,6 +1711,9 @@
       <c r="C37" t="s">
         <v>118</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L37">
         <v>0.982</v>
       </c>
@@ -1604,6 +1743,9 @@
       <c r="C38" t="s">
         <v>113</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E38">
         <v>0.675</v>
       </c>
@@ -1618,6 +1760,9 @@
       <c r="C39" t="s">
         <v>115</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E39">
         <v>0.5590000000000001</v>
       </c>
@@ -1632,6 +1777,9 @@
       <c r="C40" t="s">
         <v>116</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E40">
         <v>0.59</v>
       </c>
@@ -1646,6 +1794,9 @@
       <c r="C41" t="s">
         <v>117</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E41">
         <v>0.92</v>
       </c>
@@ -1660,6 +1811,9 @@
       <c r="C42" t="s">
         <v>118</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E42">
         <v>0.658</v>
       </c>
@@ -1674,6 +1828,9 @@
       <c r="C43" t="s">
         <v>113</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L43">
         <v>0.825</v>
       </c>
@@ -1703,6 +1860,9 @@
       <c r="C44" t="s">
         <v>114</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M44">
         <v>0.6909999999999999</v>
       </c>
@@ -1729,6 +1889,9 @@
       <c r="C45" t="s">
         <v>115</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M45">
         <v>0.512</v>
       </c>
@@ -1752,6 +1915,9 @@
       <c r="C46" t="s">
         <v>116</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P46">
         <v>0.745</v>
       </c>
@@ -1769,6 +1935,9 @@
       <c r="C47" t="s">
         <v>117</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L47">
         <v>0.837</v>
       </c>
@@ -1798,6 +1967,9 @@
       <c r="C48" t="s">
         <v>118</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L48">
         <v>0.99</v>
       </c>
@@ -1827,6 +1999,9 @@
       <c r="C49" t="s">
         <v>113</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G49">
         <v>0.622</v>
       </c>
@@ -1871,6 +2046,9 @@
       <c r="C50" t="s">
         <v>114</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M50">
         <v>0.648</v>
       </c>
@@ -1897,6 +2075,9 @@
       <c r="C51" t="s">
         <v>115</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M51">
         <v>0.502</v>
       </c>
@@ -1920,6 +2101,9 @@
       <c r="C52" t="s">
         <v>116</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G52">
         <v>0.99</v>
       </c>
@@ -1955,6 +2139,9 @@
       <c r="C53" t="s">
         <v>117</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G53">
         <v>0.749</v>
       </c>
@@ -1999,6 +2186,9 @@
       <c r="C54" t="s">
         <v>118</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G54">
         <v>0.6860000000000001</v>
       </c>
@@ -2043,6 +2233,9 @@
       <c r="C55" t="s">
         <v>113</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E55">
         <v>0.765</v>
       </c>
@@ -2063,6 +2256,9 @@
       <c r="C56" t="s">
         <v>117</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E56">
         <v>0.9330000000000001</v>
       </c>
@@ -2083,6 +2279,9 @@
       <c r="C57" t="s">
         <v>118</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E57">
         <v>0.654</v>
       </c>
@@ -2103,6 +2302,9 @@
       <c r="C58" t="s">
         <v>113</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E58">
         <v>0.727</v>
       </c>
@@ -2138,6 +2340,9 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E59">
         <v>0.545</v>
       </c>
@@ -2152,6 +2357,9 @@
       <c r="C60" t="s">
         <v>116</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E60">
         <v>0.657</v>
       </c>
@@ -2184,6 +2392,9 @@
       <c r="C61" t="s">
         <v>117</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E61">
         <v>0.628</v>
       </c>
@@ -2219,6 +2430,9 @@
       <c r="C62" t="s">
         <v>118</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E62">
         <v>0.949</v>
       </c>
@@ -2254,6 +2468,9 @@
       <c r="C63" t="s">
         <v>113</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G63">
         <v>1</v>
       </c>
@@ -2283,6 +2500,9 @@
       <c r="C64" t="s">
         <v>116</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G64">
         <v>0.857</v>
       </c>
@@ -2312,6 +2532,9 @@
       <c r="C65" t="s">
         <v>117</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G65">
         <v>0.395</v>
       </c>
@@ -2341,6 +2564,9 @@
       <c r="C66" t="s">
         <v>118</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G66">
         <v>0.371</v>
       </c>
@@ -2370,6 +2596,9 @@
       <c r="C67" t="s">
         <v>113</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E67">
         <v>0.712</v>
       </c>
@@ -2384,6 +2613,9 @@
       <c r="C68" t="s">
         <v>115</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E68">
         <v>0.527</v>
       </c>
@@ -2398,6 +2630,9 @@
       <c r="C69" t="s">
         <v>116</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E69">
         <v>0.644</v>
       </c>
@@ -2412,6 +2647,9 @@
       <c r="C70" t="s">
         <v>117</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E70">
         <v>0.61</v>
       </c>
@@ -2426,6 +2664,9 @@
       <c r="C71" t="s">
         <v>118</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E71">
         <v>0.908</v>
       </c>
@@ -2440,6 +2681,9 @@
       <c r="C72" t="s">
         <v>113</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G72">
         <v>0.698</v>
       </c>
@@ -2484,6 +2728,9 @@
       <c r="C73" t="s">
         <v>114</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M73">
         <v>0.82</v>
       </c>
@@ -2510,6 +2757,9 @@
       <c r="C74" t="s">
         <v>115</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M74">
         <v>0.546</v>
       </c>
@@ -2533,6 +2783,9 @@
       <c r="C75" t="s">
         <v>116</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G75">
         <v>0.73</v>
       </c>
@@ -2568,6 +2821,9 @@
       <c r="C76" t="s">
         <v>117</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G76">
         <v>0.98</v>
       </c>
@@ -2612,6 +2868,9 @@
       <c r="C77" t="s">
         <v>118</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G77">
         <v>0.6899999999999999</v>
       </c>
@@ -2656,6 +2915,9 @@
       <c r="C78" t="s">
         <v>113</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E78">
         <v>0.59</v>
       </c>
@@ -2670,6 +2932,9 @@
       <c r="C79" t="s">
         <v>115</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E79">
         <v>0.835</v>
       </c>
@@ -2684,6 +2949,9 @@
       <c r="C80" t="s">
         <v>116</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E80">
         <v>0.726</v>
       </c>
@@ -2698,6 +2966,9 @@
       <c r="C81" t="s">
         <v>117</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E81">
         <v>0.654</v>
       </c>
@@ -2712,6 +2983,9 @@
       <c r="C82" t="s">
         <v>118</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E82">
         <v>0.5620000000000001</v>
       </c>
@@ -2726,6 +3000,9 @@
       <c r="C83" t="s">
         <v>113</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E83">
         <v>0.975</v>
       </c>
@@ -2773,6 +3050,9 @@
       <c r="C84" t="s">
         <v>114</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M84">
         <v>0.8169999999999999</v>
       </c>
@@ -2799,6 +3079,9 @@
       <c r="C85" t="s">
         <v>115</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E85">
         <v>0.491</v>
       </c>
@@ -2825,6 +3108,9 @@
       <c r="C86" t="s">
         <v>116</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E86">
         <v>0.622</v>
       </c>
@@ -2857,6 +3143,9 @@
       <c r="C87" t="s">
         <v>117</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E87">
         <v>0.713</v>
       </c>
@@ -2904,6 +3193,9 @@
       <c r="C88" t="s">
         <v>118</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E88">
         <v>0.736</v>
       </c>
@@ -2951,6 +3243,9 @@
       <c r="C89" t="s">
         <v>113</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E89">
         <v>0.664</v>
       </c>
@@ -3001,6 +3296,9 @@
       <c r="C90" t="s">
         <v>114</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M90">
         <v>0.786</v>
       </c>
@@ -3027,6 +3325,9 @@
       <c r="C91" t="s">
         <v>115</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M91">
         <v>0.585</v>
       </c>
@@ -3050,6 +3351,9 @@
       <c r="C92" t="s">
         <v>116</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G92">
         <v>0.737</v>
       </c>
@@ -3085,6 +3389,9 @@
       <c r="C93" t="s">
         <v>117</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E93">
         <v>0.863</v>
       </c>
@@ -3135,6 +3442,9 @@
       <c r="C94" t="s">
         <v>118</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E94">
         <v>0.637</v>
       </c>
@@ -3185,6 +3495,9 @@
       <c r="C95" t="s">
         <v>113</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G95">
         <v>0.718</v>
       </c>
@@ -3199,6 +3512,9 @@
       <c r="C96" t="s">
         <v>117</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G96">
         <v>0.97</v>
       </c>
@@ -3213,6 +3529,9 @@
       <c r="C97" t="s">
         <v>118</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G97">
         <v>0.743</v>
       </c>
@@ -3227,6 +3546,9 @@
       <c r="C98" t="s">
         <v>113</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G98">
         <v>0.881</v>
       </c>
@@ -3271,6 +3593,9 @@
       <c r="C99" t="s">
         <v>114</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M99">
         <v>0.721</v>
       </c>
@@ -3297,6 +3622,9 @@
       <c r="C100" t="s">
         <v>115</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M100">
         <v>0.506</v>
       </c>
@@ -3320,6 +3648,9 @@
       <c r="C101" t="s">
         <v>116</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G101">
         <v>0.515</v>
       </c>
@@ -3355,6 +3686,9 @@
       <c r="C102" t="s">
         <v>117</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G102">
         <v>0.522</v>
       </c>
@@ -3399,6 +3733,9 @@
       <c r="C103" t="s">
         <v>118</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G103">
         <v>0.991</v>
       </c>
@@ -3443,6 +3780,9 @@
       <c r="C104" t="s">
         <v>113</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E104">
         <v>0.845</v>
       </c>
@@ -3460,6 +3800,9 @@
       <c r="C105" t="s">
         <v>117</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E105">
         <v>0.6919999999999999</v>
       </c>
@@ -3477,6 +3820,9 @@
       <c r="C106" t="s">
         <v>118</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E106">
         <v>0.966</v>
       </c>
@@ -3494,6 +3840,9 @@
       <c r="C107" t="s">
         <v>113</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E107">
         <v>0.838</v>
       </c>
@@ -3544,6 +3893,9 @@
       <c r="C108" t="s">
         <v>114</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M108">
         <v>0.716</v>
       </c>
@@ -3570,6 +3922,9 @@
       <c r="C109" t="s">
         <v>115</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M109">
         <v>0.521</v>
       </c>
@@ -3593,6 +3948,9 @@
       <c r="C110" t="s">
         <v>116</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E110">
         <v>0.5</v>
       </c>
@@ -3631,6 +3989,9 @@
       <c r="C111" t="s">
         <v>117</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E111">
         <v>0.671</v>
       </c>
@@ -3681,6 +4042,9 @@
       <c r="C112" t="s">
         <v>118</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E112">
         <v>0.96</v>
       </c>
@@ -3731,6 +4095,9 @@
       <c r="C113" t="s">
         <v>113</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L113">
         <v>0.8169999999999999</v>
       </c>
@@ -3760,6 +4127,9 @@
       <c r="C114" t="s">
         <v>114</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M114">
         <v>0.696</v>
       </c>
@@ -3786,6 +4156,9 @@
       <c r="C115" t="s">
         <v>115</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M115">
         <v>0.507</v>
       </c>
@@ -3809,6 +4182,9 @@
       <c r="C116" t="s">
         <v>116</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P116">
         <v>0.671</v>
       </c>
@@ -3826,6 +4202,9 @@
       <c r="C117" t="s">
         <v>117</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L117">
         <v>0.82</v>
       </c>
@@ -3855,6 +4234,9 @@
       <c r="C118" t="s">
         <v>118</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L118">
         <v>0.988</v>
       </c>
@@ -3884,6 +4266,9 @@
       <c r="C119" t="s">
         <v>113</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="K119">
         <v>0.802</v>
       </c>
@@ -3901,6 +4286,9 @@
       <c r="C120" t="s">
         <v>116</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="K120">
         <v>0.921</v>
       </c>
@@ -3918,6 +4306,9 @@
       <c r="C121" t="s">
         <v>117</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="K121">
         <v>0.834</v>
       </c>
@@ -3935,6 +4326,9 @@
       <c r="C122" t="s">
         <v>118</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K122">
         <v>0.929</v>
       </c>
@@ -3952,6 +4346,9 @@
       <c r="C123" t="s">
         <v>113</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E123">
         <v>0.745</v>
       </c>
@@ -3966,6 +4363,9 @@
       <c r="C124" t="s">
         <v>115</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E124">
         <v>0.5610000000000001</v>
       </c>
@@ -3980,6 +4380,9 @@
       <c r="C125" t="s">
         <v>116</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E125">
         <v>0.6850000000000001</v>
       </c>
@@ -3994,6 +4397,9 @@
       <c r="C126" t="s">
         <v>117</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E126">
         <v>0.599</v>
       </c>
@@ -4008,6 +4414,9 @@
       <c r="C127" t="s">
         <v>118</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E127">
         <v>0.962</v>
       </c>
@@ -4022,6 +4431,9 @@
       <c r="C128" t="s">
         <v>113</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L128">
         <v>0.901</v>
       </c>
@@ -4051,6 +4463,9 @@
       <c r="C129" t="s">
         <v>114</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M129">
         <v>0.721</v>
       </c>
@@ -4077,6 +4492,9 @@
       <c r="C130" t="s">
         <v>115</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M130">
         <v>0.488</v>
       </c>
@@ -4100,6 +4518,9 @@
       <c r="C131" t="s">
         <v>116</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P131">
         <v>0.725</v>
       </c>
@@ -4117,6 +4538,9 @@
       <c r="C132" t="s">
         <v>117</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L132">
         <v>0.895</v>
       </c>
@@ -4146,6 +4570,9 @@
       <c r="C133" t="s">
         <v>118</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L133">
         <v>0.994</v>
       </c>
@@ -4175,6 +4602,9 @@
       <c r="C134" t="s">
         <v>113</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L134">
         <v>0.842</v>
       </c>
@@ -4204,6 +4634,9 @@
       <c r="C135" t="s">
         <v>114</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M135">
         <v>0.833</v>
       </c>
@@ -4230,6 +4663,9 @@
       <c r="C136" t="s">
         <v>115</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M136">
         <v>0.5669999999999999</v>
       </c>
@@ -4253,6 +4689,9 @@
       <c r="C137" t="s">
         <v>116</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P137">
         <v>0.65</v>
       </c>
@@ -4270,6 +4709,9 @@
       <c r="C138" t="s">
         <v>117</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L138">
         <v>0.99</v>
       </c>
@@ -4299,6 +4741,9 @@
       <c r="C139" t="s">
         <v>118</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L139">
         <v>0.84</v>
       </c>
@@ -4328,6 +4773,9 @@
       <c r="C140" t="s">
         <v>113</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E140">
         <v>1</v>
       </c>
@@ -4348,6 +4796,9 @@
       <c r="C141" t="s">
         <v>117</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E141">
         <v>0.778</v>
       </c>
@@ -4368,6 +4819,9 @@
       <c r="C142" t="s">
         <v>118</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E142">
         <v>0.828</v>
       </c>
@@ -4388,6 +4842,9 @@
       <c r="C143" t="s">
         <v>113</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G143">
         <v>0.784</v>
       </c>
@@ -4402,6 +4859,9 @@
       <c r="C144" t="s">
         <v>117</v>
       </c>
+      <c r="D144" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G144">
         <v>0.977</v>
       </c>
@@ -4416,6 +4876,9 @@
       <c r="C145" t="s">
         <v>118</v>
       </c>
+      <c r="D145" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G145">
         <v>0.824</v>
       </c>
@@ -4430,6 +4893,9 @@
       <c r="C146" t="s">
         <v>113</v>
       </c>
+      <c r="D146" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E146">
         <v>0.548</v>
       </c>
@@ -4444,6 +4910,9 @@
       <c r="C147" t="s">
         <v>115</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E147">
         <v>0.873</v>
       </c>
@@ -4458,6 +4927,9 @@
       <c r="C148" t="s">
         <v>116</v>
       </c>
+      <c r="D148" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E148">
         <v>0.66</v>
       </c>
@@ -4472,6 +4944,9 @@
       <c r="C149" t="s">
         <v>117</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E149">
         <v>0.626</v>
       </c>
@@ -4486,6 +4961,9 @@
       <c r="C150" t="s">
         <v>118</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E150">
         <v>0.574</v>
       </c>
@@ -4500,6 +4978,9 @@
       <c r="C151" t="s">
         <v>113</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L151">
         <v>0.8</v>
       </c>
@@ -4529,6 +5010,9 @@
       <c r="C152" t="s">
         <v>114</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M152">
         <v>0.713</v>
       </c>
@@ -4555,6 +5039,9 @@
       <c r="C153" t="s">
         <v>115</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M153">
         <v>0.515</v>
       </c>
@@ -4578,6 +5065,9 @@
       <c r="C154" t="s">
         <v>116</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P154">
         <v>0.732</v>
       </c>
@@ -4595,6 +5085,9 @@
       <c r="C155" t="s">
         <v>117</v>
       </c>
+      <c r="D155" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L155">
         <v>0.8139999999999999</v>
       </c>
@@ -4624,6 +5117,9 @@
       <c r="C156" t="s">
         <v>118</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L156">
         <v>0.993</v>
       </c>
@@ -4653,6 +5149,9 @@
       <c r="C157" t="s">
         <v>113</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E157">
         <v>0.8</v>
       </c>
@@ -4673,6 +5172,9 @@
       <c r="C158" t="s">
         <v>116</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G158">
         <v>0.731</v>
       </c>
@@ -4687,6 +5189,9 @@
       <c r="C159" t="s">
         <v>117</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E159">
         <v>0.961</v>
       </c>
@@ -4707,6 +5212,9 @@
       <c r="C160" t="s">
         <v>118</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E160">
         <v>0.6840000000000001</v>
       </c>
@@ -4727,6 +5235,9 @@
       <c r="C161" t="s">
         <v>113</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E161">
         <v>0.556</v>
       </c>
@@ -4741,6 +5252,9 @@
       <c r="C162" t="s">
         <v>115</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E162">
         <v>0.8070000000000001</v>
       </c>
@@ -4755,6 +5269,9 @@
       <c r="C163" t="s">
         <v>116</v>
       </c>
+      <c r="D163" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E163">
         <v>0.748</v>
       </c>
@@ -4769,6 +5286,9 @@
       <c r="C164" t="s">
         <v>117</v>
       </c>
+      <c r="D164" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E164">
         <v>0.549</v>
       </c>
@@ -4783,6 +5303,9 @@
       <c r="C165" t="s">
         <v>118</v>
       </c>
+      <c r="D165" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E165">
         <v>0.595</v>
       </c>
@@ -4797,6 +5320,9 @@
       <c r="C166" t="s">
         <v>113</v>
       </c>
+      <c r="D166" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E166">
         <v>0.773</v>
       </c>
@@ -4814,6 +5340,9 @@
       <c r="C167" t="s">
         <v>117</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E167">
         <v>0.9379999999999999</v>
       </c>
@@ -4831,6 +5360,9 @@
       <c r="C168" t="s">
         <v>118</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E168">
         <v>0.718</v>
       </c>
@@ -4848,6 +5380,9 @@
       <c r="C169" t="s">
         <v>113</v>
       </c>
+      <c r="D169" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E169">
         <v>0.968</v>
       </c>
@@ -4871,6 +5406,9 @@
       <c r="C170" t="s">
         <v>115</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E170">
         <v>0.554</v>
       </c>
@@ -4885,6 +5423,9 @@
       <c r="C171" t="s">
         <v>116</v>
       </c>
+      <c r="D171" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E171">
         <v>0.599</v>
       </c>
@@ -4905,6 +5446,9 @@
       <c r="C172" t="s">
         <v>117</v>
       </c>
+      <c r="D172" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E172">
         <v>0.704</v>
       </c>
@@ -4928,6 +5472,9 @@
       <c r="C173" t="s">
         <v>118</v>
       </c>
+      <c r="D173" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E173">
         <v>0.763</v>
       </c>
@@ -4951,6 +5498,9 @@
       <c r="C174" t="s">
         <v>113</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G174">
         <v>0.5570000000000001</v>
       </c>
@@ -4980,6 +5530,9 @@
       <c r="C175" t="s">
         <v>116</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G175">
         <v>0.781</v>
       </c>
@@ -5009,6 +5562,9 @@
       <c r="C176" t="s">
         <v>117</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G176">
         <v>0.983</v>
       </c>
@@ -5038,6 +5594,9 @@
       <c r="C177" t="s">
         <v>118</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G177">
         <v>0.609</v>
       </c>
@@ -5067,6 +5626,9 @@
       <c r="C178" t="s">
         <v>113</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G178">
         <v>0.695</v>
       </c>
@@ -5096,6 +5658,9 @@
       <c r="C179" t="s">
         <v>116</v>
       </c>
+      <c r="D179" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G179">
         <v>0.726</v>
       </c>
@@ -5125,6 +5690,9 @@
       <c r="C180" t="s">
         <v>117</v>
       </c>
+      <c r="D180" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G180">
         <v>0.98</v>
       </c>
@@ -5154,6 +5722,9 @@
       <c r="C181" t="s">
         <v>118</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G181">
         <v>0.669</v>
       </c>
@@ -5183,6 +5754,9 @@
       <c r="C182" t="s">
         <v>113</v>
       </c>
+      <c r="D182" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L182">
         <v>0.786</v>
       </c>
@@ -5212,6 +5786,9 @@
       <c r="C183" t="s">
         <v>114</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M183">
         <v>0.634</v>
       </c>
@@ -5238,6 +5815,9 @@
       <c r="C184" t="s">
         <v>115</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M184">
         <v>0.529</v>
       </c>
@@ -5261,6 +5841,9 @@
       <c r="C185" t="s">
         <v>116</v>
       </c>
+      <c r="D185" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P185">
         <v>0.695</v>
       </c>
@@ -5278,6 +5861,9 @@
       <c r="C186" t="s">
         <v>117</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L186">
         <v>0.78</v>
       </c>
@@ -5307,6 +5893,9 @@
       <c r="C187" t="s">
         <v>118</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L187">
         <v>0.993</v>
       </c>
@@ -5336,6 +5925,9 @@
       <c r="C188" t="s">
         <v>113</v>
       </c>
+      <c r="D188" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E188">
         <v>0.6</v>
       </c>
@@ -5350,6 +5942,9 @@
       <c r="C189" t="s">
         <v>115</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E189">
         <v>0.758</v>
       </c>
@@ -5364,6 +5959,9 @@
       <c r="C190" t="s">
         <v>116</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E190">
         <v>0.6889999999999999</v>
       </c>
@@ -5378,6 +5976,9 @@
       <c r="C191" t="s">
         <v>117</v>
       </c>
+      <c r="D191" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E191">
         <v>0.543</v>
       </c>
@@ -5392,6 +5993,9 @@
       <c r="C192" t="s">
         <v>118</v>
       </c>
+      <c r="D192" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E192">
         <v>0.655</v>
       </c>
@@ -5406,6 +6010,9 @@
       <c r="C193" t="s">
         <v>113</v>
       </c>
+      <c r="D193" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F193">
         <v>0.8070000000000001</v>
       </c>
@@ -5423,6 +6030,9 @@
       <c r="C194" t="s">
         <v>117</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F194">
         <v>0.974</v>
       </c>
@@ -5440,6 +6050,9 @@
       <c r="C195" t="s">
         <v>118</v>
       </c>
+      <c r="D195" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F195">
         <v>0.8090000000000001</v>
       </c>
@@ -5457,6 +6070,9 @@
       <c r="C196" t="s">
         <v>113</v>
       </c>
+      <c r="D196" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E196">
         <v>0.8179999999999999</v>
       </c>
@@ -5477,6 +6093,9 @@
       <c r="C197" t="s">
         <v>116</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E197">
         <v>0.619</v>
       </c>
@@ -5491,6 +6110,9 @@
       <c r="C198" t="s">
         <v>117</v>
       </c>
+      <c r="D198" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E198">
         <v>0.68</v>
       </c>
@@ -5511,6 +6133,9 @@
       <c r="C199" t="s">
         <v>118</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E199">
         <v>0.968</v>
       </c>
@@ -5531,6 +6156,9 @@
       <c r="C200" t="s">
         <v>113</v>
       </c>
+      <c r="D200" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H200">
         <v>0.586</v>
       </c>
@@ -5548,6 +6176,9 @@
       <c r="C201" t="s">
         <v>116</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H201">
         <v>1</v>
       </c>
@@ -5565,6 +6196,9 @@
       <c r="C202" t="s">
         <v>117</v>
       </c>
+      <c r="D202" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H202">
         <v>0.631</v>
       </c>
@@ -5582,6 +6216,9 @@
       <c r="C203" t="s">
         <v>118</v>
       </c>
+      <c r="D203" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="H203">
         <v>0.766</v>
       </c>
@@ -5599,6 +6236,9 @@
       <c r="C204" t="s">
         <v>113</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G204">
         <v>0.851</v>
       </c>
@@ -5628,6 +6268,9 @@
       <c r="C205" t="s">
         <v>116</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G205">
         <v>0.667</v>
       </c>
@@ -5657,6 +6300,9 @@
       <c r="C206" t="s">
         <v>117</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G206">
         <v>0.665</v>
       </c>
@@ -5686,6 +6332,9 @@
       <c r="C207" t="s">
         <v>118</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G207">
         <v>0.977</v>
       </c>
@@ -5715,6 +6364,9 @@
       <c r="C208" t="s">
         <v>113</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E208">
         <v>0.974</v>
       </c>
@@ -5729,6 +6381,9 @@
       <c r="C209" t="s">
         <v>115</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E209">
         <v>0.572</v>
       </c>
@@ -5743,6 +6398,9 @@
       <c r="C210" t="s">
         <v>116</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E210">
         <v>0.597</v>
       </c>
@@ -5757,6 +6415,9 @@
       <c r="C211" t="s">
         <v>117</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E211">
         <v>0.694</v>
       </c>
@@ -5771,6 +6432,9 @@
       <c r="C212" t="s">
         <v>118</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E212">
         <v>0.756</v>
       </c>
@@ -5785,6 +6449,9 @@
       <c r="C213" t="s">
         <v>113</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E213">
         <v>0.975</v>
       </c>
@@ -5799,6 +6466,9 @@
       <c r="C214" t="s">
         <v>115</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E214">
         <v>0.5600000000000001</v>
       </c>
@@ -5813,6 +6483,9 @@
       <c r="C215" t="s">
         <v>116</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E215">
         <v>0.603</v>
       </c>
@@ -5827,6 +6500,9 @@
       <c r="C216" t="s">
         <v>117</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E216">
         <v>0.706</v>
       </c>
@@ -5841,6 +6517,9 @@
       <c r="C217" t="s">
         <v>118</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E217">
         <v>0.766</v>
       </c>
@@ -5855,6 +6534,9 @@
       <c r="C218" t="s">
         <v>113</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G218">
         <v>0.838</v>
       </c>
@@ -5884,6 +6566,9 @@
       <c r="C219" t="s">
         <v>116</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G219">
         <v>0.681</v>
       </c>
@@ -5913,6 +6598,9 @@
       <c r="C220" t="s">
         <v>117</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G220">
         <v>0.667</v>
       </c>
@@ -5942,6 +6630,9 @@
       <c r="C221" t="s">
         <v>118</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G221">
         <v>0.977</v>
       </c>
@@ -5971,6 +6662,9 @@
       <c r="C222" t="s">
         <v>113</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G222">
         <v>0.716</v>
       </c>
@@ -5985,6 +6679,9 @@
       <c r="C223" t="s">
         <v>117</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G223">
         <v>0.975</v>
       </c>
@@ -5999,6 +6696,9 @@
       <c r="C224" t="s">
         <v>118</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G224">
         <v>0.749</v>
       </c>
@@ -6013,6 +6713,9 @@
       <c r="C225" t="s">
         <v>113</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E225">
         <v>0.766</v>
       </c>
@@ -6063,6 +6766,9 @@
       <c r="C226" t="s">
         <v>114</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M226">
         <v>0.6899999999999999</v>
       </c>
@@ -6089,6 +6795,9 @@
       <c r="C227" t="s">
         <v>115</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E227">
         <v>0.5669999999999999</v>
       </c>
@@ -6115,6 +6824,9 @@
       <c r="C228" t="s">
         <v>116</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E228">
         <v>0.5</v>
       </c>
@@ -6153,6 +6865,9 @@
       <c r="C229" t="s">
         <v>117</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E229">
         <v>0.643</v>
       </c>
@@ -6203,6 +6918,9 @@
       <c r="C230" t="s">
         <v>118</v>
       </c>
+      <c r="D230" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E230">
         <v>0.954</v>
       </c>
@@ -6253,6 +6971,9 @@
       <c r="C231" t="s">
         <v>113</v>
       </c>
+      <c r="D231" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G231">
         <v>0.727</v>
       </c>
@@ -6282,6 +7003,9 @@
       <c r="C232" t="s">
         <v>116</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G232">
         <v>0.731</v>
       </c>
@@ -6311,6 +7035,9 @@
       <c r="C233" t="s">
         <v>117</v>
       </c>
+      <c r="D233" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G233">
         <v>0.984</v>
       </c>
@@ -6340,6 +7067,9 @@
       <c r="C234" t="s">
         <v>118</v>
       </c>
+      <c r="D234" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G234">
         <v>0.736</v>
       </c>
@@ -6369,6 +7099,9 @@
       <c r="C235" t="s">
         <v>113</v>
       </c>
+      <c r="D235" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E235">
         <v>0.6830000000000001</v>
       </c>
@@ -6419,6 +7152,9 @@
       <c r="C236" t="s">
         <v>114</v>
       </c>
+      <c r="D236" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M236">
         <v>0.803</v>
       </c>
@@ -6445,6 +7181,9 @@
       <c r="C237" t="s">
         <v>115</v>
       </c>
+      <c r="D237" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M237">
         <v>0.59</v>
       </c>
@@ -6468,6 +7207,9 @@
       <c r="C238" t="s">
         <v>116</v>
       </c>
+      <c r="D238" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G238">
         <v>0.736</v>
       </c>
@@ -6503,6 +7245,9 @@
       <c r="C239" t="s">
         <v>117</v>
       </c>
+      <c r="D239" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E239">
         <v>0.848</v>
       </c>
@@ -6553,6 +7298,9 @@
       <c r="C240" t="s">
         <v>118</v>
       </c>
+      <c r="D240" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E240">
         <v>0.633</v>
       </c>
@@ -6603,6 +7351,9 @@
       <c r="C241" t="s">
         <v>113</v>
       </c>
+      <c r="D241" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E241">
         <v>0.707</v>
       </c>
@@ -6617,6 +7368,9 @@
       <c r="C242" t="s">
         <v>115</v>
       </c>
+      <c r="D242" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E242">
         <v>0.542</v>
       </c>
@@ -6631,6 +7385,9 @@
       <c r="C243" t="s">
         <v>116</v>
       </c>
+      <c r="D243" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E243">
         <v>0.631</v>
       </c>
@@ -6645,6 +7402,9 @@
       <c r="C244" t="s">
         <v>117</v>
       </c>
+      <c r="D244" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E244">
         <v>0.919</v>
       </c>
@@ -6659,6 +7419,9 @@
       <c r="C245" t="s">
         <v>118</v>
       </c>
+      <c r="D245" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E245">
         <v>0.651</v>
       </c>
@@ -6673,6 +7436,9 @@
       <c r="C246" t="s">
         <v>113</v>
       </c>
+      <c r="D246" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L246">
         <v>0.803</v>
       </c>
@@ -6702,6 +7468,9 @@
       <c r="C247" t="s">
         <v>114</v>
       </c>
+      <c r="D247" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M247">
         <v>0.466</v>
       </c>
@@ -6728,6 +7497,9 @@
       <c r="C248" t="s">
         <v>115</v>
       </c>
+      <c r="D248" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M248">
         <v>1</v>
       </c>
@@ -6751,6 +7523,9 @@
       <c r="C249" t="s">
         <v>116</v>
       </c>
+      <c r="D249" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P249">
         <v>0.876</v>
       </c>
@@ -6768,6 +7543,9 @@
       <c r="C250" t="s">
         <v>117</v>
       </c>
+      <c r="D250" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L250">
         <v>0.8179999999999999</v>
       </c>
@@ -6797,6 +7575,9 @@
       <c r="C251" t="s">
         <v>118</v>
       </c>
+      <c r="D251" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L251">
         <v>0.984</v>
       </c>
@@ -6826,6 +7607,9 @@
       <c r="C252" t="s">
         <v>113</v>
       </c>
+      <c r="D252" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E252">
         <v>1</v>
       </c>
@@ -6846,6 +7630,9 @@
       <c r="C253" t="s">
         <v>117</v>
       </c>
+      <c r="D253" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E253">
         <v>0.769</v>
       </c>
@@ -6866,6 +7653,9 @@
       <c r="C254" t="s">
         <v>118</v>
       </c>
+      <c r="D254" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E254">
         <v>0.831</v>
       </c>
@@ -6886,6 +7676,9 @@
       <c r="C255" t="s">
         <v>113</v>
       </c>
+      <c r="D255" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L255">
         <v>0.798</v>
       </c>
@@ -6915,6 +7708,9 @@
       <c r="C256" t="s">
         <v>114</v>
       </c>
+      <c r="D256" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M256">
         <v>0.7</v>
       </c>
@@ -6941,6 +7737,9 @@
       <c r="C257" t="s">
         <v>115</v>
       </c>
+      <c r="D257" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M257">
         <v>0.507</v>
       </c>
@@ -6964,6 +7763,9 @@
       <c r="C258" t="s">
         <v>116</v>
       </c>
+      <c r="D258" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P258">
         <v>0.733</v>
       </c>
@@ -6981,6 +7783,9 @@
       <c r="C259" t="s">
         <v>117</v>
       </c>
+      <c r="D259" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L259">
         <v>0.82</v>
       </c>
@@ -7010,6 +7815,9 @@
       <c r="C260" t="s">
         <v>118</v>
       </c>
+      <c r="D260" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L260">
         <v>0.993</v>
       </c>
@@ -7039,6 +7847,9 @@
       <c r="C261" t="s">
         <v>113</v>
       </c>
+      <c r="D261" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="P261">
         <v>0.8070000000000001</v>
       </c>
@@ -7056,6 +7867,9 @@
       <c r="C262" t="s">
         <v>114</v>
       </c>
+      <c r="D262" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="P262">
         <v>0.734</v>
       </c>
@@ -7073,6 +7887,9 @@
       <c r="C263" t="s">
         <v>115</v>
       </c>
+      <c r="D263" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="P263">
         <v>0.443</v>
       </c>
@@ -7087,6 +7904,9 @@
       <c r="C264" t="s">
         <v>116</v>
       </c>
+      <c r="D264" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P264">
         <v>0.754</v>
       </c>
@@ -7104,6 +7924,9 @@
       <c r="C265" t="s">
         <v>117</v>
       </c>
+      <c r="D265" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="P265">
         <v>0.796</v>
       </c>
@@ -7121,6 +7944,9 @@
       <c r="C266" t="s">
         <v>118</v>
       </c>
+      <c r="D266" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="P266">
         <v>0.967</v>
       </c>
@@ -7138,6 +7964,9 @@
       <c r="C267" t="s">
         <v>113</v>
       </c>
+      <c r="D267" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E267">
         <v>0.716</v>
       </c>
@@ -7158,6 +7987,9 @@
       <c r="C268" t="s">
         <v>115</v>
       </c>
+      <c r="D268" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E268">
         <v>0.601</v>
       </c>
@@ -7172,6 +8004,9 @@
       <c r="C269" t="s">
         <v>116</v>
       </c>
+      <c r="D269" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E269">
         <v>0.509</v>
       </c>
@@ -7186,6 +8021,9 @@
       <c r="C270" t="s">
         <v>117</v>
       </c>
+      <c r="D270" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E270">
         <v>0.961</v>
       </c>
@@ -7206,6 +8044,9 @@
       <c r="C271" t="s">
         <v>118</v>
       </c>
+      <c r="D271" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E271">
         <v>0.638</v>
       </c>
@@ -7226,6 +8067,9 @@
       <c r="C272" t="s">
         <v>113</v>
       </c>
+      <c r="D272" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E272">
         <v>0.785</v>
       </c>
@@ -7243,6 +8087,9 @@
       <c r="C273" t="s">
         <v>117</v>
       </c>
+      <c r="D273" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E273">
         <v>0.9429999999999999</v>
       </c>
@@ -7260,6 +8107,9 @@
       <c r="C274" t="s">
         <v>118</v>
       </c>
+      <c r="D274" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E274">
         <v>0.668</v>
       </c>
@@ -7277,6 +8127,9 @@
       <c r="C275" t="s">
         <v>113</v>
       </c>
+      <c r="D275" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E275">
         <v>0.801</v>
       </c>
@@ -7327,6 +8180,9 @@
       <c r="C276" t="s">
         <v>114</v>
       </c>
+      <c r="D276" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M276">
         <v>0.821</v>
       </c>
@@ -7353,6 +8209,9 @@
       <c r="C277" t="s">
         <v>115</v>
       </c>
+      <c r="D277" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E277">
         <v>0.642</v>
       </c>
@@ -7379,6 +8238,9 @@
       <c r="C278" t="s">
         <v>116</v>
       </c>
+      <c r="D278" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E278">
         <v>0.624</v>
       </c>
@@ -7417,6 +8279,9 @@
       <c r="C279" t="s">
         <v>117</v>
       </c>
+      <c r="D279" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E279">
         <v>0.948</v>
       </c>
@@ -7467,6 +8332,9 @@
       <c r="C280" t="s">
         <v>118</v>
       </c>
+      <c r="D280" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E280">
         <v>0.6879999999999999</v>
       </c>
@@ -7517,6 +8385,9 @@
       <c r="C281" t="s">
         <v>113</v>
       </c>
+      <c r="D281" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E281">
         <v>0.795</v>
       </c>
@@ -7534,6 +8405,9 @@
       <c r="C282" t="s">
         <v>117</v>
       </c>
+      <c r="D282" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E282">
         <v>0.953</v>
       </c>
@@ -7551,6 +8425,9 @@
       <c r="C283" t="s">
         <v>118</v>
       </c>
+      <c r="D283" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E283">
         <v>0.7</v>
       </c>
@@ -7568,6 +8445,9 @@
       <c r="C284" t="s">
         <v>113</v>
       </c>
+      <c r="D284" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="M284">
         <v>0.827</v>
       </c>
@@ -7594,6 +8474,9 @@
       <c r="C285" t="s">
         <v>114</v>
       </c>
+      <c r="D285" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M285">
         <v>0.82</v>
       </c>
@@ -7620,6 +8503,9 @@
       <c r="C286" t="s">
         <v>115</v>
       </c>
+      <c r="D286" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M286">
         <v>0.5629999999999999</v>
       </c>
@@ -7643,6 +8529,9 @@
       <c r="C287" t="s">
         <v>116</v>
       </c>
+      <c r="D287" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P287">
         <v>0.631</v>
       </c>
@@ -7657,6 +8546,9 @@
       <c r="C288" t="s">
         <v>117</v>
       </c>
+      <c r="D288" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="M288">
         <v>0.98</v>
       </c>
@@ -7683,6 +8575,9 @@
       <c r="C289" t="s">
         <v>118</v>
       </c>
+      <c r="D289" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="M289">
         <v>0.789</v>
       </c>
@@ -7709,6 +8604,9 @@
       <c r="C290" t="s">
         <v>113</v>
       </c>
+      <c r="D290" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="J290">
         <v>0.919</v>
       </c>
@@ -7729,6 +8627,9 @@
       <c r="C291" t="s">
         <v>116</v>
       </c>
+      <c r="D291" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="J291">
         <v>0.768</v>
       </c>
@@ -7749,6 +8650,9 @@
       <c r="C292" t="s">
         <v>117</v>
       </c>
+      <c r="D292" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="J292">
         <v>0.826</v>
       </c>
@@ -7769,6 +8673,9 @@
       <c r="C293" t="s">
         <v>118</v>
       </c>
+      <c r="D293" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="J293">
         <v>0.982</v>
       </c>
@@ -7789,6 +8696,9 @@
       <c r="C294" t="s">
         <v>113</v>
       </c>
+      <c r="D294" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L294">
         <v>0.978</v>
       </c>
@@ -7818,6 +8728,9 @@
       <c r="C295" t="s">
         <v>114</v>
       </c>
+      <c r="D295" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M295">
         <v>0.761</v>
       </c>
@@ -7844,6 +8757,9 @@
       <c r="C296" t="s">
         <v>115</v>
       </c>
+      <c r="D296" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M296">
         <v>0.443</v>
       </c>
@@ -7867,6 +8783,9 @@
       <c r="C297" t="s">
         <v>116</v>
       </c>
+      <c r="D297" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P297">
         <v>0.656</v>
       </c>
@@ -7884,6 +8803,9 @@
       <c r="C298" t="s">
         <v>117</v>
       </c>
+      <c r="D298" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L298">
         <v>0.835</v>
       </c>
@@ -7913,6 +8835,9 @@
       <c r="C299" t="s">
         <v>118</v>
       </c>
+      <c r="D299" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L299">
         <v>0.821</v>
       </c>
@@ -7942,6 +8867,9 @@
       <c r="C300" t="s">
         <v>113</v>
       </c>
+      <c r="D300" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G300">
         <v>0.678</v>
       </c>
@@ -7986,6 +8914,9 @@
       <c r="C301" t="s">
         <v>114</v>
       </c>
+      <c r="D301" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M301">
         <v>1</v>
       </c>
@@ -8012,6 +8943,9 @@
       <c r="C302" t="s">
         <v>115</v>
       </c>
+      <c r="D302" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M302">
         <v>0.541</v>
       </c>
@@ -8035,6 +8969,9 @@
       <c r="C303" t="s">
         <v>116</v>
       </c>
+      <c r="D303" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G303">
         <v>0.714</v>
       </c>
@@ -8070,6 +9007,9 @@
       <c r="C304" t="s">
         <v>117</v>
       </c>
+      <c r="D304" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G304">
         <v>0.984</v>
       </c>
@@ -8114,6 +9054,9 @@
       <c r="C305" t="s">
         <v>118</v>
       </c>
+      <c r="D305" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G305">
         <v>0.651</v>
       </c>
@@ -8158,6 +9101,9 @@
       <c r="C306" t="s">
         <v>113</v>
       </c>
+      <c r="D306" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E306">
         <v>0.6929999999999999</v>
       </c>
@@ -8172,6 +9118,9 @@
       <c r="C307" t="s">
         <v>115</v>
       </c>
+      <c r="D307" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E307">
         <v>0.606</v>
       </c>
@@ -8186,6 +9135,9 @@
       <c r="C308" t="s">
         <v>116</v>
       </c>
+      <c r="D308" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E308">
         <v>0.49</v>
       </c>
@@ -8200,6 +9152,9 @@
       <c r="C309" t="s">
         <v>117</v>
       </c>
+      <c r="D309" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E309">
         <v>0.953</v>
       </c>
@@ -8214,6 +9169,9 @@
       <c r="C310" t="s">
         <v>118</v>
       </c>
+      <c r="D310" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E310">
         <v>0.622</v>
       </c>
@@ -8228,6 +9186,9 @@
       <c r="C311" t="s">
         <v>113</v>
       </c>
+      <c r="D311" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E311">
         <v>0.826</v>
       </c>
@@ -8248,6 +9209,9 @@
       <c r="C312" t="s">
         <v>117</v>
       </c>
+      <c r="D312" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E312">
         <v>0.9389999999999999</v>
       </c>
@@ -8268,6 +9232,9 @@
       <c r="C313" t="s">
         <v>118</v>
       </c>
+      <c r="D313" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E313">
         <v>0.6820000000000001</v>
       </c>
@@ -8288,6 +9255,9 @@
       <c r="C314" t="s">
         <v>113</v>
       </c>
+      <c r="D314" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E314">
         <v>0.782</v>
       </c>
@@ -8308,6 +9278,9 @@
       <c r="C315" t="s">
         <v>117</v>
       </c>
+      <c r="D315" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E315">
         <v>0.927</v>
       </c>
@@ -8328,6 +9301,9 @@
       <c r="C316" t="s">
         <v>118</v>
       </c>
+      <c r="D316" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E316">
         <v>0.719</v>
       </c>
@@ -8348,6 +9324,9 @@
       <c r="C317" t="s">
         <v>113</v>
       </c>
+      <c r="D317" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G317">
         <v>0.96</v>
       </c>
@@ -8392,6 +9371,9 @@
       <c r="C318" t="s">
         <v>114</v>
       </c>
+      <c r="D318" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M318">
         <v>0.752</v>
       </c>
@@ -8418,6 +9400,9 @@
       <c r="C319" t="s">
         <v>115</v>
       </c>
+      <c r="D319" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M319">
         <v>0.539</v>
       </c>
@@ -8441,6 +9426,9 @@
       <c r="C320" t="s">
         <v>116</v>
       </c>
+      <c r="D320" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G320">
         <v>0.5679999999999999</v>
       </c>
@@ -8476,6 +9464,9 @@
       <c r="C321" t="s">
         <v>117</v>
       </c>
+      <c r="D321" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G321">
         <v>0.5659999999999999</v>
       </c>
@@ -8520,6 +9511,9 @@
       <c r="C322" t="s">
         <v>118</v>
       </c>
+      <c r="D322" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G322">
         <v>0.777</v>
       </c>
@@ -8564,6 +9558,9 @@
       <c r="C323" t="s">
         <v>113</v>
       </c>
+      <c r="D323" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="K323">
         <v>0.975</v>
       </c>
@@ -8581,6 +9578,9 @@
       <c r="C324" t="s">
         <v>116</v>
       </c>
+      <c r="D324" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="K324">
         <v>0.775</v>
       </c>
@@ -8598,6 +9598,9 @@
       <c r="C325" t="s">
         <v>117</v>
       </c>
+      <c r="D325" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="K325">
         <v>0.775</v>
       </c>
@@ -8615,6 +9618,9 @@
       <c r="C326" t="s">
         <v>118</v>
       </c>
+      <c r="D326" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K326">
         <v>0.839</v>
       </c>
@@ -8632,6 +9638,9 @@
       <c r="C327" t="s">
         <v>113</v>
       </c>
+      <c r="D327" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E327">
         <v>0.668</v>
       </c>
@@ -8646,6 +9655,9 @@
       <c r="C328" t="s">
         <v>115</v>
       </c>
+      <c r="D328" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E328">
         <v>0.644</v>
       </c>
@@ -8660,6 +9672,9 @@
       <c r="C329" t="s">
         <v>116</v>
       </c>
+      <c r="D329" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E329">
         <v>0.53</v>
       </c>
@@ -8674,6 +9689,9 @@
       <c r="C330" t="s">
         <v>117</v>
       </c>
+      <c r="D330" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E330">
         <v>0.881</v>
       </c>
@@ -8688,6 +9706,9 @@
       <c r="C331" t="s">
         <v>118</v>
       </c>
+      <c r="D331" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E331">
         <v>0.542</v>
       </c>
@@ -8702,6 +9723,9 @@
       <c r="C332" t="s">
         <v>113</v>
       </c>
+      <c r="D332" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E332">
         <v>0.554</v>
       </c>
@@ -8716,6 +9740,9 @@
       <c r="C333" t="s">
         <v>115</v>
       </c>
+      <c r="D333" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E333">
         <v>0.855</v>
       </c>
@@ -8730,6 +9757,9 @@
       <c r="C334" t="s">
         <v>116</v>
       </c>
+      <c r="D334" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E334">
         <v>0.6840000000000001</v>
       </c>
@@ -8744,6 +9774,9 @@
       <c r="C335" t="s">
         <v>117</v>
       </c>
+      <c r="D335" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E335">
         <v>0.652</v>
       </c>
@@ -8758,6 +9791,9 @@
       <c r="C336" t="s">
         <v>118</v>
       </c>
+      <c r="D336" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E336">
         <v>0.572</v>
       </c>
@@ -8772,6 +9808,9 @@
       <c r="C337" t="s">
         <v>113</v>
       </c>
+      <c r="D337" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G337">
         <v>0.676</v>
       </c>
@@ -8801,6 +9840,9 @@
       <c r="C338" t="s">
         <v>116</v>
       </c>
+      <c r="D338" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G338">
         <v>0.734</v>
       </c>
@@ -8830,6 +9872,9 @@
       <c r="C339" t="s">
         <v>117</v>
       </c>
+      <c r="D339" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G339">
         <v>0.981</v>
       </c>
@@ -8859,6 +9904,9 @@
       <c r="C340" t="s">
         <v>118</v>
       </c>
+      <c r="D340" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G340">
         <v>0.672</v>
       </c>
@@ -8888,6 +9936,9 @@
       <c r="C341" t="s">
         <v>113</v>
       </c>
+      <c r="D341" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E341">
         <v>0.8100000000000001</v>
       </c>
@@ -8905,6 +9956,9 @@
       <c r="C342" t="s">
         <v>117</v>
       </c>
+      <c r="D342" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E342">
         <v>0.952</v>
       </c>
@@ -8922,6 +9976,9 @@
       <c r="C343" t="s">
         <v>118</v>
       </c>
+      <c r="D343" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E343">
         <v>0.665</v>
       </c>
@@ -8939,6 +9996,9 @@
       <c r="C344" t="s">
         <v>113</v>
       </c>
+      <c r="D344" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E344">
         <v>0.752</v>
       </c>
@@ -8953,6 +10013,9 @@
       <c r="C345" t="s">
         <v>115</v>
       </c>
+      <c r="D345" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E345">
         <v>0.552</v>
       </c>
@@ -8967,6 +10030,9 @@
       <c r="C346" t="s">
         <v>116</v>
       </c>
+      <c r="D346" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E346">
         <v>0.622</v>
       </c>
@@ -8981,6 +10047,9 @@
       <c r="C347" t="s">
         <v>117</v>
       </c>
+      <c r="D347" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E347">
         <v>0.622</v>
       </c>
@@ -8995,6 +10064,9 @@
       <c r="C348" t="s">
         <v>118</v>
       </c>
+      <c r="D348" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E348">
         <v>0.955</v>
       </c>
@@ -9009,6 +10081,9 @@
       <c r="C349" t="s">
         <v>113</v>
       </c>
+      <c r="D349" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E349">
         <v>0.6850000000000001</v>
       </c>
@@ -9023,6 +10098,9 @@
       <c r="C350" t="s">
         <v>115</v>
       </c>
+      <c r="D350" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E350">
         <v>0.5679999999999999</v>
       </c>
@@ -9037,6 +10115,9 @@
       <c r="C351" t="s">
         <v>116</v>
       </c>
+      <c r="D351" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E351">
         <v>0.621</v>
       </c>
@@ -9051,6 +10132,9 @@
       <c r="C352" t="s">
         <v>117</v>
       </c>
+      <c r="D352" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E352">
         <v>0.908</v>
       </c>
@@ -9065,6 +10149,9 @@
       <c r="C353" t="s">
         <v>118</v>
       </c>
+      <c r="D353" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E353">
         <v>0.596</v>
       </c>
@@ -9079,6 +10166,9 @@
       <c r="C354" t="s">
         <v>113</v>
       </c>
+      <c r="D354" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E354">
         <v>1</v>
       </c>
@@ -9126,6 +10216,9 @@
       <c r="C355" t="s">
         <v>114</v>
       </c>
+      <c r="D355" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M355">
         <v>0.8080000000000001</v>
       </c>
@@ -9152,6 +10245,9 @@
       <c r="C356" t="s">
         <v>115</v>
       </c>
+      <c r="D356" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M356">
         <v>0.5629999999999999</v>
       </c>
@@ -9175,6 +10271,9 @@
       <c r="C357" t="s">
         <v>116</v>
       </c>
+      <c r="D357" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G357">
         <v>0.675</v>
       </c>
@@ -9201,6 +10300,9 @@
       <c r="C358" t="s">
         <v>117</v>
       </c>
+      <c r="D358" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E358">
         <v>0.775</v>
       </c>
@@ -9248,6 +10350,9 @@
       <c r="C359" t="s">
         <v>118</v>
       </c>
+      <c r="D359" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E359">
         <v>0.838</v>
       </c>
@@ -9295,6 +10400,9 @@
       <c r="C360" t="s">
         <v>113</v>
       </c>
+      <c r="D360" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E360">
         <v>0.794</v>
       </c>
@@ -9330,6 +10438,9 @@
       <c r="C361" t="s">
         <v>116</v>
       </c>
+      <c r="D361" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G361">
         <v>0.753</v>
       </c>
@@ -9359,6 +10470,9 @@
       <c r="C362" t="s">
         <v>117</v>
       </c>
+      <c r="D362" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E362">
         <v>0.954</v>
       </c>
@@ -9394,6 +10508,9 @@
       <c r="C363" t="s">
         <v>118</v>
       </c>
+      <c r="D363" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E363">
         <v>0.6850000000000001</v>
       </c>
@@ -9429,6 +10546,9 @@
       <c r="C364" t="s">
         <v>113</v>
       </c>
+      <c r="D364" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E364">
         <v>1</v>
       </c>
@@ -9479,6 +10599,9 @@
       <c r="C365" t="s">
         <v>114</v>
       </c>
+      <c r="D365" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M365">
         <v>0.764</v>
       </c>
@@ -9505,6 +10628,9 @@
       <c r="C366" t="s">
         <v>115</v>
       </c>
+      <c r="D366" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M366">
         <v>0.474</v>
       </c>
@@ -9528,6 +10654,9 @@
       <c r="C367" t="s">
         <v>116</v>
       </c>
+      <c r="D367" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G367">
         <v>0.58</v>
       </c>
@@ -9560,6 +10689,9 @@
       <c r="C368" t="s">
         <v>117</v>
       </c>
+      <c r="D368" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E368">
         <v>0.776</v>
       </c>
@@ -9610,6 +10742,9 @@
       <c r="C369" t="s">
         <v>118</v>
       </c>
+      <c r="D369" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E369">
         <v>0.84</v>
       </c>
@@ -9660,6 +10795,9 @@
       <c r="C370" t="s">
         <v>113</v>
       </c>
+      <c r="D370" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E370">
         <v>0.713</v>
       </c>
@@ -9677,6 +10815,9 @@
       <c r="C371" t="s">
         <v>115</v>
       </c>
+      <c r="D371" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E371">
         <v>0.593</v>
       </c>
@@ -9691,6 +10832,9 @@
       <c r="C372" t="s">
         <v>116</v>
       </c>
+      <c r="D372" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E372">
         <v>0.538</v>
       </c>
@@ -9705,6 +10849,9 @@
       <c r="C373" t="s">
         <v>117</v>
       </c>
+      <c r="D373" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E373">
         <v>0.946</v>
       </c>
@@ -9722,6 +10869,9 @@
       <c r="C374" t="s">
         <v>118</v>
       </c>
+      <c r="D374" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E374">
         <v>0.661</v>
       </c>
@@ -9739,6 +10889,9 @@
       <c r="C375" t="s">
         <v>113</v>
       </c>
+      <c r="D375" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E375">
         <v>0.868</v>
       </c>
@@ -9765,6 +10918,9 @@
       <c r="C376" t="s">
         <v>116</v>
       </c>
+      <c r="D376" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E376">
         <v>0.57</v>
       </c>
@@ -9788,6 +10944,9 @@
       <c r="C377" t="s">
         <v>117</v>
       </c>
+      <c r="D377" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E377">
         <v>0.702</v>
       </c>
@@ -9814,6 +10973,9 @@
       <c r="C378" t="s">
         <v>118</v>
       </c>
+      <c r="D378" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E378">
         <v>0.956</v>
       </c>
@@ -9840,6 +11002,9 @@
       <c r="C379" t="s">
         <v>113</v>
       </c>
+      <c r="D379" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="O379">
         <v>0.852</v>
       </c>
@@ -9860,6 +11025,9 @@
       <c r="C380" t="s">
         <v>114</v>
       </c>
+      <c r="D380" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="O380">
         <v>0.767</v>
       </c>
@@ -9880,6 +11048,9 @@
       <c r="C381" t="s">
         <v>115</v>
       </c>
+      <c r="D381" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="O381">
         <v>0.44</v>
       </c>
@@ -9897,6 +11068,9 @@
       <c r="C382" t="s">
         <v>116</v>
       </c>
+      <c r="D382" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P382">
         <v>0.741</v>
       </c>
@@ -9914,6 +11088,9 @@
       <c r="C383" t="s">
         <v>117</v>
       </c>
+      <c r="D383" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="O383">
         <v>0.795</v>
       </c>
@@ -9934,6 +11111,9 @@
       <c r="C384" t="s">
         <v>118</v>
       </c>
+      <c r="D384" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="O384">
         <v>0.972</v>
       </c>
@@ -9954,6 +11134,9 @@
       <c r="C385" t="s">
         <v>113</v>
       </c>
+      <c r="D385" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E385">
         <v>0.801</v>
       </c>
@@ -9989,6 +11172,9 @@
       <c r="C386" t="s">
         <v>116</v>
       </c>
+      <c r="D386" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G386">
         <v>0.75</v>
       </c>
@@ -10018,6 +11204,9 @@
       <c r="C387" t="s">
         <v>117</v>
       </c>
+      <c r="D387" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E387">
         <v>0.962</v>
       </c>
@@ -10053,6 +11242,9 @@
       <c r="C388" t="s">
         <v>118</v>
       </c>
+      <c r="D388" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E388">
         <v>0.6850000000000001</v>
       </c>
@@ -10088,6 +11280,9 @@
       <c r="C389" t="s">
         <v>113</v>
       </c>
+      <c r="D389" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L389">
         <v>0.849</v>
       </c>
@@ -10117,6 +11312,9 @@
       <c r="C390" t="s">
         <v>114</v>
       </c>
+      <c r="D390" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M390">
         <v>0.8100000000000001</v>
       </c>
@@ -10143,6 +11341,9 @@
       <c r="C391" t="s">
         <v>115</v>
       </c>
+      <c r="D391" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M391">
         <v>0.5659999999999999</v>
       </c>
@@ -10166,6 +11367,9 @@
       <c r="C392" t="s">
         <v>116</v>
       </c>
+      <c r="D392" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P392">
         <v>0.652</v>
       </c>
@@ -10183,6 +11387,9 @@
       <c r="C393" t="s">
         <v>117</v>
       </c>
+      <c r="D393" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L393">
         <v>0.989</v>
       </c>
@@ -10212,6 +11419,9 @@
       <c r="C394" t="s">
         <v>118</v>
       </c>
+      <c r="D394" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L394">
         <v>0.846</v>
       </c>
@@ -10241,6 +11451,9 @@
       <c r="C395" t="s">
         <v>113</v>
       </c>
+      <c r="D395" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E395">
         <v>0.956</v>
       </c>
@@ -10255,6 +11468,9 @@
       <c r="C396" t="s">
         <v>115</v>
       </c>
+      <c r="D396" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E396">
         <v>0.533</v>
       </c>
@@ -10269,6 +11485,9 @@
       <c r="C397" t="s">
         <v>116</v>
       </c>
+      <c r="D397" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E397">
         <v>0.594</v>
       </c>
@@ -10283,6 +11502,9 @@
       <c r="C398" t="s">
         <v>117</v>
       </c>
+      <c r="D398" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E398">
         <v>0.712</v>
       </c>
@@ -10297,6 +11519,9 @@
       <c r="C399" t="s">
         <v>118</v>
       </c>
+      <c r="D399" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E399">
         <v>0.756</v>
       </c>
@@ -10311,6 +11536,9 @@
       <c r="C400" t="s">
         <v>113</v>
       </c>
+      <c r="D400" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E400">
         <v>0.791</v>
       </c>
@@ -10346,6 +11574,9 @@
       <c r="C401" t="s">
         <v>115</v>
       </c>
+      <c r="D401" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E401">
         <v>0.674</v>
       </c>
@@ -10360,6 +11591,9 @@
       <c r="C402" t="s">
         <v>116</v>
       </c>
+      <c r="D402" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E402">
         <v>0.639</v>
       </c>
@@ -10392,6 +11626,9 @@
       <c r="C403" t="s">
         <v>117</v>
       </c>
+      <c r="D403" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E403">
         <v>0.657</v>
       </c>
@@ -10427,6 +11664,9 @@
       <c r="C404" t="s">
         <v>118</v>
       </c>
+      <c r="D404" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E404">
         <v>0.95</v>
       </c>
@@ -10462,6 +11702,9 @@
       <c r="C405" t="s">
         <v>113</v>
       </c>
+      <c r="D405" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E405">
         <v>0.78</v>
       </c>
@@ -10476,6 +11719,9 @@
       <c r="C406" t="s">
         <v>117</v>
       </c>
+      <c r="D406" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E406">
         <v>0.9409999999999999</v>
       </c>
@@ -10490,6 +11736,9 @@
       <c r="C407" t="s">
         <v>118</v>
       </c>
+      <c r="D407" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E407">
         <v>0.694</v>
       </c>
@@ -10504,6 +11753,9 @@
       <c r="C408" t="s">
         <v>113</v>
       </c>
+      <c r="D408" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L408">
         <v>0.828</v>
       </c>
@@ -10533,6 +11785,9 @@
       <c r="C409" t="s">
         <v>114</v>
       </c>
+      <c r="D409" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M409">
         <v>0.722</v>
       </c>
@@ -10559,6 +11814,9 @@
       <c r="C410" t="s">
         <v>115</v>
       </c>
+      <c r="D410" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M410">
         <v>0.491</v>
       </c>
@@ -10582,6 +11840,9 @@
       <c r="C411" t="s">
         <v>116</v>
       </c>
+      <c r="D411" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="P411">
         <v>0.65</v>
       </c>
@@ -10599,6 +11860,9 @@
       <c r="C412" t="s">
         <v>117</v>
       </c>
+      <c r="D412" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L412">
         <v>0.838</v>
       </c>
@@ -10628,6 +11892,9 @@
       <c r="C413" t="s">
         <v>118</v>
       </c>
+      <c r="D413" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L413">
         <v>0.989</v>
       </c>
@@ -10657,6 +11924,9 @@
       <c r="C414" t="s">
         <v>113</v>
       </c>
+      <c r="D414" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E414">
         <v>0.6929999999999999</v>
       </c>
@@ -10671,6 +11941,9 @@
       <c r="C415" t="s">
         <v>115</v>
       </c>
+      <c r="D415" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E415">
         <v>0.581</v>
       </c>
@@ -10685,6 +11958,9 @@
       <c r="C416" t="s">
         <v>117</v>
       </c>
+      <c r="D416" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E416">
         <v>0.9320000000000001</v>
       </c>
@@ -10699,6 +11975,9 @@
       <c r="C417" t="s">
         <v>118</v>
       </c>
+      <c r="D417" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E417">
         <v>0.604</v>
       </c>
@@ -10713,6 +11992,9 @@
       <c r="C418" t="s">
         <v>113</v>
       </c>
+      <c r="D418" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E418">
         <v>0.6909999999999999</v>
       </c>
@@ -10763,6 +12045,9 @@
       <c r="C419" t="s">
         <v>114</v>
       </c>
+      <c r="D419" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M419">
         <v>0.826</v>
       </c>
@@ -10789,6 +12074,9 @@
       <c r="C420" t="s">
         <v>115</v>
       </c>
+      <c r="D420" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M420">
         <v>0.5610000000000001</v>
       </c>
@@ -10812,6 +12100,9 @@
       <c r="C421" t="s">
         <v>116</v>
       </c>
+      <c r="D421" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G421">
         <v>0.695</v>
       </c>
@@ -10847,6 +12138,9 @@
       <c r="C422" t="s">
         <v>117</v>
       </c>
+      <c r="D422" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E422">
         <v>0.871</v>
       </c>
@@ -10897,6 +12191,9 @@
       <c r="C423" t="s">
         <v>118</v>
       </c>
+      <c r="D423" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E423">
         <v>0.662</v>
       </c>
@@ -10947,6 +12244,9 @@
       <c r="C424" t="s">
         <v>113</v>
       </c>
+      <c r="D424" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E424">
         <v>0.958</v>
       </c>
@@ -10961,6 +12261,9 @@
       <c r="C425" t="s">
         <v>115</v>
       </c>
+      <c r="D425" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E425">
         <v>0.468</v>
       </c>
@@ -10975,6 +12278,9 @@
       <c r="C426" t="s">
         <v>116</v>
       </c>
+      <c r="D426" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E426">
         <v>0.626</v>
       </c>
@@ -10989,6 +12295,9 @@
       <c r="C427" t="s">
         <v>117</v>
       </c>
+      <c r="D427" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E427">
         <v>0.645</v>
       </c>
@@ -11003,6 +12312,9 @@
       <c r="C428" t="s">
         <v>118</v>
       </c>
+      <c r="D428" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E428">
         <v>0.739</v>
       </c>
@@ -11017,6 +12329,9 @@
       <c r="C429" t="s">
         <v>113</v>
       </c>
+      <c r="D429" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E429">
         <v>0.864</v>
       </c>
@@ -11034,6 +12349,9 @@
       <c r="C430" t="s">
         <v>117</v>
       </c>
+      <c r="D430" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E430">
         <v>0.711</v>
       </c>
@@ -11051,6 +12369,9 @@
       <c r="C431" t="s">
         <v>118</v>
       </c>
+      <c r="D431" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E431">
         <v>0.964</v>
       </c>
@@ -11068,6 +12389,9 @@
       <c r="C432" t="s">
         <v>113</v>
       </c>
+      <c r="D432" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G432">
         <v>0.441</v>
       </c>
@@ -11112,6 +12436,9 @@
       <c r="C433" t="s">
         <v>114</v>
       </c>
+      <c r="D433" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M433">
         <v>0.822</v>
       </c>
@@ -11138,6 +12465,9 @@
       <c r="C434" t="s">
         <v>115</v>
       </c>
+      <c r="D434" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M434">
         <v>0.5590000000000001</v>
       </c>
@@ -11161,6 +12491,9 @@
       <c r="C435" t="s">
         <v>116</v>
       </c>
+      <c r="D435" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G435">
         <v>0.868</v>
       </c>
@@ -11193,6 +12526,9 @@
       <c r="C436" t="s">
         <v>117</v>
       </c>
+      <c r="D436" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G436">
         <v>0.996</v>
       </c>
@@ -11237,6 +12573,9 @@
       <c r="C437" t="s">
         <v>118</v>
       </c>
+      <c r="D437" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G437">
         <v>0.392</v>
       </c>
@@ -11281,6 +12620,9 @@
       <c r="C438" t="s">
         <v>113</v>
       </c>
+      <c r="D438" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E438">
         <v>0.734</v>
       </c>
@@ -11295,6 +12637,9 @@
       <c r="C439" t="s">
         <v>115</v>
       </c>
+      <c r="D439" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E439">
         <v>0.497</v>
       </c>
@@ -11309,6 +12654,9 @@
       <c r="C440" t="s">
         <v>116</v>
       </c>
+      <c r="D440" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E440">
         <v>0.649</v>
       </c>
@@ -11323,6 +12671,9 @@
       <c r="C441" t="s">
         <v>117</v>
       </c>
+      <c r="D441" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E441">
         <v>0.635</v>
       </c>
@@ -11337,6 +12688,9 @@
       <c r="C442" t="s">
         <v>118</v>
       </c>
+      <c r="D442" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E442">
         <v>0.944</v>
       </c>
@@ -11351,6 +12705,9 @@
       <c r="C443" t="s">
         <v>113</v>
       </c>
+      <c r="D443" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E443">
         <v>0.8070000000000001</v>
       </c>
@@ -11401,6 +12758,9 @@
       <c r="C444" t="s">
         <v>114</v>
       </c>
+      <c r="D444" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M444">
         <v>0.714</v>
       </c>
@@ -11427,6 +12787,9 @@
       <c r="C445" t="s">
         <v>115</v>
       </c>
+      <c r="D445" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M445">
         <v>0.504</v>
       </c>
@@ -11450,6 +12813,9 @@
       <c r="C446" t="s">
         <v>116</v>
       </c>
+      <c r="D446" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G446">
         <v>0.665</v>
       </c>
@@ -11482,6 +12848,9 @@
       <c r="C447" t="s">
         <v>117</v>
       </c>
+      <c r="D447" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E447">
         <v>0.646</v>
       </c>
@@ -11532,6 +12901,9 @@
       <c r="C448" t="s">
         <v>118</v>
       </c>
+      <c r="D448" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E448">
         <v>0.925</v>
       </c>
@@ -11582,6 +12954,9 @@
       <c r="C449" t="s">
         <v>113</v>
       </c>
+      <c r="D449" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L449">
         <v>0.828</v>
       </c>
@@ -11605,6 +12980,9 @@
       <c r="C450" t="s">
         <v>114</v>
       </c>
+      <c r="D450" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M450">
         <v>0.679</v>
       </c>
@@ -11625,6 +13003,9 @@
       <c r="C451" t="s">
         <v>115</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M451">
         <v>0.513</v>
       </c>
@@ -11645,6 +13026,9 @@
       <c r="C452" t="s">
         <v>117</v>
       </c>
+      <c r="D452" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L452">
         <v>0.837</v>
       </c>
@@ -11668,6 +13052,9 @@
       <c r="C453" t="s">
         <v>118</v>
       </c>
+      <c r="D453" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L453">
         <v>0.984</v>
       </c>
@@ -11691,6 +13078,9 @@
       <c r="C454" t="s">
         <v>113</v>
       </c>
+      <c r="D454" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G454">
         <v>0.796</v>
       </c>
@@ -11729,6 +13119,9 @@
       <c r="C455" t="s">
         <v>114</v>
       </c>
+      <c r="D455" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M455">
         <v>0.735</v>
       </c>
@@ -11749,6 +13142,9 @@
       <c r="C456" t="s">
         <v>115</v>
       </c>
+      <c r="D456" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M456">
         <v>0.519</v>
       </c>
@@ -11769,6 +13165,9 @@
       <c r="C457" t="s">
         <v>116</v>
       </c>
+      <c r="D457" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G457">
         <v>0.485</v>
       </c>
@@ -11798,6 +13197,9 @@
       <c r="C458" t="s">
         <v>117</v>
       </c>
+      <c r="D458" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G458">
         <v>0.701</v>
       </c>
@@ -11836,6 +13238,9 @@
       <c r="C459" t="s">
         <v>118</v>
       </c>
+      <c r="D459" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G459">
         <v>0.986</v>
       </c>
@@ -11874,6 +13279,9 @@
       <c r="C460" t="s">
         <v>113</v>
       </c>
+      <c r="D460" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E460">
         <v>0.485</v>
       </c>
@@ -11888,6 +13296,9 @@
       <c r="C461" t="s">
         <v>115</v>
       </c>
+      <c r="D461" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E461">
         <v>0.869</v>
       </c>
@@ -11902,6 +13313,9 @@
       <c r="C462" t="s">
         <v>116</v>
       </c>
+      <c r="D462" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E462">
         <v>0.735</v>
       </c>
@@ -11916,6 +13330,9 @@
       <c r="C463" t="s">
         <v>117</v>
       </c>
+      <c r="D463" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E463">
         <v>0.5649999999999999</v>
       </c>
@@ -11930,11 +13347,479 @@
       <c r="C464" t="s">
         <v>118</v>
       </c>
+      <c r="D464" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E464">
         <v>0.438</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+    <hyperlink ref="D323" r:id="rId322"/>
+    <hyperlink ref="D324" r:id="rId323"/>
+    <hyperlink ref="D325" r:id="rId324"/>
+    <hyperlink ref="D326" r:id="rId325"/>
+    <hyperlink ref="D327" r:id="rId326"/>
+    <hyperlink ref="D328" r:id="rId327"/>
+    <hyperlink ref="D329" r:id="rId328"/>
+    <hyperlink ref="D330" r:id="rId329"/>
+    <hyperlink ref="D331" r:id="rId330"/>
+    <hyperlink ref="D332" r:id="rId331"/>
+    <hyperlink ref="D333" r:id="rId332"/>
+    <hyperlink ref="D334" r:id="rId333"/>
+    <hyperlink ref="D335" r:id="rId334"/>
+    <hyperlink ref="D336" r:id="rId335"/>
+    <hyperlink ref="D337" r:id="rId336"/>
+    <hyperlink ref="D338" r:id="rId337"/>
+    <hyperlink ref="D339" r:id="rId338"/>
+    <hyperlink ref="D340" r:id="rId339"/>
+    <hyperlink ref="D341" r:id="rId340"/>
+    <hyperlink ref="D342" r:id="rId341"/>
+    <hyperlink ref="D343" r:id="rId342"/>
+    <hyperlink ref="D344" r:id="rId343"/>
+    <hyperlink ref="D345" r:id="rId344"/>
+    <hyperlink ref="D346" r:id="rId345"/>
+    <hyperlink ref="D347" r:id="rId346"/>
+    <hyperlink ref="D348" r:id="rId347"/>
+    <hyperlink ref="D349" r:id="rId348"/>
+    <hyperlink ref="D350" r:id="rId349"/>
+    <hyperlink ref="D351" r:id="rId350"/>
+    <hyperlink ref="D352" r:id="rId351"/>
+    <hyperlink ref="D353" r:id="rId352"/>
+    <hyperlink ref="D354" r:id="rId353"/>
+    <hyperlink ref="D355" r:id="rId354"/>
+    <hyperlink ref="D356" r:id="rId355"/>
+    <hyperlink ref="D357" r:id="rId356"/>
+    <hyperlink ref="D358" r:id="rId357"/>
+    <hyperlink ref="D359" r:id="rId358"/>
+    <hyperlink ref="D360" r:id="rId359"/>
+    <hyperlink ref="D361" r:id="rId360"/>
+    <hyperlink ref="D362" r:id="rId361"/>
+    <hyperlink ref="D363" r:id="rId362"/>
+    <hyperlink ref="D364" r:id="rId363"/>
+    <hyperlink ref="D365" r:id="rId364"/>
+    <hyperlink ref="D366" r:id="rId365"/>
+    <hyperlink ref="D367" r:id="rId366"/>
+    <hyperlink ref="D368" r:id="rId367"/>
+    <hyperlink ref="D369" r:id="rId368"/>
+    <hyperlink ref="D370" r:id="rId369"/>
+    <hyperlink ref="D371" r:id="rId370"/>
+    <hyperlink ref="D372" r:id="rId371"/>
+    <hyperlink ref="D373" r:id="rId372"/>
+    <hyperlink ref="D374" r:id="rId373"/>
+    <hyperlink ref="D375" r:id="rId374"/>
+    <hyperlink ref="D376" r:id="rId375"/>
+    <hyperlink ref="D377" r:id="rId376"/>
+    <hyperlink ref="D378" r:id="rId377"/>
+    <hyperlink ref="D379" r:id="rId378"/>
+    <hyperlink ref="D380" r:id="rId379"/>
+    <hyperlink ref="D381" r:id="rId380"/>
+    <hyperlink ref="D382" r:id="rId381"/>
+    <hyperlink ref="D383" r:id="rId382"/>
+    <hyperlink ref="D384" r:id="rId383"/>
+    <hyperlink ref="D385" r:id="rId384"/>
+    <hyperlink ref="D386" r:id="rId385"/>
+    <hyperlink ref="D387" r:id="rId386"/>
+    <hyperlink ref="D388" r:id="rId387"/>
+    <hyperlink ref="D389" r:id="rId388"/>
+    <hyperlink ref="D390" r:id="rId389"/>
+    <hyperlink ref="D391" r:id="rId390"/>
+    <hyperlink ref="D392" r:id="rId391"/>
+    <hyperlink ref="D393" r:id="rId392"/>
+    <hyperlink ref="D394" r:id="rId393"/>
+    <hyperlink ref="D395" r:id="rId394"/>
+    <hyperlink ref="D396" r:id="rId395"/>
+    <hyperlink ref="D397" r:id="rId396"/>
+    <hyperlink ref="D398" r:id="rId397"/>
+    <hyperlink ref="D399" r:id="rId398"/>
+    <hyperlink ref="D400" r:id="rId399"/>
+    <hyperlink ref="D401" r:id="rId400"/>
+    <hyperlink ref="D402" r:id="rId401"/>
+    <hyperlink ref="D403" r:id="rId402"/>
+    <hyperlink ref="D404" r:id="rId403"/>
+    <hyperlink ref="D405" r:id="rId404"/>
+    <hyperlink ref="D406" r:id="rId405"/>
+    <hyperlink ref="D407" r:id="rId406"/>
+    <hyperlink ref="D408" r:id="rId407"/>
+    <hyperlink ref="D409" r:id="rId408"/>
+    <hyperlink ref="D410" r:id="rId409"/>
+    <hyperlink ref="D411" r:id="rId410"/>
+    <hyperlink ref="D412" r:id="rId411"/>
+    <hyperlink ref="D413" r:id="rId412"/>
+    <hyperlink ref="D414" r:id="rId413"/>
+    <hyperlink ref="D415" r:id="rId414"/>
+    <hyperlink ref="D416" r:id="rId415"/>
+    <hyperlink ref="D417" r:id="rId416"/>
+    <hyperlink ref="D418" r:id="rId417"/>
+    <hyperlink ref="D419" r:id="rId418"/>
+    <hyperlink ref="D420" r:id="rId419"/>
+    <hyperlink ref="D421" r:id="rId420"/>
+    <hyperlink ref="D422" r:id="rId421"/>
+    <hyperlink ref="D423" r:id="rId422"/>
+    <hyperlink ref="D424" r:id="rId423"/>
+    <hyperlink ref="D425" r:id="rId424"/>
+    <hyperlink ref="D426" r:id="rId425"/>
+    <hyperlink ref="D427" r:id="rId426"/>
+    <hyperlink ref="D428" r:id="rId427"/>
+    <hyperlink ref="D429" r:id="rId428"/>
+    <hyperlink ref="D430" r:id="rId429"/>
+    <hyperlink ref="D431" r:id="rId430"/>
+    <hyperlink ref="D432" r:id="rId431"/>
+    <hyperlink ref="D433" r:id="rId432"/>
+    <hyperlink ref="D434" r:id="rId433"/>
+    <hyperlink ref="D435" r:id="rId434"/>
+    <hyperlink ref="D436" r:id="rId435"/>
+    <hyperlink ref="D437" r:id="rId436"/>
+    <hyperlink ref="D438" r:id="rId437"/>
+    <hyperlink ref="D439" r:id="rId438"/>
+    <hyperlink ref="D440" r:id="rId439"/>
+    <hyperlink ref="D441" r:id="rId440"/>
+    <hyperlink ref="D442" r:id="rId441"/>
+    <hyperlink ref="D443" r:id="rId442"/>
+    <hyperlink ref="D444" r:id="rId443"/>
+    <hyperlink ref="D445" r:id="rId444"/>
+    <hyperlink ref="D446" r:id="rId445"/>
+    <hyperlink ref="D447" r:id="rId446"/>
+    <hyperlink ref="D448" r:id="rId447"/>
+    <hyperlink ref="D449" r:id="rId448"/>
+    <hyperlink ref="D450" r:id="rId449"/>
+    <hyperlink ref="D451" r:id="rId450"/>
+    <hyperlink ref="D452" r:id="rId451"/>
+    <hyperlink ref="D453" r:id="rId452"/>
+    <hyperlink ref="D454" r:id="rId453"/>
+    <hyperlink ref="D455" r:id="rId454"/>
+    <hyperlink ref="D456" r:id="rId455"/>
+    <hyperlink ref="D457" r:id="rId456"/>
+    <hyperlink ref="D458" r:id="rId457"/>
+    <hyperlink ref="D459" r:id="rId458"/>
+    <hyperlink ref="D460" r:id="rId459"/>
+    <hyperlink ref="D461" r:id="rId460"/>
+    <hyperlink ref="D462" r:id="rId461"/>
+    <hyperlink ref="D463" r:id="rId462"/>
+    <hyperlink ref="D464" r:id="rId463"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Romania_name_group.xlsx
+++ b/ep/ep/export/flourish/Romania_name_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="124">
   <si>
     <t>name1</t>
   </si>
@@ -361,13 +361,13 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>PPE</t>
   </si>
   <si>
     <t>S&amp;D</t>
@@ -379,13 +379,10 @@
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
-  </si>
-  <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
@@ -907,9 +904,6 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E4">
         <v>0.5580000000000001</v>
       </c>
@@ -937,34 +931,46 @@
         <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5">
-        <v>0.601</v>
+        <v>0.728</v>
+      </c>
+      <c r="F5">
+        <v>0.798</v>
       </c>
       <c r="G5">
-        <v>0.547</v>
+        <v>0.7</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.797</v>
       </c>
       <c r="I5">
-        <v>0.778</v>
+        <v>0.837</v>
       </c>
       <c r="J5">
-        <v>0.728</v>
+        <v>0.792</v>
       </c>
       <c r="K5">
-        <v>0.787</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="L5">
-        <v>0.783</v>
+        <v>0.867</v>
+      </c>
+      <c r="M5">
+        <v>0.975</v>
+      </c>
+      <c r="N5">
+        <v>0.972</v>
+      </c>
+      <c r="O5">
+        <v>0.975</v>
       </c>
       <c r="P5">
-        <v>0.653</v>
+        <v>0.973</v>
       </c>
       <c r="Q5">
-        <v>0.785</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -978,46 +984,34 @@
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6">
+        <v>0.601</v>
+      </c>
+      <c r="G6">
+        <v>0.547</v>
+      </c>
+      <c r="H6">
+        <v>0.7</v>
+      </c>
+      <c r="I6">
+        <v>0.778</v>
+      </c>
+      <c r="J6">
         <v>0.728</v>
       </c>
-      <c r="F6">
-        <v>0.798</v>
-      </c>
-      <c r="G6">
-        <v>0.7</v>
-      </c>
-      <c r="H6">
-        <v>0.797</v>
-      </c>
-      <c r="I6">
-        <v>0.837</v>
-      </c>
-      <c r="J6">
-        <v>0.792</v>
-      </c>
       <c r="K6">
-        <v>0.8090000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="L6">
-        <v>0.867</v>
-      </c>
-      <c r="M6">
-        <v>0.975</v>
-      </c>
-      <c r="N6">
-        <v>0.972</v>
-      </c>
-      <c r="O6">
-        <v>0.975</v>
+        <v>0.783</v>
       </c>
       <c r="P6">
-        <v>0.973</v>
+        <v>0.653</v>
       </c>
       <c r="Q6">
-        <v>0.975</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1031,7 +1025,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>0.782</v>
@@ -1098,10 +1092,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>0.981</v>
@@ -1118,7 +1112,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10">
         <v>0.762</v>
@@ -1172,9 +1166,6 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E12">
         <v>0.505</v>
       </c>
@@ -1190,28 +1181,31 @@
         <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>0.644</v>
+        <v>0.646</v>
+      </c>
+      <c r="F13">
+        <v>0.795</v>
       </c>
       <c r="G13">
+        <v>0.763</v>
+      </c>
+      <c r="H13">
+        <v>0.676</v>
+      </c>
+      <c r="I13">
+        <v>0.797</v>
+      </c>
+      <c r="J13">
+        <v>0.803</v>
+      </c>
+      <c r="K13">
         <v>0.764</v>
       </c>
-      <c r="H13">
-        <v>0.777</v>
-      </c>
-      <c r="I13">
-        <v>0.904</v>
-      </c>
-      <c r="J13">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K13">
-        <v>0.904</v>
-      </c>
       <c r="L13">
-        <v>0.902</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1225,31 +1219,28 @@
         <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>0.646</v>
-      </c>
-      <c r="F14">
-        <v>0.795</v>
+        <v>0.644</v>
       </c>
       <c r="G14">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="H14">
-        <v>0.676</v>
+        <v>0.777</v>
       </c>
       <c r="I14">
-        <v>0.797</v>
+        <v>0.904</v>
       </c>
       <c r="J14">
-        <v>0.803</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K14">
-        <v>0.764</v>
+        <v>0.904</v>
       </c>
       <c r="L14">
-        <v>0.783</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1263,7 +1254,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>0.949</v>
@@ -1317,9 +1308,6 @@
       <c r="C17" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E17">
         <v>0.57</v>
       </c>
@@ -1335,10 +1323,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18">
-        <v>0.641</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1352,10 +1340,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>0.615</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1369,7 +1357,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>0.969</v>
@@ -1400,10 +1388,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G22">
         <v>0.984</v>
@@ -1420,7 +1408,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23">
         <v>0.716</v>
@@ -1453,9 +1441,6 @@
       <c r="C25" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E25">
         <v>0.52</v>
       </c>
@@ -1471,10 +1456,10 @@
         <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>0.619</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1488,10 +1473,10 @@
         <v>117</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>0.776</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1505,7 +1490,7 @@
         <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28">
         <v>0.642</v>
@@ -1536,10 +1521,10 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30">
         <v>0.824</v>
@@ -1556,7 +1541,7 @@
         <v>118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31">
         <v>0.979</v>
@@ -1633,9 +1618,6 @@
       <c r="C34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M34">
         <v>0.503</v>
       </c>
@@ -1660,13 +1642,25 @@
         <v>116</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L35">
+        <v>0.88</v>
+      </c>
+      <c r="M35">
+        <v>0.784</v>
+      </c>
+      <c r="N35">
+        <v>0.784</v>
+      </c>
+      <c r="O35">
+        <v>0.728</v>
       </c>
       <c r="P35">
-        <v>0.732</v>
+        <v>0.787</v>
       </c>
       <c r="Q35">
-        <v>0.991</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -1680,25 +1674,13 @@
         <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L36">
-        <v>0.88</v>
-      </c>
-      <c r="M36">
-        <v>0.784</v>
-      </c>
-      <c r="N36">
-        <v>0.784</v>
-      </c>
-      <c r="O36">
-        <v>0.728</v>
+        <v>122</v>
       </c>
       <c r="P36">
-        <v>0.787</v>
+        <v>0.732</v>
       </c>
       <c r="Q36">
-        <v>0.795</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -1712,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L37">
         <v>0.982</v>
@@ -1760,9 +1742,6 @@
       <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E39">
         <v>0.5590000000000001</v>
       </c>
@@ -1778,10 +1757,10 @@
         <v>116</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40">
-        <v>0.59</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -1795,10 +1774,10 @@
         <v>117</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41">
-        <v>0.92</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -1812,7 +1791,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42">
         <v>0.658</v>
@@ -1889,9 +1868,6 @@
       <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M45">
         <v>0.512</v>
       </c>
@@ -1916,13 +1892,25 @@
         <v>116</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L46">
+        <v>0.837</v>
+      </c>
+      <c r="M46">
+        <v>0.784</v>
+      </c>
+      <c r="N46">
+        <v>0.775</v>
+      </c>
+      <c r="O46">
+        <v>0.743</v>
       </c>
       <c r="P46">
-        <v>0.745</v>
+        <v>0.787</v>
       </c>
       <c r="Q46">
-        <v>0.983</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -1936,25 +1924,13 @@
         <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47">
-        <v>0.837</v>
-      </c>
-      <c r="M47">
-        <v>0.784</v>
-      </c>
-      <c r="N47">
-        <v>0.775</v>
-      </c>
-      <c r="O47">
-        <v>0.743</v>
+        <v>122</v>
       </c>
       <c r="P47">
-        <v>0.787</v>
+        <v>0.745</v>
       </c>
       <c r="Q47">
-        <v>0.797</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -1968,7 +1944,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L48">
         <v>0.99</v>
@@ -2075,9 +2051,6 @@
       <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M51">
         <v>0.502</v>
       </c>
@@ -2102,31 +2075,40 @@
         <v>116</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G52">
-        <v>0.99</v>
+        <v>0.749</v>
       </c>
       <c r="H52">
-        <v>0.79</v>
+        <v>0.681</v>
       </c>
       <c r="I52">
-        <v>0.901</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J52">
-        <v>0.754</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="K52">
-        <v>0.893</v>
+        <v>0.787</v>
       </c>
       <c r="L52">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.774</v>
+      </c>
+      <c r="N52">
+        <v>0.776</v>
+      </c>
+      <c r="O52">
+        <v>0.743</v>
       </c>
       <c r="P52">
-        <v>0.737</v>
+        <v>0.793</v>
       </c>
       <c r="Q52">
-        <v>0.983</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -2140,40 +2122,31 @@
         <v>117</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53">
-        <v>0.749</v>
+        <v>0.99</v>
       </c>
       <c r="H53">
-        <v>0.681</v>
+        <v>0.79</v>
       </c>
       <c r="I53">
-        <v>0.8159999999999999</v>
+        <v>0.901</v>
       </c>
       <c r="J53">
-        <v>0.8090000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="K53">
-        <v>0.787</v>
+        <v>0.893</v>
       </c>
       <c r="L53">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M53">
-        <v>0.774</v>
-      </c>
-      <c r="N53">
-        <v>0.776</v>
-      </c>
-      <c r="O53">
-        <v>0.743</v>
+        <v>0.89</v>
       </c>
       <c r="P53">
-        <v>0.793</v>
+        <v>0.737</v>
       </c>
       <c r="Q53">
-        <v>0.798</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -2187,7 +2160,7 @@
         <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G54">
         <v>0.6860000000000001</v>
@@ -2254,10 +2227,10 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>0.9330000000000001</v>
@@ -2280,7 +2253,7 @@
         <v>118</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>0.654</v>
@@ -2340,9 +2313,6 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E59">
         <v>0.545</v>
       </c>
@@ -2358,28 +2328,31 @@
         <v>116</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60">
-        <v>0.657</v>
+        <v>0.628</v>
+      </c>
+      <c r="F60">
+        <v>0.732</v>
       </c>
       <c r="G60">
-        <v>0.758</v>
+        <v>0.715</v>
       </c>
       <c r="H60">
-        <v>0.797</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="I60">
-        <v>0.897</v>
+        <v>0.798</v>
       </c>
       <c r="J60">
-        <v>0.76</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="K60">
-        <v>0.902</v>
+        <v>0.798</v>
       </c>
       <c r="L60">
-        <v>0.949</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -2393,31 +2366,28 @@
         <v>117</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61">
-        <v>0.628</v>
-      </c>
-      <c r="F61">
-        <v>0.732</v>
+        <v>0.657</v>
       </c>
       <c r="G61">
-        <v>0.715</v>
+        <v>0.758</v>
       </c>
       <c r="H61">
-        <v>0.6840000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="I61">
-        <v>0.798</v>
+        <v>0.897</v>
       </c>
       <c r="J61">
-        <v>0.8129999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="K61">
-        <v>0.798</v>
+        <v>0.902</v>
       </c>
       <c r="L61">
-        <v>0.779</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -2431,7 +2401,7 @@
         <v>118</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62">
         <v>0.949</v>
@@ -2501,25 +2471,25 @@
         <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G64">
-        <v>0.857</v>
+        <v>0.395</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0.666</v>
       </c>
       <c r="I64">
-        <v>0.906</v>
+        <v>0.732</v>
       </c>
       <c r="J64">
-        <v>0.822</v>
+        <v>0.546</v>
       </c>
       <c r="K64">
-        <v>0.874</v>
+        <v>0.794</v>
       </c>
       <c r="L64">
-        <v>0.916</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -2533,25 +2503,25 @@
         <v>117</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G65">
-        <v>0.395</v>
+        <v>0.857</v>
       </c>
       <c r="H65">
-        <v>0.666</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0.732</v>
+        <v>0.906</v>
       </c>
       <c r="J65">
-        <v>0.546</v>
+        <v>0.822</v>
       </c>
       <c r="K65">
-        <v>0.794</v>
+        <v>0.874</v>
       </c>
       <c r="L65">
-        <v>0.9379999999999999</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -2565,7 +2535,7 @@
         <v>118</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G66">
         <v>0.371</v>
@@ -2613,9 +2583,6 @@
       <c r="C68" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E68">
         <v>0.527</v>
       </c>
@@ -2631,10 +2598,10 @@
         <v>116</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69">
-        <v>0.644</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -2648,10 +2615,10 @@
         <v>117</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E70">
-        <v>0.61</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -2665,7 +2632,7 @@
         <v>118</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E71">
         <v>0.908</v>
@@ -2757,9 +2724,6 @@
       <c r="C74" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M74">
         <v>0.546</v>
       </c>
@@ -2784,31 +2748,40 @@
         <v>116</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G75">
-        <v>0.73</v>
+        <v>0.98</v>
       </c>
       <c r="H75">
-        <v>0.642</v>
+        <v>0.962</v>
       </c>
       <c r="I75">
-        <v>0.786</v>
+        <v>0.979</v>
       </c>
       <c r="J75">
-        <v>0.666</v>
+        <v>0.983</v>
       </c>
       <c r="K75">
-        <v>0.794</v>
+        <v>0.976</v>
       </c>
       <c r="L75">
-        <v>0.861</v>
+        <v>0.972</v>
+      </c>
+      <c r="M75">
+        <v>0.972</v>
+      </c>
+      <c r="N75">
+        <v>0.97</v>
+      </c>
+      <c r="O75">
+        <v>0.973</v>
       </c>
       <c r="P75">
-        <v>0.65</v>
+        <v>0.968</v>
       </c>
       <c r="Q75">
-        <v>0.8120000000000001</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -2822,40 +2795,31 @@
         <v>117</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G76">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="H76">
-        <v>0.962</v>
+        <v>0.642</v>
       </c>
       <c r="I76">
-        <v>0.979</v>
+        <v>0.786</v>
       </c>
       <c r="J76">
-        <v>0.983</v>
+        <v>0.666</v>
       </c>
       <c r="K76">
-        <v>0.976</v>
+        <v>0.794</v>
       </c>
       <c r="L76">
-        <v>0.972</v>
-      </c>
-      <c r="M76">
-        <v>0.972</v>
-      </c>
-      <c r="N76">
-        <v>0.97</v>
-      </c>
-      <c r="O76">
-        <v>0.973</v>
+        <v>0.861</v>
       </c>
       <c r="P76">
-        <v>0.968</v>
+        <v>0.65</v>
       </c>
       <c r="Q76">
-        <v>0.964</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -2869,7 +2833,7 @@
         <v>118</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G77">
         <v>0.6899999999999999</v>
@@ -2932,9 +2896,6 @@
       <c r="C79" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E79">
         <v>0.835</v>
       </c>
@@ -2950,10 +2911,10 @@
         <v>116</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E80">
-        <v>0.726</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -2967,10 +2928,10 @@
         <v>117</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81">
-        <v>0.654</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -2984,7 +2945,7 @@
         <v>118</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82">
         <v>0.5620000000000001</v>
@@ -3079,9 +3040,6 @@
       <c r="C85" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E85">
         <v>0.491</v>
       </c>
@@ -3109,28 +3067,43 @@
         <v>116</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86">
-        <v>0.622</v>
+        <v>0.713</v>
+      </c>
+      <c r="F86">
+        <v>0.8129999999999999</v>
       </c>
       <c r="G86">
-        <v>0.644</v>
+        <v>0.741</v>
       </c>
       <c r="H86">
-        <v>0.713</v>
+        <v>0.775</v>
       </c>
       <c r="I86">
-        <v>0.786</v>
+        <v>0.848</v>
       </c>
       <c r="J86">
-        <v>0.767</v>
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="L86">
+        <v>0.992</v>
+      </c>
+      <c r="M86">
+        <v>0.977</v>
+      </c>
+      <c r="N86">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O86">
+        <v>0.972</v>
       </c>
       <c r="P86">
-        <v>0.656</v>
+        <v>0.978</v>
       </c>
       <c r="Q86">
-        <v>0.417</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -3144,43 +3117,28 @@
         <v>117</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E87">
+        <v>0.622</v>
+      </c>
+      <c r="G87">
+        <v>0.644</v>
+      </c>
+      <c r="H87">
         <v>0.713</v>
       </c>
-      <c r="F87">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="G87">
-        <v>0.741</v>
-      </c>
-      <c r="H87">
-        <v>0.775</v>
-      </c>
       <c r="I87">
-        <v>0.848</v>
+        <v>0.786</v>
       </c>
       <c r="J87">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="L87">
-        <v>0.992</v>
-      </c>
-      <c r="M87">
-        <v>0.977</v>
-      </c>
-      <c r="N87">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O87">
-        <v>0.972</v>
+        <v>0.767</v>
       </c>
       <c r="P87">
-        <v>0.978</v>
+        <v>0.656</v>
       </c>
       <c r="Q87">
-        <v>0.967</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -3194,7 +3152,7 @@
         <v>118</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E88">
         <v>0.736</v>
@@ -3325,9 +3283,6 @@
       <c r="C91" t="s">
         <v>115</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M91">
         <v>0.585</v>
       </c>
@@ -3352,31 +3307,46 @@
         <v>116</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E92">
+        <v>0.863</v>
+      </c>
+      <c r="F92">
+        <v>0.9320000000000001</v>
       </c>
       <c r="G92">
-        <v>0.737</v>
+        <v>0.964</v>
       </c>
       <c r="H92">
-        <v>0.656</v>
+        <v>0.968</v>
       </c>
       <c r="I92">
-        <v>0.782</v>
+        <v>0.971</v>
       </c>
       <c r="J92">
-        <v>0.672</v>
+        <v>0.978</v>
       </c>
       <c r="K92">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="L92">
-        <v>0.842</v>
+        <v>0.959</v>
+      </c>
+      <c r="M92">
+        <v>0.966</v>
+      </c>
+      <c r="N92">
+        <v>0.962</v>
+      </c>
+      <c r="O92">
+        <v>0.973</v>
       </c>
       <c r="P92">
-        <v>0.669</v>
+        <v>0.957</v>
       </c>
       <c r="Q92">
-        <v>0.8</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -3390,46 +3360,31 @@
         <v>117</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93">
-        <v>0.863</v>
-      </c>
-      <c r="F93">
-        <v>0.9320000000000001</v>
+        <v>122</v>
       </c>
       <c r="G93">
-        <v>0.964</v>
+        <v>0.737</v>
       </c>
       <c r="H93">
-        <v>0.968</v>
+        <v>0.656</v>
       </c>
       <c r="I93">
-        <v>0.971</v>
+        <v>0.782</v>
       </c>
       <c r="J93">
-        <v>0.978</v>
+        <v>0.672</v>
       </c>
       <c r="K93">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="L93">
-        <v>0.959</v>
-      </c>
-      <c r="M93">
-        <v>0.966</v>
-      </c>
-      <c r="N93">
-        <v>0.962</v>
-      </c>
-      <c r="O93">
-        <v>0.973</v>
+        <v>0.842</v>
       </c>
       <c r="P93">
-        <v>0.957</v>
+        <v>0.669</v>
       </c>
       <c r="Q93">
-        <v>0.9419999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -3443,7 +3398,7 @@
         <v>118</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <v>0.637</v>
@@ -3510,10 +3465,10 @@
         <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G96">
         <v>0.97</v>
@@ -3530,7 +3485,7 @@
         <v>118</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G97">
         <v>0.743</v>
@@ -3622,9 +3577,6 @@
       <c r="C100" t="s">
         <v>115</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M100">
         <v>0.506</v>
       </c>
@@ -3649,31 +3601,40 @@
         <v>116</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G101">
-        <v>0.515</v>
+        <v>0.522</v>
       </c>
       <c r="H101">
-        <v>0.778</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I101">
-        <v>0.886</v>
+        <v>0.849</v>
       </c>
       <c r="J101">
-        <v>0.739</v>
+        <v>0.826</v>
       </c>
       <c r="K101">
-        <v>0.896</v>
+        <v>0.785</v>
       </c>
       <c r="L101">
-        <v>0.738</v>
+        <v>0.799</v>
+      </c>
+      <c r="M101">
+        <v>0.768</v>
+      </c>
+      <c r="N101">
+        <v>0.772</v>
+      </c>
+      <c r="O101">
+        <v>0.72</v>
       </c>
       <c r="P101">
-        <v>0.775</v>
+        <v>0.804</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -3687,40 +3648,31 @@
         <v>117</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G102">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H102">
-        <v>0.6820000000000001</v>
+        <v>0.778</v>
       </c>
       <c r="I102">
-        <v>0.849</v>
+        <v>0.886</v>
       </c>
       <c r="J102">
-        <v>0.826</v>
+        <v>0.739</v>
       </c>
       <c r="K102">
-        <v>0.785</v>
+        <v>0.896</v>
       </c>
       <c r="L102">
-        <v>0.799</v>
-      </c>
-      <c r="M102">
-        <v>0.768</v>
-      </c>
-      <c r="N102">
-        <v>0.772</v>
-      </c>
-      <c r="O102">
-        <v>0.72</v>
+        <v>0.738</v>
       </c>
       <c r="P102">
-        <v>0.804</v>
+        <v>0.775</v>
       </c>
       <c r="Q102">
-        <v>0.764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -3734,7 +3686,7 @@
         <v>118</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G103">
         <v>0.991</v>
@@ -3798,10 +3750,10 @@
         <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E105">
         <v>0.6919999999999999</v>
@@ -3821,7 +3773,7 @@
         <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106">
         <v>0.966</v>
@@ -3922,9 +3874,6 @@
       <c r="C109" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M109">
         <v>0.521</v>
       </c>
@@ -3949,34 +3898,46 @@
         <v>116</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110">
-        <v>0.5</v>
+        <v>0.671</v>
+      </c>
+      <c r="F110">
+        <v>0.8139999999999999</v>
       </c>
       <c r="G110">
-        <v>0.696</v>
+        <v>0.707</v>
       </c>
       <c r="H110">
-        <v>0.8100000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="I110">
-        <v>0.898</v>
+        <v>0.8</v>
       </c>
       <c r="J110">
-        <v>0.752</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="K110">
-        <v>0.888</v>
+        <v>0.786</v>
       </c>
       <c r="L110">
-        <v>0.884</v>
+        <v>0.783</v>
+      </c>
+      <c r="M110">
+        <v>0.79</v>
+      </c>
+      <c r="N110">
+        <v>0.762</v>
+      </c>
+      <c r="O110">
+        <v>0.722</v>
       </c>
       <c r="P110">
-        <v>0.531</v>
+        <v>0.795</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -3990,46 +3951,34 @@
         <v>117</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E111">
-        <v>0.671</v>
-      </c>
-      <c r="F111">
-        <v>0.8139999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G111">
-        <v>0.707</v>
+        <v>0.696</v>
       </c>
       <c r="H111">
-        <v>0.677</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I111">
-        <v>0.8</v>
+        <v>0.898</v>
       </c>
       <c r="J111">
-        <v>0.8120000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="K111">
-        <v>0.786</v>
+        <v>0.888</v>
       </c>
       <c r="L111">
-        <v>0.783</v>
-      </c>
-      <c r="M111">
-        <v>0.79</v>
-      </c>
-      <c r="N111">
-        <v>0.762</v>
-      </c>
-      <c r="O111">
-        <v>0.722</v>
+        <v>0.884</v>
       </c>
       <c r="P111">
-        <v>0.795</v>
+        <v>0.531</v>
       </c>
       <c r="Q111">
-        <v>0.786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -4043,7 +3992,7 @@
         <v>118</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E112">
         <v>0.96</v>
@@ -4156,9 +4105,6 @@
       <c r="C115" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M115">
         <v>0.507</v>
       </c>
@@ -4183,13 +4129,25 @@
         <v>116</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L116">
+        <v>0.82</v>
+      </c>
+      <c r="M116">
+        <v>0.786</v>
+      </c>
+      <c r="N116">
+        <v>0.789</v>
+      </c>
+      <c r="O116">
+        <v>0.757</v>
       </c>
       <c r="P116">
-        <v>0.671</v>
+        <v>0.7</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -4203,25 +4161,13 @@
         <v>117</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L117">
-        <v>0.82</v>
-      </c>
-      <c r="M117">
-        <v>0.786</v>
-      </c>
-      <c r="N117">
-        <v>0.789</v>
-      </c>
-      <c r="O117">
-        <v>0.757</v>
+        <v>122</v>
       </c>
       <c r="P117">
-        <v>0.7</v>
+        <v>0.671</v>
       </c>
       <c r="Q117">
-        <v>0.763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -4235,7 +4181,7 @@
         <v>118</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L118">
         <v>0.988</v>
@@ -4287,13 +4233,13 @@
         <v>116</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K120">
-        <v>0.921</v>
+        <v>0.834</v>
       </c>
       <c r="L120">
-        <v>0.9379999999999999</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -4307,13 +4253,13 @@
         <v>117</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K121">
-        <v>0.834</v>
+        <v>0.921</v>
       </c>
       <c r="L121">
-        <v>0.877</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -4327,7 +4273,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K122">
         <v>0.929</v>
@@ -4363,9 +4309,6 @@
       <c r="C124" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E124">
         <v>0.5610000000000001</v>
       </c>
@@ -4381,10 +4324,10 @@
         <v>116</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E125">
-        <v>0.6850000000000001</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -4398,10 +4341,10 @@
         <v>117</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E126">
-        <v>0.599</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -4415,7 +4358,7 @@
         <v>118</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E127">
         <v>0.962</v>
@@ -4492,9 +4435,6 @@
       <c r="C130" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M130">
         <v>0.488</v>
       </c>
@@ -4519,13 +4459,25 @@
         <v>116</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L131">
+        <v>0.895</v>
+      </c>
+      <c r="M131">
+        <v>0.832</v>
+      </c>
+      <c r="N131">
+        <v>0.758</v>
+      </c>
+      <c r="O131">
+        <v>0.751</v>
       </c>
       <c r="P131">
-        <v>0.725</v>
+        <v>0.794</v>
       </c>
       <c r="Q131">
-        <v>0.983</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -4539,25 +4491,13 @@
         <v>117</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L132">
-        <v>0.895</v>
-      </c>
-      <c r="M132">
-        <v>0.832</v>
-      </c>
-      <c r="N132">
-        <v>0.758</v>
-      </c>
-      <c r="O132">
-        <v>0.751</v>
+        <v>122</v>
       </c>
       <c r="P132">
-        <v>0.794</v>
+        <v>0.725</v>
       </c>
       <c r="Q132">
-        <v>0.8080000000000001</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -4571,7 +4511,7 @@
         <v>118</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L133">
         <v>0.994</v>
@@ -4663,9 +4603,6 @@
       <c r="C136" t="s">
         <v>115</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M136">
         <v>0.5669999999999999</v>
       </c>
@@ -4690,13 +4627,25 @@
         <v>116</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L137">
+        <v>0.99</v>
+      </c>
+      <c r="M137">
+        <v>0.972</v>
+      </c>
+      <c r="N137">
+        <v>0.96</v>
+      </c>
+      <c r="O137">
+        <v>0.973</v>
       </c>
       <c r="P137">
-        <v>0.65</v>
+        <v>0.973</v>
       </c>
       <c r="Q137">
-        <v>0.766</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -4710,25 +4659,13 @@
         <v>117</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L138">
-        <v>0.99</v>
-      </c>
-      <c r="M138">
-        <v>0.972</v>
-      </c>
-      <c r="N138">
-        <v>0.96</v>
-      </c>
-      <c r="O138">
-        <v>0.973</v>
+        <v>122</v>
       </c>
       <c r="P138">
-        <v>0.973</v>
+        <v>0.65</v>
       </c>
       <c r="Q138">
-        <v>0.971</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -4742,7 +4679,7 @@
         <v>118</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L139">
         <v>0.84</v>
@@ -4794,10 +4731,10 @@
         <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E141">
         <v>0.778</v>
@@ -4820,7 +4757,7 @@
         <v>118</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E142">
         <v>0.828</v>
@@ -4857,10 +4794,10 @@
         <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G144">
         <v>0.977</v>
@@ -4877,7 +4814,7 @@
         <v>118</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G145">
         <v>0.824</v>
@@ -4910,9 +4847,6 @@
       <c r="C147" t="s">
         <v>115</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E147">
         <v>0.873</v>
       </c>
@@ -4928,10 +4862,10 @@
         <v>116</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E148">
-        <v>0.66</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -4945,10 +4879,10 @@
         <v>117</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E149">
-        <v>0.626</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -4962,7 +4896,7 @@
         <v>118</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E150">
         <v>0.574</v>
@@ -5039,9 +4973,6 @@
       <c r="C153" t="s">
         <v>115</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M153">
         <v>0.515</v>
       </c>
@@ -5066,13 +4997,25 @@
         <v>116</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L154">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="M154">
+        <v>0.784</v>
+      </c>
+      <c r="N154">
+        <v>0.768</v>
+      </c>
+      <c r="O154">
+        <v>0.734</v>
       </c>
       <c r="P154">
-        <v>0.732</v>
+        <v>0.786</v>
       </c>
       <c r="Q154">
-        <v>0.982</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -5086,25 +5029,13 @@
         <v>117</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L155">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="M155">
-        <v>0.784</v>
-      </c>
-      <c r="N155">
-        <v>0.768</v>
-      </c>
-      <c r="O155">
-        <v>0.734</v>
+        <v>122</v>
       </c>
       <c r="P155">
-        <v>0.786</v>
+        <v>0.732</v>
       </c>
       <c r="Q155">
-        <v>0.8149999999999999</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -5118,7 +5049,7 @@
         <v>118</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L156">
         <v>0.993</v>
@@ -5173,10 +5104,16 @@
         <v>116</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E158">
+        <v>0.961</v>
+      </c>
+      <c r="F158">
+        <v>0.9429999999999999</v>
       </c>
       <c r="G158">
-        <v>0.731</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -5190,16 +5127,10 @@
         <v>117</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E159">
-        <v>0.961</v>
-      </c>
-      <c r="F159">
-        <v>0.9429999999999999</v>
+        <v>122</v>
       </c>
       <c r="G159">
-        <v>0.962</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -5213,7 +5144,7 @@
         <v>118</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E160">
         <v>0.6840000000000001</v>
@@ -5252,9 +5183,6 @@
       <c r="C162" t="s">
         <v>115</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E162">
         <v>0.8070000000000001</v>
       </c>
@@ -5270,10 +5198,10 @@
         <v>116</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E163">
-        <v>0.748</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -5287,10 +5215,10 @@
         <v>117</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E164">
-        <v>0.549</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -5304,7 +5232,7 @@
         <v>118</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E165">
         <v>0.595</v>
@@ -5338,10 +5266,10 @@
         <v>50</v>
       </c>
       <c r="C167" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E167">
         <v>0.9379999999999999</v>
@@ -5361,7 +5289,7 @@
         <v>118</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E168">
         <v>0.718</v>
@@ -5406,9 +5334,6 @@
       <c r="C170" t="s">
         <v>115</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E170">
         <v>0.554</v>
       </c>
@@ -5424,16 +5349,19 @@
         <v>116</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E171">
-        <v>0.599</v>
+        <v>0.704</v>
       </c>
       <c r="K171">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="L171">
-        <v>0.795</v>
+        <v>0.866</v>
+      </c>
+      <c r="M171">
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -5447,19 +5375,16 @@
         <v>117</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E172">
-        <v>0.704</v>
+        <v>0.599</v>
       </c>
       <c r="K172">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="L172">
-        <v>0.866</v>
-      </c>
-      <c r="M172">
-        <v>0.9340000000000001</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5473,7 +5398,7 @@
         <v>118</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E173">
         <v>0.763</v>
@@ -5531,25 +5456,25 @@
         <v>116</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G175">
-        <v>0.781</v>
+        <v>0.983</v>
       </c>
       <c r="H175">
-        <v>0.666</v>
+        <v>0.964</v>
       </c>
       <c r="I175">
-        <v>0.772</v>
+        <v>0.98</v>
       </c>
       <c r="J175">
-        <v>0.658</v>
+        <v>0.98</v>
       </c>
       <c r="K175">
-        <v>0.828</v>
+        <v>0.97</v>
       </c>
       <c r="L175">
-        <v>0.863</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -5563,25 +5488,25 @@
         <v>117</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G176">
-        <v>0.983</v>
+        <v>0.781</v>
       </c>
       <c r="H176">
-        <v>0.964</v>
+        <v>0.666</v>
       </c>
       <c r="I176">
-        <v>0.98</v>
+        <v>0.772</v>
       </c>
       <c r="J176">
-        <v>0.98</v>
+        <v>0.658</v>
       </c>
       <c r="K176">
-        <v>0.97</v>
+        <v>0.828</v>
       </c>
       <c r="L176">
-        <v>0.967</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -5595,7 +5520,7 @@
         <v>118</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G177">
         <v>0.609</v>
@@ -5659,25 +5584,25 @@
         <v>116</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G179">
-        <v>0.726</v>
+        <v>0.98</v>
       </c>
       <c r="H179">
-        <v>0.679</v>
+        <v>0.96</v>
       </c>
       <c r="I179">
-        <v>0.782</v>
+        <v>0.982</v>
       </c>
       <c r="J179">
-        <v>0.71</v>
+        <v>0.983</v>
       </c>
       <c r="K179">
-        <v>0.803</v>
+        <v>0.974</v>
       </c>
       <c r="L179">
-        <v>0.857</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="180" spans="1:17">
@@ -5691,25 +5616,25 @@
         <v>117</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G180">
-        <v>0.98</v>
+        <v>0.726</v>
       </c>
       <c r="H180">
-        <v>0.96</v>
+        <v>0.679</v>
       </c>
       <c r="I180">
-        <v>0.982</v>
+        <v>0.782</v>
       </c>
       <c r="J180">
-        <v>0.983</v>
+        <v>0.71</v>
       </c>
       <c r="K180">
-        <v>0.974</v>
+        <v>0.803</v>
       </c>
       <c r="L180">
-        <v>0.965</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -5723,7 +5648,7 @@
         <v>118</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G181">
         <v>0.669</v>
@@ -5815,9 +5740,6 @@
       <c r="C184" t="s">
         <v>115</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M184">
         <v>0.529</v>
       </c>
@@ -5842,13 +5764,25 @@
         <v>116</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L185">
+        <v>0.78</v>
+      </c>
+      <c r="M185">
+        <v>0.764</v>
+      </c>
+      <c r="N185">
+        <v>0.767</v>
+      </c>
+      <c r="O185">
+        <v>0.713</v>
       </c>
       <c r="P185">
-        <v>0.695</v>
+        <v>0.797</v>
       </c>
       <c r="Q185">
-        <v>0.991</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -5862,25 +5796,13 @@
         <v>117</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L186">
-        <v>0.78</v>
-      </c>
-      <c r="M186">
-        <v>0.764</v>
-      </c>
-      <c r="N186">
-        <v>0.767</v>
-      </c>
-      <c r="O186">
-        <v>0.713</v>
+        <v>122</v>
       </c>
       <c r="P186">
-        <v>0.797</v>
+        <v>0.695</v>
       </c>
       <c r="Q186">
-        <v>0.794</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -5894,7 +5816,7 @@
         <v>118</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L187">
         <v>0.993</v>
@@ -5942,9 +5864,6 @@
       <c r="C189" t="s">
         <v>115</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E189">
         <v>0.758</v>
       </c>
@@ -5960,10 +5879,10 @@
         <v>116</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E190">
-        <v>0.6889999999999999</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="191" spans="1:17">
@@ -5977,10 +5896,10 @@
         <v>117</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E191">
-        <v>0.543</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -5994,7 +5913,7 @@
         <v>118</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E192">
         <v>0.655</v>
@@ -6028,10 +5947,10 @@
         <v>56</v>
       </c>
       <c r="C194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F194">
         <v>0.974</v>
@@ -6051,7 +5970,7 @@
         <v>118</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F195">
         <v>0.8090000000000001</v>
@@ -6094,10 +6013,16 @@
         <v>116</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E197">
-        <v>0.619</v>
+        <v>0.68</v>
+      </c>
+      <c r="F197">
+        <v>0.791</v>
+      </c>
+      <c r="G197">
+        <v>0.753</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -6111,16 +6036,10 @@
         <v>117</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E198">
-        <v>0.68</v>
-      </c>
-      <c r="F198">
-        <v>0.791</v>
-      </c>
-      <c r="G198">
-        <v>0.753</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -6134,7 +6053,7 @@
         <v>118</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E199">
         <v>0.968</v>
@@ -6177,13 +6096,13 @@
         <v>116</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0.631</v>
       </c>
       <c r="I201">
-        <v>0.904</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -6197,13 +6116,13 @@
         <v>117</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H202">
-        <v>0.631</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>0.931</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -6217,7 +6136,7 @@
         <v>118</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H203">
         <v>0.766</v>
@@ -6269,25 +6188,25 @@
         <v>116</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G205">
-        <v>0.667</v>
+        <v>0.665</v>
       </c>
       <c r="H205">
-        <v>0.782</v>
+        <v>0.68</v>
       </c>
       <c r="I205">
-        <v>0.893</v>
+        <v>0.82</v>
       </c>
       <c r="J205">
-        <v>0.769</v>
+        <v>0.82</v>
       </c>
       <c r="K205">
-        <v>0.894</v>
+        <v>0.797</v>
       </c>
       <c r="L205">
-        <v>0.889</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -6301,25 +6220,25 @@
         <v>117</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G206">
-        <v>0.665</v>
+        <v>0.667</v>
       </c>
       <c r="H206">
-        <v>0.68</v>
+        <v>0.782</v>
       </c>
       <c r="I206">
-        <v>0.82</v>
+        <v>0.893</v>
       </c>
       <c r="J206">
-        <v>0.82</v>
+        <v>0.769</v>
       </c>
       <c r="K206">
-        <v>0.797</v>
+        <v>0.894</v>
       </c>
       <c r="L206">
-        <v>0.8100000000000001</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -6333,7 +6252,7 @@
         <v>118</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G207">
         <v>0.977</v>
@@ -6381,9 +6300,6 @@
       <c r="C209" t="s">
         <v>115</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E209">
         <v>0.572</v>
       </c>
@@ -6399,10 +6315,10 @@
         <v>116</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E210">
-        <v>0.597</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -6416,10 +6332,10 @@
         <v>117</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E211">
-        <v>0.694</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -6433,7 +6349,7 @@
         <v>118</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E212">
         <v>0.756</v>
@@ -6466,9 +6382,6 @@
       <c r="C214" t="s">
         <v>115</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E214">
         <v>0.5600000000000001</v>
       </c>
@@ -6484,10 +6397,10 @@
         <v>116</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E215">
-        <v>0.603</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -6501,10 +6414,10 @@
         <v>117</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E216">
-        <v>0.706</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -6518,7 +6431,7 @@
         <v>118</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E217">
         <v>0.766</v>
@@ -6567,25 +6480,25 @@
         <v>116</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G219">
-        <v>0.681</v>
+        <v>0.667</v>
       </c>
       <c r="H219">
-        <v>0.784</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I219">
-        <v>0.887</v>
+        <v>0.799</v>
       </c>
       <c r="J219">
-        <v>0.761</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K219">
-        <v>0.893</v>
+        <v>0.787</v>
       </c>
       <c r="L219">
-        <v>0.869</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -6599,25 +6512,25 @@
         <v>117</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G220">
-        <v>0.667</v>
+        <v>0.681</v>
       </c>
       <c r="H220">
-        <v>0.6909999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="I220">
-        <v>0.799</v>
+        <v>0.887</v>
       </c>
       <c r="J220">
-        <v>0.8179999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="K220">
-        <v>0.787</v>
+        <v>0.893</v>
       </c>
       <c r="L220">
-        <v>0.794</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -6631,7 +6544,7 @@
         <v>118</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G221">
         <v>0.977</v>
@@ -6677,10 +6590,10 @@
         <v>63</v>
       </c>
       <c r="C223" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G223">
         <v>0.975</v>
@@ -6697,7 +6610,7 @@
         <v>118</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G224">
         <v>0.749</v>
@@ -6795,9 +6708,6 @@
       <c r="C227" t="s">
         <v>115</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E227">
         <v>0.5669999999999999</v>
       </c>
@@ -6825,34 +6735,46 @@
         <v>116</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0.643</v>
+      </c>
+      <c r="F228">
+        <v>0.819</v>
       </c>
       <c r="G228">
-        <v>0.644</v>
+        <v>0.728</v>
       </c>
       <c r="H228">
-        <v>0.791</v>
+        <v>0.671</v>
       </c>
       <c r="I228">
-        <v>0.875</v>
+        <v>0.781</v>
       </c>
       <c r="J228">
-        <v>0.764</v>
+        <v>0.833</v>
       </c>
       <c r="K228">
-        <v>0.889</v>
+        <v>0.792</v>
       </c>
       <c r="L228">
-        <v>0.884</v>
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M228">
+        <v>0.796</v>
+      </c>
+      <c r="N228">
+        <v>0.795</v>
+      </c>
+      <c r="O228">
+        <v>0.751</v>
       </c>
       <c r="P228">
-        <v>0.723</v>
+        <v>0.789</v>
       </c>
       <c r="Q228">
-        <v>0.962</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="229" spans="1:17">
@@ -6866,46 +6788,34 @@
         <v>117</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E229">
-        <v>0.643</v>
-      </c>
-      <c r="F229">
-        <v>0.819</v>
+        <v>0.5</v>
       </c>
       <c r="G229">
-        <v>0.728</v>
+        <v>0.644</v>
       </c>
       <c r="H229">
-        <v>0.671</v>
+        <v>0.791</v>
       </c>
       <c r="I229">
-        <v>0.781</v>
+        <v>0.875</v>
       </c>
       <c r="J229">
-        <v>0.833</v>
+        <v>0.764</v>
       </c>
       <c r="K229">
-        <v>0.792</v>
+        <v>0.889</v>
       </c>
       <c r="L229">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="M229">
-        <v>0.796</v>
-      </c>
-      <c r="N229">
-        <v>0.795</v>
-      </c>
-      <c r="O229">
-        <v>0.751</v>
+        <v>0.884</v>
       </c>
       <c r="P229">
-        <v>0.789</v>
+        <v>0.723</v>
       </c>
       <c r="Q229">
-        <v>0.792</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="230" spans="1:17">
@@ -6919,7 +6829,7 @@
         <v>118</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E230">
         <v>0.954</v>
@@ -7004,25 +6914,25 @@
         <v>116</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G232">
-        <v>0.731</v>
+        <v>0.984</v>
       </c>
       <c r="H232">
-        <v>0.653</v>
+        <v>0.973</v>
       </c>
       <c r="I232">
-        <v>0.782</v>
+        <v>0.986</v>
       </c>
       <c r="J232">
-        <v>0.663</v>
+        <v>0.984</v>
       </c>
       <c r="K232">
-        <v>0.796</v>
+        <v>0.978</v>
       </c>
       <c r="L232">
-        <v>0.865</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="233" spans="1:17">
@@ -7036,25 +6946,25 @@
         <v>117</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G233">
-        <v>0.984</v>
+        <v>0.731</v>
       </c>
       <c r="H233">
-        <v>0.973</v>
+        <v>0.653</v>
       </c>
       <c r="I233">
-        <v>0.986</v>
+        <v>0.782</v>
       </c>
       <c r="J233">
-        <v>0.984</v>
+        <v>0.663</v>
       </c>
       <c r="K233">
-        <v>0.978</v>
+        <v>0.796</v>
       </c>
       <c r="L233">
-        <v>0.974</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="234" spans="1:17">
@@ -7068,7 +6978,7 @@
         <v>118</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G234">
         <v>0.736</v>
@@ -7181,9 +7091,6 @@
       <c r="C237" t="s">
         <v>115</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M237">
         <v>0.59</v>
       </c>
@@ -7208,31 +7115,46 @@
         <v>116</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E238">
+        <v>0.848</v>
+      </c>
+      <c r="F238">
+        <v>0.882</v>
       </c>
       <c r="G238">
-        <v>0.736</v>
+        <v>0.958</v>
       </c>
       <c r="H238">
-        <v>0.678</v>
+        <v>0.956</v>
       </c>
       <c r="I238">
-        <v>0.766</v>
+        <v>0.974</v>
       </c>
       <c r="J238">
-        <v>0.663</v>
+        <v>0.979</v>
       </c>
       <c r="K238">
-        <v>0.78</v>
+        <v>0.964</v>
       </c>
       <c r="L238">
-        <v>0.865</v>
+        <v>0.961</v>
+      </c>
+      <c r="M238">
+        <v>0.972</v>
+      </c>
+      <c r="N238">
+        <v>0.968</v>
+      </c>
+      <c r="O238">
+        <v>0.977</v>
       </c>
       <c r="P238">
-        <v>0.652</v>
+        <v>0.966</v>
       </c>
       <c r="Q238">
-        <v>0.774</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="239" spans="1:17">
@@ -7246,46 +7168,31 @@
         <v>117</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E239">
-        <v>0.848</v>
-      </c>
-      <c r="F239">
-        <v>0.882</v>
+        <v>122</v>
       </c>
       <c r="G239">
-        <v>0.958</v>
+        <v>0.736</v>
       </c>
       <c r="H239">
-        <v>0.956</v>
+        <v>0.678</v>
       </c>
       <c r="I239">
-        <v>0.974</v>
+        <v>0.766</v>
       </c>
       <c r="J239">
-        <v>0.979</v>
+        <v>0.663</v>
       </c>
       <c r="K239">
-        <v>0.964</v>
+        <v>0.78</v>
       </c>
       <c r="L239">
-        <v>0.961</v>
-      </c>
-      <c r="M239">
-        <v>0.972</v>
-      </c>
-      <c r="N239">
-        <v>0.968</v>
-      </c>
-      <c r="O239">
-        <v>0.977</v>
+        <v>0.865</v>
       </c>
       <c r="P239">
-        <v>0.966</v>
+        <v>0.652</v>
       </c>
       <c r="Q239">
-        <v>0.958</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="240" spans="1:17">
@@ -7299,7 +7206,7 @@
         <v>118</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E240">
         <v>0.633</v>
@@ -7368,9 +7275,6 @@
       <c r="C242" t="s">
         <v>115</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E242">
         <v>0.542</v>
       </c>
@@ -7386,10 +7290,10 @@
         <v>116</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E243">
-        <v>0.631</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -7403,10 +7307,10 @@
         <v>117</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E244">
-        <v>0.919</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="245" spans="1:17">
@@ -7420,7 +7324,7 @@
         <v>118</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E245">
         <v>0.651</v>
@@ -7497,9 +7401,6 @@
       <c r="C248" t="s">
         <v>115</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M248">
         <v>1</v>
       </c>
@@ -7524,13 +7425,25 @@
         <v>116</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L249">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="M249">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="N249">
+        <v>0.538</v>
+      </c>
+      <c r="O249">
+        <v>0.44</v>
       </c>
       <c r="P249">
-        <v>0.876</v>
+        <v>0.74</v>
       </c>
       <c r="Q249">
-        <v>0.36</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="250" spans="1:17">
@@ -7544,25 +7457,13 @@
         <v>117</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L250">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="M250">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="N250">
-        <v>0.538</v>
-      </c>
-      <c r="O250">
-        <v>0.44</v>
+        <v>122</v>
       </c>
       <c r="P250">
-        <v>0.74</v>
+        <v>0.876</v>
       </c>
       <c r="Q250">
-        <v>0.728</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -7576,7 +7477,7 @@
         <v>118</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L251">
         <v>0.984</v>
@@ -7628,10 +7529,10 @@
         <v>69</v>
       </c>
       <c r="C253" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E253">
         <v>0.769</v>
@@ -7654,7 +7555,7 @@
         <v>118</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E254">
         <v>0.831</v>
@@ -7737,9 +7638,6 @@
       <c r="C257" t="s">
         <v>115</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M257">
         <v>0.507</v>
       </c>
@@ -7764,13 +7662,25 @@
         <v>116</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L258">
+        <v>0.82</v>
+      </c>
+      <c r="M258">
+        <v>0.78</v>
+      </c>
+      <c r="N258">
+        <v>0.761</v>
+      </c>
+      <c r="O258">
+        <v>0.732</v>
       </c>
       <c r="P258">
-        <v>0.733</v>
+        <v>0.801</v>
       </c>
       <c r="Q258">
-        <v>0.983</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:17">
@@ -7784,25 +7694,13 @@
         <v>117</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L259">
-        <v>0.82</v>
-      </c>
-      <c r="M259">
-        <v>0.78</v>
-      </c>
-      <c r="N259">
-        <v>0.761</v>
-      </c>
-      <c r="O259">
-        <v>0.732</v>
+        <v>122</v>
       </c>
       <c r="P259">
-        <v>0.801</v>
+        <v>0.733</v>
       </c>
       <c r="Q259">
-        <v>0.8090000000000001</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="260" spans="1:17">
@@ -7816,7 +7714,7 @@
         <v>118</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L260">
         <v>0.993</v>
@@ -7887,9 +7785,6 @@
       <c r="C263" t="s">
         <v>115</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="P263">
         <v>0.443</v>
       </c>
@@ -7905,13 +7800,13 @@
         <v>116</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P264">
-        <v>0.754</v>
+        <v>0.796</v>
       </c>
       <c r="Q264">
-        <v>0.983</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:17">
@@ -7925,13 +7820,13 @@
         <v>117</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P265">
-        <v>0.796</v>
+        <v>0.754</v>
       </c>
       <c r="Q265">
-        <v>0.8070000000000001</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="266" spans="1:17">
@@ -7945,7 +7840,7 @@
         <v>118</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P266">
         <v>0.967</v>
@@ -7987,9 +7882,6 @@
       <c r="C268" t="s">
         <v>115</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E268">
         <v>0.601</v>
       </c>
@@ -8005,10 +7897,16 @@
         <v>116</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E269">
-        <v>0.509</v>
+        <v>0.961</v>
+      </c>
+      <c r="F269">
+        <v>0.968</v>
+      </c>
+      <c r="G269">
+        <v>0.979</v>
       </c>
     </row>
     <row r="270" spans="1:17">
@@ -8022,16 +7920,10 @@
         <v>117</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E270">
-        <v>0.961</v>
-      </c>
-      <c r="F270">
-        <v>0.968</v>
-      </c>
-      <c r="G270">
-        <v>0.979</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="271" spans="1:17">
@@ -8045,7 +7937,7 @@
         <v>118</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E271">
         <v>0.638</v>
@@ -8085,10 +7977,10 @@
         <v>73</v>
       </c>
       <c r="C273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E273">
         <v>0.9429999999999999</v>
@@ -8108,7 +8000,7 @@
         <v>118</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E274">
         <v>0.668</v>
@@ -8209,9 +8101,6 @@
       <c r="C277" t="s">
         <v>115</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E277">
         <v>0.642</v>
       </c>
@@ -8239,34 +8128,46 @@
         <v>116</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E278">
-        <v>0.624</v>
+        <v>0.948</v>
+      </c>
+      <c r="F278">
+        <v>0.981</v>
       </c>
       <c r="G278">
-        <v>0.735</v>
+        <v>0.981</v>
       </c>
       <c r="H278">
-        <v>0.675</v>
+        <v>0.963</v>
       </c>
       <c r="I278">
-        <v>0.784</v>
+        <v>0.986</v>
       </c>
       <c r="J278">
-        <v>0.664</v>
+        <v>0.983</v>
       </c>
       <c r="K278">
-        <v>0.8070000000000001</v>
+        <v>0.975</v>
       </c>
       <c r="L278">
-        <v>0.851</v>
+        <v>0.967</v>
+      </c>
+      <c r="M278">
+        <v>0.965</v>
+      </c>
+      <c r="N278">
+        <v>0.955</v>
+      </c>
+      <c r="O278">
+        <v>0.966</v>
       </c>
       <c r="P278">
-        <v>0.626</v>
+        <v>0.972</v>
       </c>
       <c r="Q278">
-        <v>0.775</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="279" spans="1:17">
@@ -8280,46 +8181,34 @@
         <v>117</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E279">
-        <v>0.948</v>
-      </c>
-      <c r="F279">
-        <v>0.981</v>
+        <v>0.624</v>
       </c>
       <c r="G279">
-        <v>0.981</v>
+        <v>0.735</v>
       </c>
       <c r="H279">
-        <v>0.963</v>
+        <v>0.675</v>
       </c>
       <c r="I279">
-        <v>0.986</v>
+        <v>0.784</v>
       </c>
       <c r="J279">
-        <v>0.983</v>
+        <v>0.664</v>
       </c>
       <c r="K279">
-        <v>0.975</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="L279">
-        <v>0.967</v>
-      </c>
-      <c r="M279">
-        <v>0.965</v>
-      </c>
-      <c r="N279">
-        <v>0.955</v>
-      </c>
-      <c r="O279">
-        <v>0.966</v>
+        <v>0.851</v>
       </c>
       <c r="P279">
-        <v>0.972</v>
+        <v>0.626</v>
       </c>
       <c r="Q279">
-        <v>0.968</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="280" spans="1:17">
@@ -8333,7 +8222,7 @@
         <v>118</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E280">
         <v>0.6879999999999999</v>
@@ -8403,10 +8292,10 @@
         <v>75</v>
       </c>
       <c r="C282" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E282">
         <v>0.953</v>
@@ -8426,7 +8315,7 @@
         <v>118</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E283">
         <v>0.7</v>
@@ -8503,9 +8392,6 @@
       <c r="C286" t="s">
         <v>115</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M286">
         <v>0.5629999999999999</v>
       </c>
@@ -8530,10 +8416,22 @@
         <v>116</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="M287">
+        <v>0.98</v>
+      </c>
+      <c r="N287">
+        <v>0.962</v>
+      </c>
+      <c r="O287">
+        <v>0.977</v>
       </c>
       <c r="P287">
-        <v>0.631</v>
+        <v>0.971</v>
+      </c>
+      <c r="Q287">
+        <v>0.965</v>
       </c>
     </row>
     <row r="288" spans="1:17">
@@ -8547,22 +8445,10 @@
         <v>117</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M288">
-        <v>0.98</v>
-      </c>
-      <c r="N288">
-        <v>0.962</v>
-      </c>
-      <c r="O288">
-        <v>0.977</v>
+        <v>122</v>
       </c>
       <c r="P288">
-        <v>0.971</v>
-      </c>
-      <c r="Q288">
-        <v>0.965</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="289" spans="1:17">
@@ -8576,7 +8462,7 @@
         <v>118</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M289">
         <v>0.789</v>
@@ -8628,16 +8514,16 @@
         <v>116</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J291">
-        <v>0.768</v>
+        <v>0.826</v>
       </c>
       <c r="K291">
-        <v>0.896</v>
+        <v>0.789</v>
       </c>
       <c r="L291">
-        <v>0.909</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="292" spans="1:17">
@@ -8651,16 +8537,16 @@
         <v>117</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J292">
-        <v>0.826</v>
+        <v>0.768</v>
       </c>
       <c r="K292">
-        <v>0.789</v>
+        <v>0.896</v>
       </c>
       <c r="L292">
-        <v>0.82</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="293" spans="1:17">
@@ -8674,7 +8560,7 @@
         <v>118</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J293">
         <v>0.982</v>
@@ -8757,9 +8643,6 @@
       <c r="C296" t="s">
         <v>115</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M296">
         <v>0.443</v>
       </c>
@@ -8784,13 +8667,25 @@
         <v>116</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L297">
+        <v>0.835</v>
+      </c>
+      <c r="M297">
+        <v>0.836</v>
+      </c>
+      <c r="N297">
+        <v>0.82</v>
+      </c>
+      <c r="O297">
+        <v>0.835</v>
       </c>
       <c r="P297">
-        <v>0.656</v>
+        <v>0.842</v>
       </c>
       <c r="Q297">
-        <v>0.876</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="298" spans="1:17">
@@ -8804,25 +8699,13 @@
         <v>117</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L298">
-        <v>0.835</v>
-      </c>
-      <c r="M298">
-        <v>0.836</v>
-      </c>
-      <c r="N298">
-        <v>0.82</v>
-      </c>
-      <c r="O298">
-        <v>0.835</v>
+        <v>122</v>
       </c>
       <c r="P298">
-        <v>0.842</v>
+        <v>0.656</v>
       </c>
       <c r="Q298">
-        <v>0.805</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="299" spans="1:17">
@@ -8836,7 +8719,7 @@
         <v>118</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L299">
         <v>0.821</v>
@@ -8943,9 +8826,6 @@
       <c r="C302" t="s">
         <v>115</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M302">
         <v>0.541</v>
       </c>
@@ -8970,31 +8850,40 @@
         <v>116</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G303">
-        <v>0.714</v>
+        <v>0.984</v>
       </c>
       <c r="H303">
-        <v>0.638</v>
+        <v>0.963</v>
       </c>
       <c r="I303">
-        <v>0.804</v>
+        <v>0.954</v>
       </c>
       <c r="J303">
-        <v>0.673</v>
+        <v>0.972</v>
       </c>
       <c r="K303">
-        <v>0.805</v>
+        <v>0.963</v>
       </c>
       <c r="L303">
-        <v>0.848</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="M303">
+        <v>0.914</v>
+      </c>
+      <c r="N303">
+        <v>0.825</v>
+      </c>
+      <c r="O303">
+        <v>0.836</v>
       </c>
       <c r="P303">
-        <v>0.67</v>
+        <v>0.903</v>
       </c>
       <c r="Q303">
-        <v>0.737</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="304" spans="1:17">
@@ -9008,40 +8897,31 @@
         <v>117</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G304">
-        <v>0.984</v>
+        <v>0.714</v>
       </c>
       <c r="H304">
-        <v>0.963</v>
+        <v>0.638</v>
       </c>
       <c r="I304">
-        <v>0.954</v>
+        <v>0.804</v>
       </c>
       <c r="J304">
-        <v>0.972</v>
+        <v>0.673</v>
       </c>
       <c r="K304">
-        <v>0.963</v>
+        <v>0.805</v>
       </c>
       <c r="L304">
-        <v>0.9419999999999999</v>
-      </c>
-      <c r="M304">
-        <v>0.914</v>
-      </c>
-      <c r="N304">
-        <v>0.825</v>
-      </c>
-      <c r="O304">
-        <v>0.836</v>
+        <v>0.848</v>
       </c>
       <c r="P304">
-        <v>0.903</v>
+        <v>0.67</v>
       </c>
       <c r="Q304">
-        <v>0.845</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="305" spans="1:17">
@@ -9055,7 +8935,7 @@
         <v>118</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G305">
         <v>0.651</v>
@@ -9118,9 +8998,6 @@
       <c r="C307" t="s">
         <v>115</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E307">
         <v>0.606</v>
       </c>
@@ -9136,10 +9013,10 @@
         <v>116</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E308">
-        <v>0.49</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="309" spans="1:17">
@@ -9153,10 +9030,10 @@
         <v>117</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E309">
-        <v>0.953</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="310" spans="1:17">
@@ -9170,7 +9047,7 @@
         <v>118</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E310">
         <v>0.622</v>
@@ -9207,10 +9084,10 @@
         <v>81</v>
       </c>
       <c r="C312" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E312">
         <v>0.9389999999999999</v>
@@ -9233,7 +9110,7 @@
         <v>118</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E313">
         <v>0.6820000000000001</v>
@@ -9276,10 +9153,10 @@
         <v>82</v>
       </c>
       <c r="C315" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E315">
         <v>0.927</v>
@@ -9302,7 +9179,7 @@
         <v>118</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E316">
         <v>0.719</v>
@@ -9400,9 +9277,6 @@
       <c r="C319" t="s">
         <v>115</v>
       </c>
-      <c r="D319" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M319">
         <v>0.539</v>
       </c>
@@ -9427,31 +9301,40 @@
         <v>116</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G320">
-        <v>0.5679999999999999</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H320">
-        <v>0.665</v>
+        <v>0.757</v>
       </c>
       <c r="I320">
-        <v>0.77</v>
+        <v>0.854</v>
       </c>
       <c r="J320">
-        <v>0.732</v>
+        <v>0.8</v>
       </c>
       <c r="K320">
-        <v>0.742</v>
+        <v>0.775</v>
       </c>
       <c r="L320">
-        <v>0.781</v>
+        <v>0.819</v>
+      </c>
+      <c r="M320">
+        <v>0.827</v>
+      </c>
+      <c r="N320">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O320">
+        <v>0.829</v>
       </c>
       <c r="P320">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="Q320">
-        <v>0.864</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:17">
@@ -9465,40 +9348,31 @@
         <v>117</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G321">
-        <v>0.5659999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H321">
-        <v>0.757</v>
+        <v>0.665</v>
       </c>
       <c r="I321">
-        <v>0.854</v>
+        <v>0.77</v>
       </c>
       <c r="J321">
-        <v>0.8</v>
+        <v>0.732</v>
       </c>
       <c r="K321">
-        <v>0.775</v>
+        <v>0.742</v>
       </c>
       <c r="L321">
-        <v>0.819</v>
-      </c>
-      <c r="M321">
-        <v>0.827</v>
-      </c>
-      <c r="N321">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O321">
-        <v>0.829</v>
+        <v>0.781</v>
       </c>
       <c r="P321">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="Q321">
-        <v>0.8100000000000001</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="322" spans="1:17">
@@ -9512,7 +9386,7 @@
         <v>118</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G322">
         <v>0.777</v>
@@ -9579,13 +9453,13 @@
         <v>116</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K324">
         <v>0.775</v>
       </c>
       <c r="L324">
-        <v>0.775</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:17">
@@ -9599,13 +9473,13 @@
         <v>117</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K325">
         <v>0.775</v>
       </c>
       <c r="L325">
-        <v>0.8149999999999999</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="326" spans="1:17">
@@ -9619,7 +9493,7 @@
         <v>118</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K326">
         <v>0.839</v>
@@ -9655,9 +9529,6 @@
       <c r="C328" t="s">
         <v>115</v>
       </c>
-      <c r="D328" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E328">
         <v>0.644</v>
       </c>
@@ -9673,10 +9544,10 @@
         <v>116</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E329">
-        <v>0.53</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="330" spans="1:17">
@@ -9690,10 +9561,10 @@
         <v>117</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E330">
-        <v>0.881</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="331" spans="1:17">
@@ -9707,7 +9578,7 @@
         <v>118</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E331">
         <v>0.542</v>
@@ -9740,9 +9611,6 @@
       <c r="C333" t="s">
         <v>115</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E333">
         <v>0.855</v>
       </c>
@@ -9758,10 +9626,10 @@
         <v>116</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E334">
-        <v>0.6840000000000001</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="335" spans="1:17">
@@ -9775,10 +9643,10 @@
         <v>117</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E335">
-        <v>0.652</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:17">
@@ -9792,7 +9660,7 @@
         <v>118</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E336">
         <v>0.572</v>
@@ -9841,25 +9709,25 @@
         <v>116</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G338">
-        <v>0.734</v>
+        <v>0.981</v>
       </c>
       <c r="H338">
-        <v>0.665</v>
+        <v>0.968</v>
       </c>
       <c r="I338">
-        <v>0.762</v>
+        <v>0.985</v>
       </c>
       <c r="J338">
-        <v>0.671</v>
+        <v>0.971</v>
       </c>
       <c r="K338">
-        <v>0.789</v>
+        <v>0.971</v>
       </c>
       <c r="L338">
-        <v>0.858</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -9873,25 +9741,25 @@
         <v>117</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G339">
-        <v>0.981</v>
+        <v>0.734</v>
       </c>
       <c r="H339">
-        <v>0.968</v>
+        <v>0.665</v>
       </c>
       <c r="I339">
-        <v>0.985</v>
+        <v>0.762</v>
       </c>
       <c r="J339">
-        <v>0.971</v>
+        <v>0.671</v>
       </c>
       <c r="K339">
-        <v>0.971</v>
+        <v>0.789</v>
       </c>
       <c r="L339">
-        <v>0.966</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -9905,7 +9773,7 @@
         <v>118</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G340">
         <v>0.672</v>
@@ -9954,10 +9822,10 @@
         <v>88</v>
       </c>
       <c r="C342" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E342">
         <v>0.952</v>
@@ -9977,7 +9845,7 @@
         <v>118</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E343">
         <v>0.665</v>
@@ -10013,9 +9881,6 @@
       <c r="C345" t="s">
         <v>115</v>
       </c>
-      <c r="D345" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E345">
         <v>0.552</v>
       </c>
@@ -10031,7 +9896,7 @@
         <v>116</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E346">
         <v>0.622</v>
@@ -10048,7 +9913,7 @@
         <v>117</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E347">
         <v>0.622</v>
@@ -10065,7 +9930,7 @@
         <v>118</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E348">
         <v>0.955</v>
@@ -10098,9 +9963,6 @@
       <c r="C350" t="s">
         <v>115</v>
       </c>
-      <c r="D350" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E350">
         <v>0.5679999999999999</v>
       </c>
@@ -10116,10 +9978,10 @@
         <v>116</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E351">
-        <v>0.621</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -10133,10 +9995,10 @@
         <v>117</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E352">
-        <v>0.908</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="353" spans="1:17">
@@ -10150,7 +10012,7 @@
         <v>118</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E353">
         <v>0.596</v>
@@ -10245,9 +10107,6 @@
       <c r="C356" t="s">
         <v>115</v>
       </c>
-      <c r="D356" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M356">
         <v>0.5629999999999999</v>
       </c>
@@ -10272,22 +10131,43 @@
         <v>116</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E357">
+        <v>0.775</v>
+      </c>
+      <c r="F357">
+        <v>0.79</v>
       </c>
       <c r="G357">
-        <v>0.675</v>
+        <v>0.753</v>
       </c>
       <c r="H357">
-        <v>0.695</v>
+        <v>0.801</v>
       </c>
       <c r="I357">
-        <v>0.798</v>
+        <v>0.857</v>
       </c>
       <c r="J357">
-        <v>0.736</v>
+        <v>0.772</v>
+      </c>
+      <c r="L357">
+        <v>0.992</v>
+      </c>
+      <c r="M357">
+        <v>0.98</v>
+      </c>
+      <c r="N357">
+        <v>0.966</v>
+      </c>
+      <c r="O357">
+        <v>0.972</v>
       </c>
       <c r="P357">
-        <v>0.59</v>
+        <v>0.984</v>
+      </c>
+      <c r="Q357">
+        <v>0.972</v>
       </c>
     </row>
     <row r="358" spans="1:17">
@@ -10301,43 +10181,22 @@
         <v>117</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E358">
-        <v>0.775</v>
-      </c>
-      <c r="F358">
-        <v>0.79</v>
+        <v>122</v>
       </c>
       <c r="G358">
-        <v>0.753</v>
+        <v>0.675</v>
       </c>
       <c r="H358">
-        <v>0.801</v>
+        <v>0.695</v>
       </c>
       <c r="I358">
-        <v>0.857</v>
+        <v>0.798</v>
       </c>
       <c r="J358">
-        <v>0.772</v>
-      </c>
-      <c r="L358">
-        <v>0.992</v>
-      </c>
-      <c r="M358">
-        <v>0.98</v>
-      </c>
-      <c r="N358">
-        <v>0.966</v>
-      </c>
-      <c r="O358">
-        <v>0.972</v>
+        <v>0.736</v>
       </c>
       <c r="P358">
-        <v>0.984</v>
-      </c>
-      <c r="Q358">
-        <v>0.972</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="359" spans="1:17">
@@ -10351,7 +10210,7 @@
         <v>118</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E359">
         <v>0.838</v>
@@ -10439,25 +10298,31 @@
         <v>116</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E361">
+        <v>0.954</v>
+      </c>
+      <c r="F361">
+        <v>0.986</v>
       </c>
       <c r="G361">
-        <v>0.753</v>
+        <v>0.984</v>
       </c>
       <c r="H361">
-        <v>0.668</v>
+        <v>0.984</v>
       </c>
       <c r="I361">
-        <v>0.774</v>
+        <v>0.977</v>
       </c>
       <c r="J361">
-        <v>0.681</v>
+        <v>0.977</v>
       </c>
       <c r="K361">
-        <v>0.766</v>
+        <v>0.976</v>
       </c>
       <c r="L361">
-        <v>0.891</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="362" spans="1:17">
@@ -10471,31 +10336,25 @@
         <v>117</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E362">
-        <v>0.954</v>
-      </c>
-      <c r="F362">
-        <v>0.986</v>
+        <v>122</v>
       </c>
       <c r="G362">
-        <v>0.984</v>
+        <v>0.753</v>
       </c>
       <c r="H362">
-        <v>0.984</v>
+        <v>0.668</v>
       </c>
       <c r="I362">
-        <v>0.977</v>
+        <v>0.774</v>
       </c>
       <c r="J362">
-        <v>0.977</v>
+        <v>0.681</v>
       </c>
       <c r="K362">
-        <v>0.976</v>
+        <v>0.766</v>
       </c>
       <c r="L362">
-        <v>0.962</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="363" spans="1:17">
@@ -10509,7 +10368,7 @@
         <v>118</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E363">
         <v>0.6850000000000001</v>
@@ -10628,9 +10487,6 @@
       <c r="C366" t="s">
         <v>115</v>
       </c>
-      <c r="D366" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M366">
         <v>0.474</v>
       </c>
@@ -10655,28 +10511,46 @@
         <v>116</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E367">
+        <v>0.776</v>
+      </c>
+      <c r="F367">
+        <v>0.793</v>
       </c>
       <c r="G367">
-        <v>0.58</v>
+        <v>0.709</v>
       </c>
       <c r="H367">
-        <v>0.6850000000000001</v>
+        <v>0.782</v>
       </c>
       <c r="I367">
-        <v>0.783</v>
+        <v>0.826</v>
       </c>
       <c r="J367">
-        <v>0.737</v>
+        <v>0.782</v>
       </c>
       <c r="K367">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="L367">
-        <v>0.774</v>
+        <v>0.821</v>
+      </c>
+      <c r="M367">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="N367">
+        <v>0.805</v>
+      </c>
+      <c r="O367">
+        <v>0.865</v>
       </c>
       <c r="P367">
-        <v>0.662</v>
+        <v>0.853</v>
+      </c>
+      <c r="Q367">
+        <v>0.776</v>
       </c>
     </row>
     <row r="368" spans="1:17">
@@ -10690,46 +10564,28 @@
         <v>117</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E368">
-        <v>0.776</v>
-      </c>
-      <c r="F368">
-        <v>0.793</v>
+        <v>122</v>
       </c>
       <c r="G368">
-        <v>0.709</v>
+        <v>0.58</v>
       </c>
       <c r="H368">
-        <v>0.782</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="I368">
-        <v>0.826</v>
+        <v>0.783</v>
       </c>
       <c r="J368">
-        <v>0.782</v>
+        <v>0.737</v>
       </c>
       <c r="K368">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="L368">
-        <v>0.821</v>
-      </c>
-      <c r="M368">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="N368">
-        <v>0.805</v>
-      </c>
-      <c r="O368">
-        <v>0.865</v>
+        <v>0.774</v>
       </c>
       <c r="P368">
-        <v>0.853</v>
-      </c>
-      <c r="Q368">
-        <v>0.776</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="369" spans="1:17">
@@ -10743,7 +10599,7 @@
         <v>118</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E369">
         <v>0.84</v>
@@ -10815,9 +10671,6 @@
       <c r="C371" t="s">
         <v>115</v>
       </c>
-      <c r="D371" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E371">
         <v>0.593</v>
       </c>
@@ -10833,10 +10686,13 @@
         <v>116</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E372">
-        <v>0.538</v>
+        <v>0.946</v>
+      </c>
+      <c r="F372">
+        <v>0.98</v>
       </c>
     </row>
     <row r="373" spans="1:17">
@@ -10850,13 +10706,10 @@
         <v>117</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E373">
-        <v>0.946</v>
-      </c>
-      <c r="F373">
-        <v>0.98</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="374" spans="1:17">
@@ -10870,7 +10723,7 @@
         <v>118</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E374">
         <v>0.661</v>
@@ -10919,19 +10772,22 @@
         <v>116</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E376">
-        <v>0.57</v>
+        <v>0.702</v>
+      </c>
+      <c r="F376">
+        <v>0.845</v>
       </c>
       <c r="G376">
-        <v>0.679</v>
+        <v>0.735</v>
       </c>
       <c r="H376">
-        <v>0.79</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I376">
-        <v>0.894</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="377" spans="1:17">
@@ -10945,22 +10801,19 @@
         <v>117</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E377">
-        <v>0.702</v>
-      </c>
-      <c r="F377">
-        <v>0.845</v>
+        <v>0.57</v>
       </c>
       <c r="G377">
-        <v>0.735</v>
+        <v>0.679</v>
       </c>
       <c r="H377">
-        <v>0.6830000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="I377">
-        <v>0.789</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -10974,7 +10827,7 @@
         <v>118</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E378">
         <v>0.956</v>
@@ -11048,9 +10901,6 @@
       <c r="C381" t="s">
         <v>115</v>
       </c>
-      <c r="D381" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="O381">
         <v>0.44</v>
       </c>
@@ -11069,13 +10919,16 @@
         <v>116</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="O382">
+        <v>0.795</v>
       </c>
       <c r="P382">
-        <v>0.741</v>
+        <v>0.794</v>
       </c>
       <c r="Q382">
-        <v>0.982</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -11089,16 +10942,13 @@
         <v>117</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O383">
-        <v>0.795</v>
+        <v>122</v>
       </c>
       <c r="P383">
-        <v>0.794</v>
+        <v>0.741</v>
       </c>
       <c r="Q383">
-        <v>0.751</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -11112,7 +10962,7 @@
         <v>118</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O384">
         <v>0.972</v>
@@ -11173,25 +11023,31 @@
         <v>116</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E386">
+        <v>0.962</v>
+      </c>
+      <c r="F386">
+        <v>0.958</v>
       </c>
       <c r="G386">
-        <v>0.75</v>
+        <v>0.974</v>
       </c>
       <c r="H386">
-        <v>0.646</v>
+        <v>0.951</v>
       </c>
       <c r="I386">
-        <v>0.755</v>
+        <v>0.966</v>
       </c>
       <c r="J386">
-        <v>0.671</v>
+        <v>0.982</v>
       </c>
       <c r="K386">
-        <v>0.789</v>
+        <v>0.97</v>
       </c>
       <c r="L386">
-        <v>0.852</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="387" spans="1:17">
@@ -11205,31 +11061,25 @@
         <v>117</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E387">
-        <v>0.962</v>
-      </c>
-      <c r="F387">
-        <v>0.958</v>
+        <v>122</v>
       </c>
       <c r="G387">
-        <v>0.974</v>
+        <v>0.75</v>
       </c>
       <c r="H387">
-        <v>0.951</v>
+        <v>0.646</v>
       </c>
       <c r="I387">
-        <v>0.966</v>
+        <v>0.755</v>
       </c>
       <c r="J387">
-        <v>0.982</v>
+        <v>0.671</v>
       </c>
       <c r="K387">
-        <v>0.97</v>
+        <v>0.789</v>
       </c>
       <c r="L387">
-        <v>0.956</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="388" spans="1:17">
@@ -11243,7 +11093,7 @@
         <v>118</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E388">
         <v>0.6850000000000001</v>
@@ -11341,9 +11191,6 @@
       <c r="C391" t="s">
         <v>115</v>
       </c>
-      <c r="D391" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M391">
         <v>0.5659999999999999</v>
       </c>
@@ -11368,13 +11215,25 @@
         <v>116</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L392">
+        <v>0.989</v>
+      </c>
+      <c r="M392">
+        <v>0.974</v>
+      </c>
+      <c r="N392">
+        <v>0.972</v>
+      </c>
+      <c r="O392">
+        <v>0.977</v>
       </c>
       <c r="P392">
-        <v>0.652</v>
+        <v>0.976</v>
       </c>
       <c r="Q392">
-        <v>0.792</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="393" spans="1:17">
@@ -11388,25 +11247,13 @@
         <v>117</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L393">
-        <v>0.989</v>
-      </c>
-      <c r="M393">
-        <v>0.974</v>
-      </c>
-      <c r="N393">
-        <v>0.972</v>
-      </c>
-      <c r="O393">
-        <v>0.977</v>
+        <v>122</v>
       </c>
       <c r="P393">
-        <v>0.976</v>
+        <v>0.652</v>
       </c>
       <c r="Q393">
-        <v>0.957</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="394" spans="1:17">
@@ -11420,7 +11267,7 @@
         <v>118</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L394">
         <v>0.846</v>
@@ -11468,9 +11315,6 @@
       <c r="C396" t="s">
         <v>115</v>
       </c>
-      <c r="D396" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E396">
         <v>0.533</v>
       </c>
@@ -11486,10 +11330,10 @@
         <v>116</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E397">
-        <v>0.594</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="398" spans="1:17">
@@ -11503,10 +11347,10 @@
         <v>117</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E398">
-        <v>0.712</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="399" spans="1:17">
@@ -11520,7 +11364,7 @@
         <v>118</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E399">
         <v>0.756</v>
@@ -11574,9 +11418,6 @@
       <c r="C401" t="s">
         <v>115</v>
       </c>
-      <c r="D401" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E401">
         <v>0.674</v>
       </c>
@@ -11592,28 +11433,31 @@
         <v>116</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E402">
-        <v>0.639</v>
+        <v>0.657</v>
+      </c>
+      <c r="F402">
+        <v>0.783</v>
       </c>
       <c r="G402">
-        <v>0.6840000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="H402">
-        <v>0.795</v>
+        <v>0.703</v>
       </c>
       <c r="I402">
-        <v>0.889</v>
+        <v>0.828</v>
       </c>
       <c r="J402">
-        <v>0.746</v>
+        <v>0.806</v>
       </c>
       <c r="K402">
-        <v>0.911</v>
+        <v>0.839</v>
       </c>
       <c r="L402">
-        <v>0.878</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="403" spans="1:17">
@@ -11627,31 +11471,28 @@
         <v>117</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E403">
-        <v>0.657</v>
-      </c>
-      <c r="F403">
-        <v>0.783</v>
+        <v>0.639</v>
       </c>
       <c r="G403">
-        <v>0.747</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H403">
-        <v>0.703</v>
+        <v>0.795</v>
       </c>
       <c r="I403">
-        <v>0.828</v>
+        <v>0.889</v>
       </c>
       <c r="J403">
-        <v>0.806</v>
+        <v>0.746</v>
       </c>
       <c r="K403">
-        <v>0.839</v>
+        <v>0.911</v>
       </c>
       <c r="L403">
-        <v>0.806</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="404" spans="1:17">
@@ -11665,7 +11506,7 @@
         <v>118</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E404">
         <v>0.95</v>
@@ -11717,10 +11558,10 @@
         <v>101</v>
       </c>
       <c r="C406" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E406">
         <v>0.9409999999999999</v>
@@ -11737,7 +11578,7 @@
         <v>118</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E407">
         <v>0.694</v>
@@ -11814,9 +11655,6 @@
       <c r="C410" t="s">
         <v>115</v>
       </c>
-      <c r="D410" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M410">
         <v>0.491</v>
       </c>
@@ -11841,13 +11679,25 @@
         <v>116</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="L411">
+        <v>0.838</v>
+      </c>
+      <c r="M411">
+        <v>0.798</v>
+      </c>
+      <c r="N411">
+        <v>0.778</v>
+      </c>
+      <c r="O411">
+        <v>0.73</v>
       </c>
       <c r="P411">
-        <v>0.65</v>
+        <v>0.972</v>
       </c>
       <c r="Q411">
-        <v>0.698</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="412" spans="1:17">
@@ -11861,25 +11711,13 @@
         <v>117</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L412">
-        <v>0.838</v>
-      </c>
-      <c r="M412">
-        <v>0.798</v>
-      </c>
-      <c r="N412">
-        <v>0.778</v>
-      </c>
-      <c r="O412">
-        <v>0.73</v>
+        <v>122</v>
       </c>
       <c r="P412">
-        <v>0.972</v>
+        <v>0.65</v>
       </c>
       <c r="Q412">
-        <v>0.968</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="413" spans="1:17">
@@ -11893,7 +11731,7 @@
         <v>118</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L413">
         <v>0.989</v>
@@ -11941,9 +11779,6 @@
       <c r="C415" t="s">
         <v>115</v>
       </c>
-      <c r="D415" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E415">
         <v>0.581</v>
       </c>
@@ -11956,10 +11791,10 @@
         <v>103</v>
       </c>
       <c r="C416" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E416">
         <v>0.9320000000000001</v>
@@ -11976,7 +11811,7 @@
         <v>118</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E417">
         <v>0.604</v>
@@ -12074,9 +11909,6 @@
       <c r="C420" t="s">
         <v>115</v>
       </c>
-      <c r="D420" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M420">
         <v>0.5610000000000001</v>
       </c>
@@ -12101,31 +11933,46 @@
         <v>116</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E421">
+        <v>0.871</v>
+      </c>
+      <c r="F421">
+        <v>0.955</v>
       </c>
       <c r="G421">
-        <v>0.695</v>
+        <v>0.976</v>
       </c>
       <c r="H421">
-        <v>0.652</v>
+        <v>0.972</v>
       </c>
       <c r="I421">
-        <v>0.783</v>
+        <v>0.982</v>
       </c>
       <c r="J421">
-        <v>0.664</v>
+        <v>0.976</v>
       </c>
       <c r="K421">
-        <v>0.798</v>
+        <v>0.973</v>
       </c>
       <c r="L421">
-        <v>0.857</v>
+        <v>0.973</v>
+      </c>
+      <c r="M421">
+        <v>0.977</v>
+      </c>
+      <c r="N421">
+        <v>0.971</v>
+      </c>
+      <c r="O421">
+        <v>0.978</v>
       </c>
       <c r="P421">
-        <v>0.648</v>
+        <v>0.976</v>
       </c>
       <c r="Q421">
-        <v>0.776</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="422" spans="1:17">
@@ -12139,46 +11986,31 @@
         <v>117</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E422">
-        <v>0.871</v>
-      </c>
-      <c r="F422">
-        <v>0.955</v>
+        <v>122</v>
       </c>
       <c r="G422">
-        <v>0.976</v>
+        <v>0.695</v>
       </c>
       <c r="H422">
-        <v>0.972</v>
+        <v>0.652</v>
       </c>
       <c r="I422">
-        <v>0.982</v>
+        <v>0.783</v>
       </c>
       <c r="J422">
-        <v>0.976</v>
+        <v>0.664</v>
       </c>
       <c r="K422">
-        <v>0.973</v>
+        <v>0.798</v>
       </c>
       <c r="L422">
-        <v>0.973</v>
-      </c>
-      <c r="M422">
-        <v>0.977</v>
-      </c>
-      <c r="N422">
-        <v>0.971</v>
-      </c>
-      <c r="O422">
-        <v>0.978</v>
+        <v>0.857</v>
       </c>
       <c r="P422">
-        <v>0.976</v>
+        <v>0.648</v>
       </c>
       <c r="Q422">
-        <v>0.974</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="423" spans="1:17">
@@ -12192,7 +12024,7 @@
         <v>118</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E423">
         <v>0.662</v>
@@ -12261,9 +12093,6 @@
       <c r="C425" t="s">
         <v>115</v>
       </c>
-      <c r="D425" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E425">
         <v>0.468</v>
       </c>
@@ -12279,10 +12108,10 @@
         <v>116</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E426">
-        <v>0.626</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="427" spans="1:17">
@@ -12296,10 +12125,10 @@
         <v>117</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E427">
-        <v>0.645</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="428" spans="1:17">
@@ -12313,7 +12142,7 @@
         <v>118</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E428">
         <v>0.739</v>
@@ -12347,10 +12176,10 @@
         <v>106</v>
       </c>
       <c r="C430" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E430">
         <v>0.711</v>
@@ -12370,7 +12199,7 @@
         <v>118</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E431">
         <v>0.964</v>
@@ -12465,9 +12294,6 @@
       <c r="C434" t="s">
         <v>115</v>
       </c>
-      <c r="D434" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M434">
         <v>0.5590000000000001</v>
       </c>
@@ -12492,28 +12318,40 @@
         <v>116</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G435">
-        <v>0.868</v>
+        <v>0.996</v>
       </c>
       <c r="H435">
-        <v>0.633</v>
+        <v>0.968</v>
       </c>
       <c r="I435">
-        <v>0.77</v>
+        <v>0.983</v>
       </c>
       <c r="J435">
-        <v>0.5620000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="K435">
-        <v>0.799</v>
+        <v>0.974</v>
+      </c>
+      <c r="L435">
+        <v>0.99</v>
+      </c>
+      <c r="M435">
+        <v>0.978</v>
+      </c>
+      <c r="N435">
+        <v>0.964</v>
+      </c>
+      <c r="O435">
+        <v>0.971</v>
       </c>
       <c r="P435">
-        <v>0.627</v>
+        <v>0.952</v>
       </c>
       <c r="Q435">
-        <v>0.76</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="436" spans="1:17">
@@ -12527,40 +12365,28 @@
         <v>117</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G436">
-        <v>0.996</v>
+        <v>0.868</v>
       </c>
       <c r="H436">
-        <v>0.968</v>
+        <v>0.633</v>
       </c>
       <c r="I436">
-        <v>0.983</v>
+        <v>0.77</v>
       </c>
       <c r="J436">
-        <v>0.98</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="K436">
-        <v>0.974</v>
-      </c>
-      <c r="L436">
-        <v>0.99</v>
-      </c>
-      <c r="M436">
-        <v>0.978</v>
-      </c>
-      <c r="N436">
-        <v>0.964</v>
-      </c>
-      <c r="O436">
-        <v>0.971</v>
+        <v>0.799</v>
       </c>
       <c r="P436">
-        <v>0.952</v>
+        <v>0.627</v>
       </c>
       <c r="Q436">
-        <v>0.972</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="437" spans="1:17">
@@ -12574,7 +12400,7 @@
         <v>118</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G437">
         <v>0.392</v>
@@ -12637,9 +12463,6 @@
       <c r="C439" t="s">
         <v>115</v>
       </c>
-      <c r="D439" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E439">
         <v>0.497</v>
       </c>
@@ -12655,10 +12478,10 @@
         <v>116</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E440">
-        <v>0.649</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="441" spans="1:17">
@@ -12672,10 +12495,10 @@
         <v>117</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E441">
-        <v>0.635</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="442" spans="1:17">
@@ -12689,7 +12512,7 @@
         <v>118</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E442">
         <v>0.944</v>
@@ -12787,9 +12610,6 @@
       <c r="C445" t="s">
         <v>115</v>
       </c>
-      <c r="D445" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M445">
         <v>0.504</v>
       </c>
@@ -12814,28 +12634,46 @@
         <v>116</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E446">
+        <v>0.646</v>
+      </c>
+      <c r="F446">
+        <v>0.799</v>
       </c>
       <c r="G446">
-        <v>0.665</v>
+        <v>0.763</v>
       </c>
       <c r="H446">
-        <v>0.723</v>
+        <v>0.708</v>
       </c>
       <c r="I446">
-        <v>0.886</v>
+        <v>0.805</v>
       </c>
       <c r="J446">
-        <v>0.753</v>
+        <v>0.823</v>
       </c>
       <c r="K446">
-        <v>0.886</v>
+        <v>0.781</v>
       </c>
       <c r="L446">
-        <v>0.89</v>
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="M446">
+        <v>0.791</v>
+      </c>
+      <c r="N446">
+        <v>0.776</v>
+      </c>
+      <c r="O446">
+        <v>0.739</v>
       </c>
       <c r="P446">
-        <v>0.735</v>
+        <v>0.797</v>
+      </c>
+      <c r="Q446">
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="447" spans="1:17">
@@ -12849,46 +12687,28 @@
         <v>117</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E447">
-        <v>0.646</v>
-      </c>
-      <c r="F447">
-        <v>0.799</v>
+        <v>122</v>
       </c>
       <c r="G447">
-        <v>0.763</v>
+        <v>0.665</v>
       </c>
       <c r="H447">
-        <v>0.708</v>
+        <v>0.723</v>
       </c>
       <c r="I447">
-        <v>0.805</v>
+        <v>0.886</v>
       </c>
       <c r="J447">
-        <v>0.823</v>
+        <v>0.753</v>
       </c>
       <c r="K447">
-        <v>0.781</v>
+        <v>0.886</v>
       </c>
       <c r="L447">
-        <v>0.8090000000000001</v>
-      </c>
-      <c r="M447">
-        <v>0.791</v>
-      </c>
-      <c r="N447">
-        <v>0.776</v>
-      </c>
-      <c r="O447">
-        <v>0.739</v>
+        <v>0.89</v>
       </c>
       <c r="P447">
-        <v>0.797</v>
-      </c>
-      <c r="Q447">
-        <v>0.8080000000000001</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="448" spans="1:17">
@@ -12902,7 +12722,7 @@
         <v>118</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E448">
         <v>0.925</v>
@@ -13003,9 +12823,6 @@
       <c r="C451" t="s">
         <v>115</v>
       </c>
-      <c r="D451" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M451">
         <v>0.513</v>
       </c>
@@ -13024,10 +12841,10 @@
         <v>110</v>
       </c>
       <c r="C452" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L452">
         <v>0.837</v>
@@ -13053,7 +12870,7 @@
         <v>118</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L453">
         <v>0.984</v>
@@ -13142,9 +12959,6 @@
       <c r="C456" t="s">
         <v>115</v>
       </c>
-      <c r="D456" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M456">
         <v>0.519</v>
       </c>
@@ -13166,25 +12980,34 @@
         <v>116</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G457">
-        <v>0.485</v>
+        <v>0.701</v>
       </c>
       <c r="H457">
-        <v>0.831</v>
+        <v>0.649</v>
       </c>
       <c r="I457">
-        <v>0.888</v>
+        <v>0.8</v>
       </c>
       <c r="J457">
-        <v>0.759</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="K457">
-        <v>0.896</v>
+        <v>0.794</v>
       </c>
       <c r="L457">
-        <v>0.9</v>
+        <v>0.829</v>
+      </c>
+      <c r="M457">
+        <v>0.83</v>
+      </c>
+      <c r="N457">
+        <v>0.784</v>
+      </c>
+      <c r="O457">
+        <v>0.746</v>
       </c>
     </row>
     <row r="458" spans="1:15">
@@ -13198,34 +13021,25 @@
         <v>117</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G458">
-        <v>0.701</v>
+        <v>0.485</v>
       </c>
       <c r="H458">
-        <v>0.649</v>
+        <v>0.831</v>
       </c>
       <c r="I458">
-        <v>0.8</v>
+        <v>0.888</v>
       </c>
       <c r="J458">
-        <v>0.8139999999999999</v>
+        <v>0.759</v>
       </c>
       <c r="K458">
-        <v>0.794</v>
+        <v>0.896</v>
       </c>
       <c r="L458">
-        <v>0.829</v>
-      </c>
-      <c r="M458">
-        <v>0.83</v>
-      </c>
-      <c r="N458">
-        <v>0.784</v>
-      </c>
-      <c r="O458">
-        <v>0.746</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="459" spans="1:15">
@@ -13239,7 +13053,7 @@
         <v>118</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G459">
         <v>0.986</v>
@@ -13296,9 +13110,6 @@
       <c r="C461" t="s">
         <v>115</v>
       </c>
-      <c r="D461" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E461">
         <v>0.869</v>
       </c>
@@ -13314,10 +13125,10 @@
         <v>116</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E462">
-        <v>0.735</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:15">
@@ -13331,10 +13142,10 @@
         <v>117</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E463">
-        <v>0.5649999999999999</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="464" spans="1:15">
@@ -13348,7 +13159,7 @@
         <v>118</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E464">
         <v>0.438</v>
@@ -13358,467 +13169,405 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
-    <hyperlink ref="D114" r:id="rId113"/>
-    <hyperlink ref="D115" r:id="rId114"/>
-    <hyperlink ref="D116" r:id="rId115"/>
-    <hyperlink ref="D117" r:id="rId116"/>
-    <hyperlink ref="D118" r:id="rId117"/>
-    <hyperlink ref="D119" r:id="rId118"/>
-    <hyperlink ref="D120" r:id="rId119"/>
-    <hyperlink ref="D121" r:id="rId120"/>
-    <hyperlink ref="D122" r:id="rId121"/>
-    <hyperlink ref="D123" r:id="rId122"/>
-    <hyperlink ref="D124" r:id="rId123"/>
-    <hyperlink ref="D125" r:id="rId124"/>
-    <hyperlink ref="D126" r:id="rId125"/>
-    <hyperlink ref="D127" r:id="rId126"/>
-    <hyperlink ref="D128" r:id="rId127"/>
-    <hyperlink ref="D129" r:id="rId128"/>
-    <hyperlink ref="D130" r:id="rId129"/>
-    <hyperlink ref="D131" r:id="rId130"/>
-    <hyperlink ref="D132" r:id="rId131"/>
-    <hyperlink ref="D133" r:id="rId132"/>
-    <hyperlink ref="D134" r:id="rId133"/>
-    <hyperlink ref="D135" r:id="rId134"/>
-    <hyperlink ref="D136" r:id="rId135"/>
-    <hyperlink ref="D137" r:id="rId136"/>
-    <hyperlink ref="D138" r:id="rId137"/>
-    <hyperlink ref="D139" r:id="rId138"/>
-    <hyperlink ref="D140" r:id="rId139"/>
-    <hyperlink ref="D141" r:id="rId140"/>
-    <hyperlink ref="D142" r:id="rId141"/>
-    <hyperlink ref="D143" r:id="rId142"/>
-    <hyperlink ref="D144" r:id="rId143"/>
-    <hyperlink ref="D145" r:id="rId144"/>
-    <hyperlink ref="D146" r:id="rId145"/>
-    <hyperlink ref="D147" r:id="rId146"/>
-    <hyperlink ref="D148" r:id="rId147"/>
-    <hyperlink ref="D149" r:id="rId148"/>
-    <hyperlink ref="D150" r:id="rId149"/>
-    <hyperlink ref="D151" r:id="rId150"/>
-    <hyperlink ref="D152" r:id="rId151"/>
-    <hyperlink ref="D153" r:id="rId152"/>
-    <hyperlink ref="D154" r:id="rId153"/>
-    <hyperlink ref="D155" r:id="rId154"/>
-    <hyperlink ref="D156" r:id="rId155"/>
-    <hyperlink ref="D157" r:id="rId156"/>
-    <hyperlink ref="D158" r:id="rId157"/>
-    <hyperlink ref="D159" r:id="rId158"/>
-    <hyperlink ref="D160" r:id="rId159"/>
-    <hyperlink ref="D161" r:id="rId160"/>
-    <hyperlink ref="D162" r:id="rId161"/>
-    <hyperlink ref="D163" r:id="rId162"/>
-    <hyperlink ref="D164" r:id="rId163"/>
-    <hyperlink ref="D165" r:id="rId164"/>
-    <hyperlink ref="D166" r:id="rId165"/>
-    <hyperlink ref="D167" r:id="rId166"/>
-    <hyperlink ref="D168" r:id="rId167"/>
-    <hyperlink ref="D169" r:id="rId168"/>
-    <hyperlink ref="D170" r:id="rId169"/>
-    <hyperlink ref="D171" r:id="rId170"/>
-    <hyperlink ref="D172" r:id="rId171"/>
-    <hyperlink ref="D173" r:id="rId172"/>
-    <hyperlink ref="D174" r:id="rId173"/>
-    <hyperlink ref="D175" r:id="rId174"/>
-    <hyperlink ref="D176" r:id="rId175"/>
-    <hyperlink ref="D177" r:id="rId176"/>
-    <hyperlink ref="D178" r:id="rId177"/>
-    <hyperlink ref="D179" r:id="rId178"/>
-    <hyperlink ref="D180" r:id="rId179"/>
-    <hyperlink ref="D181" r:id="rId180"/>
-    <hyperlink ref="D182" r:id="rId181"/>
-    <hyperlink ref="D183" r:id="rId182"/>
-    <hyperlink ref="D184" r:id="rId183"/>
-    <hyperlink ref="D185" r:id="rId184"/>
-    <hyperlink ref="D186" r:id="rId185"/>
-    <hyperlink ref="D187" r:id="rId186"/>
-    <hyperlink ref="D188" r:id="rId187"/>
-    <hyperlink ref="D189" r:id="rId188"/>
-    <hyperlink ref="D190" r:id="rId189"/>
-    <hyperlink ref="D191" r:id="rId190"/>
-    <hyperlink ref="D192" r:id="rId191"/>
-    <hyperlink ref="D193" r:id="rId192"/>
-    <hyperlink ref="D194" r:id="rId193"/>
-    <hyperlink ref="D195" r:id="rId194"/>
-    <hyperlink ref="D196" r:id="rId195"/>
-    <hyperlink ref="D197" r:id="rId196"/>
-    <hyperlink ref="D198" r:id="rId197"/>
-    <hyperlink ref="D199" r:id="rId198"/>
-    <hyperlink ref="D200" r:id="rId199"/>
-    <hyperlink ref="D201" r:id="rId200"/>
-    <hyperlink ref="D202" r:id="rId201"/>
-    <hyperlink ref="D203" r:id="rId202"/>
-    <hyperlink ref="D204" r:id="rId203"/>
-    <hyperlink ref="D205" r:id="rId204"/>
-    <hyperlink ref="D206" r:id="rId205"/>
-    <hyperlink ref="D207" r:id="rId206"/>
-    <hyperlink ref="D208" r:id="rId207"/>
-    <hyperlink ref="D209" r:id="rId208"/>
-    <hyperlink ref="D210" r:id="rId209"/>
-    <hyperlink ref="D211" r:id="rId210"/>
-    <hyperlink ref="D212" r:id="rId211"/>
-    <hyperlink ref="D213" r:id="rId212"/>
-    <hyperlink ref="D214" r:id="rId213"/>
-    <hyperlink ref="D215" r:id="rId214"/>
-    <hyperlink ref="D216" r:id="rId215"/>
-    <hyperlink ref="D217" r:id="rId216"/>
-    <hyperlink ref="D218" r:id="rId217"/>
-    <hyperlink ref="D219" r:id="rId218"/>
-    <hyperlink ref="D220" r:id="rId219"/>
-    <hyperlink ref="D221" r:id="rId220"/>
-    <hyperlink ref="D222" r:id="rId221"/>
-    <hyperlink ref="D223" r:id="rId222"/>
-    <hyperlink ref="D224" r:id="rId223"/>
-    <hyperlink ref="D225" r:id="rId224"/>
-    <hyperlink ref="D226" r:id="rId225"/>
-    <hyperlink ref="D227" r:id="rId226"/>
-    <hyperlink ref="D228" r:id="rId227"/>
-    <hyperlink ref="D229" r:id="rId228"/>
-    <hyperlink ref="D230" r:id="rId229"/>
-    <hyperlink ref="D231" r:id="rId230"/>
-    <hyperlink ref="D232" r:id="rId231"/>
-    <hyperlink ref="D233" r:id="rId232"/>
-    <hyperlink ref="D234" r:id="rId233"/>
-    <hyperlink ref="D235" r:id="rId234"/>
-    <hyperlink ref="D236" r:id="rId235"/>
-    <hyperlink ref="D237" r:id="rId236"/>
-    <hyperlink ref="D238" r:id="rId237"/>
-    <hyperlink ref="D239" r:id="rId238"/>
-    <hyperlink ref="D240" r:id="rId239"/>
-    <hyperlink ref="D241" r:id="rId240"/>
-    <hyperlink ref="D242" r:id="rId241"/>
-    <hyperlink ref="D243" r:id="rId242"/>
-    <hyperlink ref="D244" r:id="rId243"/>
-    <hyperlink ref="D245" r:id="rId244"/>
-    <hyperlink ref="D246" r:id="rId245"/>
-    <hyperlink ref="D247" r:id="rId246"/>
-    <hyperlink ref="D248" r:id="rId247"/>
-    <hyperlink ref="D249" r:id="rId248"/>
-    <hyperlink ref="D250" r:id="rId249"/>
-    <hyperlink ref="D251" r:id="rId250"/>
-    <hyperlink ref="D252" r:id="rId251"/>
-    <hyperlink ref="D253" r:id="rId252"/>
-    <hyperlink ref="D254" r:id="rId253"/>
-    <hyperlink ref="D255" r:id="rId254"/>
-    <hyperlink ref="D256" r:id="rId255"/>
-    <hyperlink ref="D257" r:id="rId256"/>
-    <hyperlink ref="D258" r:id="rId257"/>
-    <hyperlink ref="D259" r:id="rId258"/>
-    <hyperlink ref="D260" r:id="rId259"/>
-    <hyperlink ref="D261" r:id="rId260"/>
-    <hyperlink ref="D262" r:id="rId261"/>
-    <hyperlink ref="D263" r:id="rId262"/>
-    <hyperlink ref="D264" r:id="rId263"/>
-    <hyperlink ref="D265" r:id="rId264"/>
-    <hyperlink ref="D266" r:id="rId265"/>
-    <hyperlink ref="D267" r:id="rId266"/>
-    <hyperlink ref="D268" r:id="rId267"/>
-    <hyperlink ref="D269" r:id="rId268"/>
-    <hyperlink ref="D270" r:id="rId269"/>
-    <hyperlink ref="D271" r:id="rId270"/>
-    <hyperlink ref="D272" r:id="rId271"/>
-    <hyperlink ref="D273" r:id="rId272"/>
-    <hyperlink ref="D274" r:id="rId273"/>
-    <hyperlink ref="D275" r:id="rId274"/>
-    <hyperlink ref="D276" r:id="rId275"/>
-    <hyperlink ref="D277" r:id="rId276"/>
-    <hyperlink ref="D278" r:id="rId277"/>
-    <hyperlink ref="D279" r:id="rId278"/>
-    <hyperlink ref="D280" r:id="rId279"/>
-    <hyperlink ref="D281" r:id="rId280"/>
-    <hyperlink ref="D282" r:id="rId281"/>
-    <hyperlink ref="D283" r:id="rId282"/>
-    <hyperlink ref="D284" r:id="rId283"/>
-    <hyperlink ref="D285" r:id="rId284"/>
-    <hyperlink ref="D286" r:id="rId285"/>
-    <hyperlink ref="D287" r:id="rId286"/>
-    <hyperlink ref="D288" r:id="rId287"/>
-    <hyperlink ref="D289" r:id="rId288"/>
-    <hyperlink ref="D290" r:id="rId289"/>
-    <hyperlink ref="D291" r:id="rId290"/>
-    <hyperlink ref="D292" r:id="rId291"/>
-    <hyperlink ref="D293" r:id="rId292"/>
-    <hyperlink ref="D294" r:id="rId293"/>
-    <hyperlink ref="D295" r:id="rId294"/>
-    <hyperlink ref="D296" r:id="rId295"/>
-    <hyperlink ref="D297" r:id="rId296"/>
-    <hyperlink ref="D298" r:id="rId297"/>
-    <hyperlink ref="D299" r:id="rId298"/>
-    <hyperlink ref="D300" r:id="rId299"/>
-    <hyperlink ref="D301" r:id="rId300"/>
-    <hyperlink ref="D302" r:id="rId301"/>
-    <hyperlink ref="D303" r:id="rId302"/>
-    <hyperlink ref="D304" r:id="rId303"/>
-    <hyperlink ref="D305" r:id="rId304"/>
-    <hyperlink ref="D306" r:id="rId305"/>
-    <hyperlink ref="D307" r:id="rId306"/>
-    <hyperlink ref="D308" r:id="rId307"/>
-    <hyperlink ref="D309" r:id="rId308"/>
-    <hyperlink ref="D310" r:id="rId309"/>
-    <hyperlink ref="D311" r:id="rId310"/>
-    <hyperlink ref="D312" r:id="rId311"/>
-    <hyperlink ref="D313" r:id="rId312"/>
-    <hyperlink ref="D314" r:id="rId313"/>
-    <hyperlink ref="D315" r:id="rId314"/>
-    <hyperlink ref="D316" r:id="rId315"/>
-    <hyperlink ref="D317" r:id="rId316"/>
-    <hyperlink ref="D318" r:id="rId317"/>
-    <hyperlink ref="D319" r:id="rId318"/>
-    <hyperlink ref="D320" r:id="rId319"/>
-    <hyperlink ref="D321" r:id="rId320"/>
-    <hyperlink ref="D322" r:id="rId321"/>
-    <hyperlink ref="D323" r:id="rId322"/>
-    <hyperlink ref="D324" r:id="rId323"/>
-    <hyperlink ref="D325" r:id="rId324"/>
-    <hyperlink ref="D326" r:id="rId325"/>
-    <hyperlink ref="D327" r:id="rId326"/>
-    <hyperlink ref="D328" r:id="rId327"/>
-    <hyperlink ref="D329" r:id="rId328"/>
-    <hyperlink ref="D330" r:id="rId329"/>
-    <hyperlink ref="D331" r:id="rId330"/>
-    <hyperlink ref="D332" r:id="rId331"/>
-    <hyperlink ref="D333" r:id="rId332"/>
-    <hyperlink ref="D334" r:id="rId333"/>
-    <hyperlink ref="D335" r:id="rId334"/>
-    <hyperlink ref="D336" r:id="rId335"/>
-    <hyperlink ref="D337" r:id="rId336"/>
-    <hyperlink ref="D338" r:id="rId337"/>
-    <hyperlink ref="D339" r:id="rId338"/>
-    <hyperlink ref="D340" r:id="rId339"/>
-    <hyperlink ref="D341" r:id="rId340"/>
-    <hyperlink ref="D342" r:id="rId341"/>
-    <hyperlink ref="D343" r:id="rId342"/>
-    <hyperlink ref="D344" r:id="rId343"/>
-    <hyperlink ref="D345" r:id="rId344"/>
-    <hyperlink ref="D346" r:id="rId345"/>
-    <hyperlink ref="D347" r:id="rId346"/>
-    <hyperlink ref="D348" r:id="rId347"/>
-    <hyperlink ref="D349" r:id="rId348"/>
-    <hyperlink ref="D350" r:id="rId349"/>
-    <hyperlink ref="D351" r:id="rId350"/>
-    <hyperlink ref="D352" r:id="rId351"/>
-    <hyperlink ref="D353" r:id="rId352"/>
-    <hyperlink ref="D354" r:id="rId353"/>
-    <hyperlink ref="D355" r:id="rId354"/>
-    <hyperlink ref="D356" r:id="rId355"/>
-    <hyperlink ref="D357" r:id="rId356"/>
-    <hyperlink ref="D358" r:id="rId357"/>
-    <hyperlink ref="D359" r:id="rId358"/>
-    <hyperlink ref="D360" r:id="rId359"/>
-    <hyperlink ref="D361" r:id="rId360"/>
-    <hyperlink ref="D362" r:id="rId361"/>
-    <hyperlink ref="D363" r:id="rId362"/>
-    <hyperlink ref="D364" r:id="rId363"/>
-    <hyperlink ref="D365" r:id="rId364"/>
-    <hyperlink ref="D366" r:id="rId365"/>
-    <hyperlink ref="D367" r:id="rId366"/>
-    <hyperlink ref="D368" r:id="rId367"/>
-    <hyperlink ref="D369" r:id="rId368"/>
-    <hyperlink ref="D370" r:id="rId369"/>
-    <hyperlink ref="D371" r:id="rId370"/>
-    <hyperlink ref="D372" r:id="rId371"/>
-    <hyperlink ref="D373" r:id="rId372"/>
-    <hyperlink ref="D374" r:id="rId373"/>
-    <hyperlink ref="D375" r:id="rId374"/>
-    <hyperlink ref="D376" r:id="rId375"/>
-    <hyperlink ref="D377" r:id="rId376"/>
-    <hyperlink ref="D378" r:id="rId377"/>
-    <hyperlink ref="D379" r:id="rId378"/>
-    <hyperlink ref="D380" r:id="rId379"/>
-    <hyperlink ref="D381" r:id="rId380"/>
-    <hyperlink ref="D382" r:id="rId381"/>
-    <hyperlink ref="D383" r:id="rId382"/>
-    <hyperlink ref="D384" r:id="rId383"/>
-    <hyperlink ref="D385" r:id="rId384"/>
-    <hyperlink ref="D386" r:id="rId385"/>
-    <hyperlink ref="D387" r:id="rId386"/>
-    <hyperlink ref="D388" r:id="rId387"/>
-    <hyperlink ref="D389" r:id="rId388"/>
-    <hyperlink ref="D390" r:id="rId389"/>
-    <hyperlink ref="D391" r:id="rId390"/>
-    <hyperlink ref="D392" r:id="rId391"/>
-    <hyperlink ref="D393" r:id="rId392"/>
-    <hyperlink ref="D394" r:id="rId393"/>
-    <hyperlink ref="D395" r:id="rId394"/>
-    <hyperlink ref="D396" r:id="rId395"/>
-    <hyperlink ref="D397" r:id="rId396"/>
-    <hyperlink ref="D398" r:id="rId397"/>
-    <hyperlink ref="D399" r:id="rId398"/>
-    <hyperlink ref="D400" r:id="rId399"/>
-    <hyperlink ref="D401" r:id="rId400"/>
-    <hyperlink ref="D402" r:id="rId401"/>
-    <hyperlink ref="D403" r:id="rId402"/>
-    <hyperlink ref="D404" r:id="rId403"/>
-    <hyperlink ref="D405" r:id="rId404"/>
-    <hyperlink ref="D406" r:id="rId405"/>
-    <hyperlink ref="D407" r:id="rId406"/>
-    <hyperlink ref="D408" r:id="rId407"/>
-    <hyperlink ref="D409" r:id="rId408"/>
-    <hyperlink ref="D410" r:id="rId409"/>
-    <hyperlink ref="D411" r:id="rId410"/>
-    <hyperlink ref="D412" r:id="rId411"/>
-    <hyperlink ref="D413" r:id="rId412"/>
-    <hyperlink ref="D414" r:id="rId413"/>
-    <hyperlink ref="D415" r:id="rId414"/>
-    <hyperlink ref="D416" r:id="rId415"/>
-    <hyperlink ref="D417" r:id="rId416"/>
-    <hyperlink ref="D418" r:id="rId417"/>
-    <hyperlink ref="D419" r:id="rId418"/>
-    <hyperlink ref="D420" r:id="rId419"/>
-    <hyperlink ref="D421" r:id="rId420"/>
-    <hyperlink ref="D422" r:id="rId421"/>
-    <hyperlink ref="D423" r:id="rId422"/>
-    <hyperlink ref="D424" r:id="rId423"/>
-    <hyperlink ref="D425" r:id="rId424"/>
-    <hyperlink ref="D426" r:id="rId425"/>
-    <hyperlink ref="D427" r:id="rId426"/>
-    <hyperlink ref="D428" r:id="rId427"/>
-    <hyperlink ref="D429" r:id="rId428"/>
-    <hyperlink ref="D430" r:id="rId429"/>
-    <hyperlink ref="D431" r:id="rId430"/>
-    <hyperlink ref="D432" r:id="rId431"/>
-    <hyperlink ref="D433" r:id="rId432"/>
-    <hyperlink ref="D434" r:id="rId433"/>
-    <hyperlink ref="D435" r:id="rId434"/>
-    <hyperlink ref="D436" r:id="rId435"/>
-    <hyperlink ref="D437" r:id="rId436"/>
-    <hyperlink ref="D438" r:id="rId437"/>
-    <hyperlink ref="D439" r:id="rId438"/>
-    <hyperlink ref="D440" r:id="rId439"/>
-    <hyperlink ref="D441" r:id="rId440"/>
-    <hyperlink ref="D442" r:id="rId441"/>
-    <hyperlink ref="D443" r:id="rId442"/>
-    <hyperlink ref="D444" r:id="rId443"/>
-    <hyperlink ref="D445" r:id="rId444"/>
-    <hyperlink ref="D446" r:id="rId445"/>
-    <hyperlink ref="D447" r:id="rId446"/>
-    <hyperlink ref="D448" r:id="rId447"/>
-    <hyperlink ref="D449" r:id="rId448"/>
-    <hyperlink ref="D450" r:id="rId449"/>
-    <hyperlink ref="D451" r:id="rId450"/>
-    <hyperlink ref="D452" r:id="rId451"/>
-    <hyperlink ref="D453" r:id="rId452"/>
-    <hyperlink ref="D454" r:id="rId453"/>
-    <hyperlink ref="D455" r:id="rId454"/>
-    <hyperlink ref="D456" r:id="rId455"/>
-    <hyperlink ref="D457" r:id="rId456"/>
-    <hyperlink ref="D458" r:id="rId457"/>
-    <hyperlink ref="D459" r:id="rId458"/>
-    <hyperlink ref="D460" r:id="rId459"/>
-    <hyperlink ref="D461" r:id="rId460"/>
-    <hyperlink ref="D462" r:id="rId461"/>
-    <hyperlink ref="D463" r:id="rId462"/>
-    <hyperlink ref="D464" r:id="rId463"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D22" r:id="rId18"/>
+    <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21"/>
+    <hyperlink ref="D27" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D35" r:id="rId29"/>
+    <hyperlink ref="D36" r:id="rId30"/>
+    <hyperlink ref="D37" r:id="rId31"/>
+    <hyperlink ref="D38" r:id="rId32"/>
+    <hyperlink ref="D40" r:id="rId33"/>
+    <hyperlink ref="D41" r:id="rId34"/>
+    <hyperlink ref="D42" r:id="rId35"/>
+    <hyperlink ref="D43" r:id="rId36"/>
+    <hyperlink ref="D44" r:id="rId37"/>
+    <hyperlink ref="D46" r:id="rId38"/>
+    <hyperlink ref="D47" r:id="rId39"/>
+    <hyperlink ref="D48" r:id="rId40"/>
+    <hyperlink ref="D49" r:id="rId41"/>
+    <hyperlink ref="D50" r:id="rId42"/>
+    <hyperlink ref="D52" r:id="rId43"/>
+    <hyperlink ref="D53" r:id="rId44"/>
+    <hyperlink ref="D54" r:id="rId45"/>
+    <hyperlink ref="D55" r:id="rId46"/>
+    <hyperlink ref="D56" r:id="rId47"/>
+    <hyperlink ref="D57" r:id="rId48"/>
+    <hyperlink ref="D58" r:id="rId49"/>
+    <hyperlink ref="D60" r:id="rId50"/>
+    <hyperlink ref="D61" r:id="rId51"/>
+    <hyperlink ref="D62" r:id="rId52"/>
+    <hyperlink ref="D63" r:id="rId53"/>
+    <hyperlink ref="D64" r:id="rId54"/>
+    <hyperlink ref="D65" r:id="rId55"/>
+    <hyperlink ref="D66" r:id="rId56"/>
+    <hyperlink ref="D67" r:id="rId57"/>
+    <hyperlink ref="D69" r:id="rId58"/>
+    <hyperlink ref="D70" r:id="rId59"/>
+    <hyperlink ref="D71" r:id="rId60"/>
+    <hyperlink ref="D72" r:id="rId61"/>
+    <hyperlink ref="D73" r:id="rId62"/>
+    <hyperlink ref="D75" r:id="rId63"/>
+    <hyperlink ref="D76" r:id="rId64"/>
+    <hyperlink ref="D77" r:id="rId65"/>
+    <hyperlink ref="D78" r:id="rId66"/>
+    <hyperlink ref="D80" r:id="rId67"/>
+    <hyperlink ref="D81" r:id="rId68"/>
+    <hyperlink ref="D82" r:id="rId69"/>
+    <hyperlink ref="D83" r:id="rId70"/>
+    <hyperlink ref="D84" r:id="rId71"/>
+    <hyperlink ref="D86" r:id="rId72"/>
+    <hyperlink ref="D87" r:id="rId73"/>
+    <hyperlink ref="D88" r:id="rId74"/>
+    <hyperlink ref="D89" r:id="rId75"/>
+    <hyperlink ref="D90" r:id="rId76"/>
+    <hyperlink ref="D92" r:id="rId77"/>
+    <hyperlink ref="D93" r:id="rId78"/>
+    <hyperlink ref="D94" r:id="rId79"/>
+    <hyperlink ref="D95" r:id="rId80"/>
+    <hyperlink ref="D96" r:id="rId81"/>
+    <hyperlink ref="D97" r:id="rId82"/>
+    <hyperlink ref="D98" r:id="rId83"/>
+    <hyperlink ref="D99" r:id="rId84"/>
+    <hyperlink ref="D101" r:id="rId85"/>
+    <hyperlink ref="D102" r:id="rId86"/>
+    <hyperlink ref="D103" r:id="rId87"/>
+    <hyperlink ref="D104" r:id="rId88"/>
+    <hyperlink ref="D105" r:id="rId89"/>
+    <hyperlink ref="D106" r:id="rId90"/>
+    <hyperlink ref="D107" r:id="rId91"/>
+    <hyperlink ref="D108" r:id="rId92"/>
+    <hyperlink ref="D110" r:id="rId93"/>
+    <hyperlink ref="D111" r:id="rId94"/>
+    <hyperlink ref="D112" r:id="rId95"/>
+    <hyperlink ref="D113" r:id="rId96"/>
+    <hyperlink ref="D114" r:id="rId97"/>
+    <hyperlink ref="D116" r:id="rId98"/>
+    <hyperlink ref="D117" r:id="rId99"/>
+    <hyperlink ref="D118" r:id="rId100"/>
+    <hyperlink ref="D119" r:id="rId101"/>
+    <hyperlink ref="D120" r:id="rId102"/>
+    <hyperlink ref="D121" r:id="rId103"/>
+    <hyperlink ref="D122" r:id="rId104"/>
+    <hyperlink ref="D123" r:id="rId105"/>
+    <hyperlink ref="D125" r:id="rId106"/>
+    <hyperlink ref="D126" r:id="rId107"/>
+    <hyperlink ref="D127" r:id="rId108"/>
+    <hyperlink ref="D128" r:id="rId109"/>
+    <hyperlink ref="D129" r:id="rId110"/>
+    <hyperlink ref="D131" r:id="rId111"/>
+    <hyperlink ref="D132" r:id="rId112"/>
+    <hyperlink ref="D133" r:id="rId113"/>
+    <hyperlink ref="D134" r:id="rId114"/>
+    <hyperlink ref="D135" r:id="rId115"/>
+    <hyperlink ref="D137" r:id="rId116"/>
+    <hyperlink ref="D138" r:id="rId117"/>
+    <hyperlink ref="D139" r:id="rId118"/>
+    <hyperlink ref="D140" r:id="rId119"/>
+    <hyperlink ref="D141" r:id="rId120"/>
+    <hyperlink ref="D142" r:id="rId121"/>
+    <hyperlink ref="D143" r:id="rId122"/>
+    <hyperlink ref="D144" r:id="rId123"/>
+    <hyperlink ref="D145" r:id="rId124"/>
+    <hyperlink ref="D146" r:id="rId125"/>
+    <hyperlink ref="D148" r:id="rId126"/>
+    <hyperlink ref="D149" r:id="rId127"/>
+    <hyperlink ref="D150" r:id="rId128"/>
+    <hyperlink ref="D151" r:id="rId129"/>
+    <hyperlink ref="D152" r:id="rId130"/>
+    <hyperlink ref="D154" r:id="rId131"/>
+    <hyperlink ref="D155" r:id="rId132"/>
+    <hyperlink ref="D156" r:id="rId133"/>
+    <hyperlink ref="D157" r:id="rId134"/>
+    <hyperlink ref="D158" r:id="rId135"/>
+    <hyperlink ref="D159" r:id="rId136"/>
+    <hyperlink ref="D160" r:id="rId137"/>
+    <hyperlink ref="D161" r:id="rId138"/>
+    <hyperlink ref="D163" r:id="rId139"/>
+    <hyperlink ref="D164" r:id="rId140"/>
+    <hyperlink ref="D165" r:id="rId141"/>
+    <hyperlink ref="D166" r:id="rId142"/>
+    <hyperlink ref="D167" r:id="rId143"/>
+    <hyperlink ref="D168" r:id="rId144"/>
+    <hyperlink ref="D169" r:id="rId145"/>
+    <hyperlink ref="D171" r:id="rId146"/>
+    <hyperlink ref="D172" r:id="rId147"/>
+    <hyperlink ref="D173" r:id="rId148"/>
+    <hyperlink ref="D174" r:id="rId149"/>
+    <hyperlink ref="D175" r:id="rId150"/>
+    <hyperlink ref="D176" r:id="rId151"/>
+    <hyperlink ref="D177" r:id="rId152"/>
+    <hyperlink ref="D178" r:id="rId153"/>
+    <hyperlink ref="D179" r:id="rId154"/>
+    <hyperlink ref="D180" r:id="rId155"/>
+    <hyperlink ref="D181" r:id="rId156"/>
+    <hyperlink ref="D182" r:id="rId157"/>
+    <hyperlink ref="D183" r:id="rId158"/>
+    <hyperlink ref="D185" r:id="rId159"/>
+    <hyperlink ref="D186" r:id="rId160"/>
+    <hyperlink ref="D187" r:id="rId161"/>
+    <hyperlink ref="D188" r:id="rId162"/>
+    <hyperlink ref="D190" r:id="rId163"/>
+    <hyperlink ref="D191" r:id="rId164"/>
+    <hyperlink ref="D192" r:id="rId165"/>
+    <hyperlink ref="D193" r:id="rId166"/>
+    <hyperlink ref="D194" r:id="rId167"/>
+    <hyperlink ref="D195" r:id="rId168"/>
+    <hyperlink ref="D196" r:id="rId169"/>
+    <hyperlink ref="D197" r:id="rId170"/>
+    <hyperlink ref="D198" r:id="rId171"/>
+    <hyperlink ref="D199" r:id="rId172"/>
+    <hyperlink ref="D200" r:id="rId173"/>
+    <hyperlink ref="D201" r:id="rId174"/>
+    <hyperlink ref="D202" r:id="rId175"/>
+    <hyperlink ref="D203" r:id="rId176"/>
+    <hyperlink ref="D204" r:id="rId177"/>
+    <hyperlink ref="D205" r:id="rId178"/>
+    <hyperlink ref="D206" r:id="rId179"/>
+    <hyperlink ref="D207" r:id="rId180"/>
+    <hyperlink ref="D208" r:id="rId181"/>
+    <hyperlink ref="D210" r:id="rId182"/>
+    <hyperlink ref="D211" r:id="rId183"/>
+    <hyperlink ref="D212" r:id="rId184"/>
+    <hyperlink ref="D213" r:id="rId185"/>
+    <hyperlink ref="D215" r:id="rId186"/>
+    <hyperlink ref="D216" r:id="rId187"/>
+    <hyperlink ref="D217" r:id="rId188"/>
+    <hyperlink ref="D218" r:id="rId189"/>
+    <hyperlink ref="D219" r:id="rId190"/>
+    <hyperlink ref="D220" r:id="rId191"/>
+    <hyperlink ref="D221" r:id="rId192"/>
+    <hyperlink ref="D222" r:id="rId193"/>
+    <hyperlink ref="D223" r:id="rId194"/>
+    <hyperlink ref="D224" r:id="rId195"/>
+    <hyperlink ref="D225" r:id="rId196"/>
+    <hyperlink ref="D226" r:id="rId197"/>
+    <hyperlink ref="D228" r:id="rId198"/>
+    <hyperlink ref="D229" r:id="rId199"/>
+    <hyperlink ref="D230" r:id="rId200"/>
+    <hyperlink ref="D231" r:id="rId201"/>
+    <hyperlink ref="D232" r:id="rId202"/>
+    <hyperlink ref="D233" r:id="rId203"/>
+    <hyperlink ref="D234" r:id="rId204"/>
+    <hyperlink ref="D235" r:id="rId205"/>
+    <hyperlink ref="D236" r:id="rId206"/>
+    <hyperlink ref="D238" r:id="rId207"/>
+    <hyperlink ref="D239" r:id="rId208"/>
+    <hyperlink ref="D240" r:id="rId209"/>
+    <hyperlink ref="D241" r:id="rId210"/>
+    <hyperlink ref="D243" r:id="rId211"/>
+    <hyperlink ref="D244" r:id="rId212"/>
+    <hyperlink ref="D245" r:id="rId213"/>
+    <hyperlink ref="D246" r:id="rId214"/>
+    <hyperlink ref="D247" r:id="rId215"/>
+    <hyperlink ref="D249" r:id="rId216"/>
+    <hyperlink ref="D250" r:id="rId217"/>
+    <hyperlink ref="D251" r:id="rId218"/>
+    <hyperlink ref="D252" r:id="rId219"/>
+    <hyperlink ref="D253" r:id="rId220"/>
+    <hyperlink ref="D254" r:id="rId221"/>
+    <hyperlink ref="D255" r:id="rId222"/>
+    <hyperlink ref="D256" r:id="rId223"/>
+    <hyperlink ref="D258" r:id="rId224"/>
+    <hyperlink ref="D259" r:id="rId225"/>
+    <hyperlink ref="D260" r:id="rId226"/>
+    <hyperlink ref="D261" r:id="rId227"/>
+    <hyperlink ref="D262" r:id="rId228"/>
+    <hyperlink ref="D264" r:id="rId229"/>
+    <hyperlink ref="D265" r:id="rId230"/>
+    <hyperlink ref="D266" r:id="rId231"/>
+    <hyperlink ref="D267" r:id="rId232"/>
+    <hyperlink ref="D269" r:id="rId233"/>
+    <hyperlink ref="D270" r:id="rId234"/>
+    <hyperlink ref="D271" r:id="rId235"/>
+    <hyperlink ref="D272" r:id="rId236"/>
+    <hyperlink ref="D273" r:id="rId237"/>
+    <hyperlink ref="D274" r:id="rId238"/>
+    <hyperlink ref="D275" r:id="rId239"/>
+    <hyperlink ref="D276" r:id="rId240"/>
+    <hyperlink ref="D278" r:id="rId241"/>
+    <hyperlink ref="D279" r:id="rId242"/>
+    <hyperlink ref="D280" r:id="rId243"/>
+    <hyperlink ref="D281" r:id="rId244"/>
+    <hyperlink ref="D282" r:id="rId245"/>
+    <hyperlink ref="D283" r:id="rId246"/>
+    <hyperlink ref="D284" r:id="rId247"/>
+    <hyperlink ref="D285" r:id="rId248"/>
+    <hyperlink ref="D287" r:id="rId249"/>
+    <hyperlink ref="D288" r:id="rId250"/>
+    <hyperlink ref="D289" r:id="rId251"/>
+    <hyperlink ref="D290" r:id="rId252"/>
+    <hyperlink ref="D291" r:id="rId253"/>
+    <hyperlink ref="D292" r:id="rId254"/>
+    <hyperlink ref="D293" r:id="rId255"/>
+    <hyperlink ref="D294" r:id="rId256"/>
+    <hyperlink ref="D295" r:id="rId257"/>
+    <hyperlink ref="D297" r:id="rId258"/>
+    <hyperlink ref="D298" r:id="rId259"/>
+    <hyperlink ref="D299" r:id="rId260"/>
+    <hyperlink ref="D300" r:id="rId261"/>
+    <hyperlink ref="D301" r:id="rId262"/>
+    <hyperlink ref="D303" r:id="rId263"/>
+    <hyperlink ref="D304" r:id="rId264"/>
+    <hyperlink ref="D305" r:id="rId265"/>
+    <hyperlink ref="D306" r:id="rId266"/>
+    <hyperlink ref="D308" r:id="rId267"/>
+    <hyperlink ref="D309" r:id="rId268"/>
+    <hyperlink ref="D310" r:id="rId269"/>
+    <hyperlink ref="D311" r:id="rId270"/>
+    <hyperlink ref="D312" r:id="rId271"/>
+    <hyperlink ref="D313" r:id="rId272"/>
+    <hyperlink ref="D314" r:id="rId273"/>
+    <hyperlink ref="D315" r:id="rId274"/>
+    <hyperlink ref="D316" r:id="rId275"/>
+    <hyperlink ref="D317" r:id="rId276"/>
+    <hyperlink ref="D318" r:id="rId277"/>
+    <hyperlink ref="D320" r:id="rId278"/>
+    <hyperlink ref="D321" r:id="rId279"/>
+    <hyperlink ref="D322" r:id="rId280"/>
+    <hyperlink ref="D323" r:id="rId281"/>
+    <hyperlink ref="D324" r:id="rId282"/>
+    <hyperlink ref="D325" r:id="rId283"/>
+    <hyperlink ref="D326" r:id="rId284"/>
+    <hyperlink ref="D327" r:id="rId285"/>
+    <hyperlink ref="D329" r:id="rId286"/>
+    <hyperlink ref="D330" r:id="rId287"/>
+    <hyperlink ref="D331" r:id="rId288"/>
+    <hyperlink ref="D332" r:id="rId289"/>
+    <hyperlink ref="D334" r:id="rId290"/>
+    <hyperlink ref="D335" r:id="rId291"/>
+    <hyperlink ref="D336" r:id="rId292"/>
+    <hyperlink ref="D337" r:id="rId293"/>
+    <hyperlink ref="D338" r:id="rId294"/>
+    <hyperlink ref="D339" r:id="rId295"/>
+    <hyperlink ref="D340" r:id="rId296"/>
+    <hyperlink ref="D341" r:id="rId297"/>
+    <hyperlink ref="D342" r:id="rId298"/>
+    <hyperlink ref="D343" r:id="rId299"/>
+    <hyperlink ref="D344" r:id="rId300"/>
+    <hyperlink ref="D346" r:id="rId301"/>
+    <hyperlink ref="D347" r:id="rId302"/>
+    <hyperlink ref="D348" r:id="rId303"/>
+    <hyperlink ref="D349" r:id="rId304"/>
+    <hyperlink ref="D351" r:id="rId305"/>
+    <hyperlink ref="D352" r:id="rId306"/>
+    <hyperlink ref="D353" r:id="rId307"/>
+    <hyperlink ref="D354" r:id="rId308"/>
+    <hyperlink ref="D355" r:id="rId309"/>
+    <hyperlink ref="D357" r:id="rId310"/>
+    <hyperlink ref="D358" r:id="rId311"/>
+    <hyperlink ref="D359" r:id="rId312"/>
+    <hyperlink ref="D360" r:id="rId313"/>
+    <hyperlink ref="D361" r:id="rId314"/>
+    <hyperlink ref="D362" r:id="rId315"/>
+    <hyperlink ref="D363" r:id="rId316"/>
+    <hyperlink ref="D364" r:id="rId317"/>
+    <hyperlink ref="D365" r:id="rId318"/>
+    <hyperlink ref="D367" r:id="rId319"/>
+    <hyperlink ref="D368" r:id="rId320"/>
+    <hyperlink ref="D369" r:id="rId321"/>
+    <hyperlink ref="D370" r:id="rId322"/>
+    <hyperlink ref="D372" r:id="rId323"/>
+    <hyperlink ref="D373" r:id="rId324"/>
+    <hyperlink ref="D374" r:id="rId325"/>
+    <hyperlink ref="D375" r:id="rId326"/>
+    <hyperlink ref="D376" r:id="rId327"/>
+    <hyperlink ref="D377" r:id="rId328"/>
+    <hyperlink ref="D378" r:id="rId329"/>
+    <hyperlink ref="D379" r:id="rId330"/>
+    <hyperlink ref="D380" r:id="rId331"/>
+    <hyperlink ref="D382" r:id="rId332"/>
+    <hyperlink ref="D383" r:id="rId333"/>
+    <hyperlink ref="D384" r:id="rId334"/>
+    <hyperlink ref="D385" r:id="rId335"/>
+    <hyperlink ref="D386" r:id="rId336"/>
+    <hyperlink ref="D387" r:id="rId337"/>
+    <hyperlink ref="D388" r:id="rId338"/>
+    <hyperlink ref="D389" r:id="rId339"/>
+    <hyperlink ref="D390" r:id="rId340"/>
+    <hyperlink ref="D392" r:id="rId341"/>
+    <hyperlink ref="D393" r:id="rId342"/>
+    <hyperlink ref="D394" r:id="rId343"/>
+    <hyperlink ref="D395" r:id="rId344"/>
+    <hyperlink ref="D397" r:id="rId345"/>
+    <hyperlink ref="D398" r:id="rId346"/>
+    <hyperlink ref="D399" r:id="rId347"/>
+    <hyperlink ref="D400" r:id="rId348"/>
+    <hyperlink ref="D402" r:id="rId349"/>
+    <hyperlink ref="D403" r:id="rId350"/>
+    <hyperlink ref="D404" r:id="rId351"/>
+    <hyperlink ref="D405" r:id="rId352"/>
+    <hyperlink ref="D406" r:id="rId353"/>
+    <hyperlink ref="D407" r:id="rId354"/>
+    <hyperlink ref="D408" r:id="rId355"/>
+    <hyperlink ref="D409" r:id="rId356"/>
+    <hyperlink ref="D411" r:id="rId357"/>
+    <hyperlink ref="D412" r:id="rId358"/>
+    <hyperlink ref="D413" r:id="rId359"/>
+    <hyperlink ref="D414" r:id="rId360"/>
+    <hyperlink ref="D416" r:id="rId361"/>
+    <hyperlink ref="D417" r:id="rId362"/>
+    <hyperlink ref="D418" r:id="rId363"/>
+    <hyperlink ref="D419" r:id="rId364"/>
+    <hyperlink ref="D421" r:id="rId365"/>
+    <hyperlink ref="D422" r:id="rId366"/>
+    <hyperlink ref="D423" r:id="rId367"/>
+    <hyperlink ref="D424" r:id="rId368"/>
+    <hyperlink ref="D426" r:id="rId369"/>
+    <hyperlink ref="D427" r:id="rId370"/>
+    <hyperlink ref="D428" r:id="rId371"/>
+    <hyperlink ref="D429" r:id="rId372"/>
+    <hyperlink ref="D430" r:id="rId373"/>
+    <hyperlink ref="D431" r:id="rId374"/>
+    <hyperlink ref="D432" r:id="rId375"/>
+    <hyperlink ref="D433" r:id="rId376"/>
+    <hyperlink ref="D435" r:id="rId377"/>
+    <hyperlink ref="D436" r:id="rId378"/>
+    <hyperlink ref="D437" r:id="rId379"/>
+    <hyperlink ref="D438" r:id="rId380"/>
+    <hyperlink ref="D440" r:id="rId381"/>
+    <hyperlink ref="D441" r:id="rId382"/>
+    <hyperlink ref="D442" r:id="rId383"/>
+    <hyperlink ref="D443" r:id="rId384"/>
+    <hyperlink ref="D444" r:id="rId385"/>
+    <hyperlink ref="D446" r:id="rId386"/>
+    <hyperlink ref="D447" r:id="rId387"/>
+    <hyperlink ref="D448" r:id="rId388"/>
+    <hyperlink ref="D449" r:id="rId389"/>
+    <hyperlink ref="D450" r:id="rId390"/>
+    <hyperlink ref="D452" r:id="rId391"/>
+    <hyperlink ref="D453" r:id="rId392"/>
+    <hyperlink ref="D454" r:id="rId393"/>
+    <hyperlink ref="D455" r:id="rId394"/>
+    <hyperlink ref="D457" r:id="rId395"/>
+    <hyperlink ref="D458" r:id="rId396"/>
+    <hyperlink ref="D459" r:id="rId397"/>
+    <hyperlink ref="D460" r:id="rId398"/>
+    <hyperlink ref="D462" r:id="rId399"/>
+    <hyperlink ref="D463" r:id="rId400"/>
+    <hyperlink ref="D464" r:id="rId401"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ep/ep/export/flourish/Romania_name_group.xlsx
+++ b/ep/ep/export/flourish/Romania_name_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="125">
   <si>
     <t>name1</t>
   </si>
@@ -361,7 +361,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
@@ -904,6 +907,9 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E4">
         <v>0.5580000000000001</v>
       </c>
@@ -931,7 +937,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>0.728</v>
@@ -984,7 +990,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>0.601</v>
@@ -1025,7 +1031,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E7">
         <v>0.782</v>
@@ -1095,7 +1101,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G9">
         <v>0.981</v>
@@ -1112,7 +1118,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10">
         <v>0.762</v>
@@ -1166,6 +1172,9 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E12">
         <v>0.505</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>0.646</v>
@@ -1219,7 +1228,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>0.644</v>
@@ -1254,7 +1263,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <v>0.949</v>
@@ -1308,6 +1317,9 @@
       <c r="C17" t="s">
         <v>115</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E17">
         <v>0.57</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>0.615</v>
@@ -1340,7 +1352,7 @@
         <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>0.641</v>
@@ -1357,7 +1369,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>0.969</v>
@@ -1391,7 +1403,7 @@
         <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22">
         <v>0.984</v>
@@ -1408,7 +1420,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23">
         <v>0.716</v>
@@ -1441,6 +1453,9 @@
       <c r="C25" t="s">
         <v>115</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E25">
         <v>0.52</v>
       </c>
@@ -1456,7 +1471,7 @@
         <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26">
         <v>0.776</v>
@@ -1473,7 +1488,7 @@
         <v>117</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27">
         <v>0.619</v>
@@ -1490,7 +1505,7 @@
         <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28">
         <v>0.642</v>
@@ -1524,7 +1539,7 @@
         <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30">
         <v>0.824</v>
@@ -1541,7 +1556,7 @@
         <v>118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G31">
         <v>0.979</v>
@@ -1618,6 +1633,9 @@
       <c r="C34" t="s">
         <v>115</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M34">
         <v>0.503</v>
       </c>
@@ -1642,7 +1660,7 @@
         <v>116</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L35">
         <v>0.88</v>
@@ -1674,7 +1692,7 @@
         <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P36">
         <v>0.732</v>
@@ -1694,7 +1712,7 @@
         <v>118</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37">
         <v>0.982</v>
@@ -1742,6 +1760,9 @@
       <c r="C39" t="s">
         <v>115</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E39">
         <v>0.5590000000000001</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>116</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>0.92</v>
@@ -1774,7 +1795,7 @@
         <v>117</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41">
         <v>0.59</v>
@@ -1791,7 +1812,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42">
         <v>0.658</v>
@@ -1868,6 +1889,9 @@
       <c r="C45" t="s">
         <v>115</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M45">
         <v>0.512</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>116</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L46">
         <v>0.837</v>
@@ -1924,7 +1948,7 @@
         <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P47">
         <v>0.745</v>
@@ -1944,7 +1968,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L48">
         <v>0.99</v>
@@ -2051,6 +2075,9 @@
       <c r="C51" t="s">
         <v>115</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M51">
         <v>0.502</v>
       </c>
@@ -2075,7 +2102,7 @@
         <v>116</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G52">
         <v>0.749</v>
@@ -2122,7 +2149,7 @@
         <v>117</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G53">
         <v>0.99</v>
@@ -2160,7 +2187,7 @@
         <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G54">
         <v>0.6860000000000001</v>
@@ -2230,7 +2257,7 @@
         <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <v>0.9330000000000001</v>
@@ -2253,7 +2280,7 @@
         <v>118</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E57">
         <v>0.654</v>
@@ -2313,6 +2340,9 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E59">
         <v>0.545</v>
       </c>
@@ -2328,7 +2358,7 @@
         <v>116</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>0.628</v>
@@ -2366,7 +2396,7 @@
         <v>117</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61">
         <v>0.657</v>
@@ -2401,7 +2431,7 @@
         <v>118</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E62">
         <v>0.949</v>
@@ -2471,7 +2501,7 @@
         <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G64">
         <v>0.395</v>
@@ -2503,7 +2533,7 @@
         <v>117</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G65">
         <v>0.857</v>
@@ -2535,7 +2565,7 @@
         <v>118</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G66">
         <v>0.371</v>
@@ -2583,6 +2613,9 @@
       <c r="C68" t="s">
         <v>115</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E68">
         <v>0.527</v>
       </c>
@@ -2598,7 +2631,7 @@
         <v>116</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>0.61</v>
@@ -2615,7 +2648,7 @@
         <v>117</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E70">
         <v>0.644</v>
@@ -2632,7 +2665,7 @@
         <v>118</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E71">
         <v>0.908</v>
@@ -2724,6 +2757,9 @@
       <c r="C74" t="s">
         <v>115</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M74">
         <v>0.546</v>
       </c>
@@ -2748,7 +2784,7 @@
         <v>116</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G75">
         <v>0.98</v>
@@ -2795,7 +2831,7 @@
         <v>117</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G76">
         <v>0.73</v>
@@ -2833,7 +2869,7 @@
         <v>118</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G77">
         <v>0.6899999999999999</v>
@@ -2896,6 +2932,9 @@
       <c r="C79" t="s">
         <v>115</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E79">
         <v>0.835</v>
       </c>
@@ -2911,7 +2950,7 @@
         <v>116</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80">
         <v>0.654</v>
@@ -2928,7 +2967,7 @@
         <v>117</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81">
         <v>0.726</v>
@@ -2945,7 +2984,7 @@
         <v>118</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E82">
         <v>0.5620000000000001</v>
@@ -3040,6 +3079,9 @@
       <c r="C85" t="s">
         <v>115</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E85">
         <v>0.491</v>
       </c>
@@ -3067,7 +3109,7 @@
         <v>116</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E86">
         <v>0.713</v>
@@ -3117,7 +3159,7 @@
         <v>117</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87">
         <v>0.622</v>
@@ -3152,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E88">
         <v>0.736</v>
@@ -3283,6 +3325,9 @@
       <c r="C91" t="s">
         <v>115</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M91">
         <v>0.585</v>
       </c>
@@ -3307,7 +3352,7 @@
         <v>116</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E92">
         <v>0.863</v>
@@ -3360,7 +3405,7 @@
         <v>117</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G93">
         <v>0.737</v>
@@ -3398,7 +3443,7 @@
         <v>118</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94">
         <v>0.637</v>
@@ -3468,7 +3513,7 @@
         <v>116</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G96">
         <v>0.97</v>
@@ -3485,7 +3530,7 @@
         <v>118</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G97">
         <v>0.743</v>
@@ -3577,6 +3622,9 @@
       <c r="C100" t="s">
         <v>115</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M100">
         <v>0.506</v>
       </c>
@@ -3601,7 +3649,7 @@
         <v>116</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G101">
         <v>0.522</v>
@@ -3648,7 +3696,7 @@
         <v>117</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G102">
         <v>0.515</v>
@@ -3686,7 +3734,7 @@
         <v>118</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G103">
         <v>0.991</v>
@@ -3753,7 +3801,7 @@
         <v>116</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E105">
         <v>0.6919999999999999</v>
@@ -3773,7 +3821,7 @@
         <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E106">
         <v>0.966</v>
@@ -3874,6 +3922,9 @@
       <c r="C109" t="s">
         <v>115</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M109">
         <v>0.521</v>
       </c>
@@ -3898,7 +3949,7 @@
         <v>116</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E110">
         <v>0.671</v>
@@ -3951,7 +4002,7 @@
         <v>117</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E111">
         <v>0.5</v>
@@ -3992,7 +4043,7 @@
         <v>118</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E112">
         <v>0.96</v>
@@ -4105,6 +4156,9 @@
       <c r="C115" t="s">
         <v>115</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M115">
         <v>0.507</v>
       </c>
@@ -4129,7 +4183,7 @@
         <v>116</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L116">
         <v>0.82</v>
@@ -4161,7 +4215,7 @@
         <v>117</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P117">
         <v>0.671</v>
@@ -4181,7 +4235,7 @@
         <v>118</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L118">
         <v>0.988</v>
@@ -4233,7 +4287,7 @@
         <v>116</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K120">
         <v>0.834</v>
@@ -4253,7 +4307,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K121">
         <v>0.921</v>
@@ -4273,7 +4327,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K122">
         <v>0.929</v>
@@ -4309,6 +4363,9 @@
       <c r="C124" t="s">
         <v>115</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E124">
         <v>0.5610000000000001</v>
       </c>
@@ -4324,7 +4381,7 @@
         <v>116</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E125">
         <v>0.599</v>
@@ -4341,7 +4398,7 @@
         <v>117</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E126">
         <v>0.6850000000000001</v>
@@ -4358,7 +4415,7 @@
         <v>118</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E127">
         <v>0.962</v>
@@ -4435,6 +4492,9 @@
       <c r="C130" t="s">
         <v>115</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M130">
         <v>0.488</v>
       </c>
@@ -4459,7 +4519,7 @@
         <v>116</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L131">
         <v>0.895</v>
@@ -4491,7 +4551,7 @@
         <v>117</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P132">
         <v>0.725</v>
@@ -4511,7 +4571,7 @@
         <v>118</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L133">
         <v>0.994</v>
@@ -4603,6 +4663,9 @@
       <c r="C136" t="s">
         <v>115</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M136">
         <v>0.5669999999999999</v>
       </c>
@@ -4627,7 +4690,7 @@
         <v>116</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L137">
         <v>0.99</v>
@@ -4659,7 +4722,7 @@
         <v>117</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P138">
         <v>0.65</v>
@@ -4679,7 +4742,7 @@
         <v>118</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L139">
         <v>0.84</v>
@@ -4734,7 +4797,7 @@
         <v>116</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E141">
         <v>0.778</v>
@@ -4757,7 +4820,7 @@
         <v>118</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E142">
         <v>0.828</v>
@@ -4797,7 +4860,7 @@
         <v>116</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G144">
         <v>0.977</v>
@@ -4814,7 +4877,7 @@
         <v>118</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G145">
         <v>0.824</v>
@@ -4847,6 +4910,9 @@
       <c r="C147" t="s">
         <v>115</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E147">
         <v>0.873</v>
       </c>
@@ -4862,7 +4928,7 @@
         <v>116</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E148">
         <v>0.626</v>
@@ -4879,7 +4945,7 @@
         <v>117</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E149">
         <v>0.66</v>
@@ -4896,7 +4962,7 @@
         <v>118</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E150">
         <v>0.574</v>
@@ -4973,6 +5039,9 @@
       <c r="C153" t="s">
         <v>115</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M153">
         <v>0.515</v>
       </c>
@@ -4997,7 +5066,7 @@
         <v>116</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L154">
         <v>0.8139999999999999</v>
@@ -5029,7 +5098,7 @@
         <v>117</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P155">
         <v>0.732</v>
@@ -5049,7 +5118,7 @@
         <v>118</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L156">
         <v>0.993</v>
@@ -5104,7 +5173,7 @@
         <v>116</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E158">
         <v>0.961</v>
@@ -5127,7 +5196,7 @@
         <v>117</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G159">
         <v>0.731</v>
@@ -5144,7 +5213,7 @@
         <v>118</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E160">
         <v>0.6840000000000001</v>
@@ -5183,6 +5252,9 @@
       <c r="C162" t="s">
         <v>115</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E162">
         <v>0.8070000000000001</v>
       </c>
@@ -5198,7 +5270,7 @@
         <v>116</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E163">
         <v>0.549</v>
@@ -5215,7 +5287,7 @@
         <v>117</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E164">
         <v>0.748</v>
@@ -5232,7 +5304,7 @@
         <v>118</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E165">
         <v>0.595</v>
@@ -5269,7 +5341,7 @@
         <v>116</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E167">
         <v>0.9379999999999999</v>
@@ -5289,7 +5361,7 @@
         <v>118</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E168">
         <v>0.718</v>
@@ -5334,6 +5406,9 @@
       <c r="C170" t="s">
         <v>115</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E170">
         <v>0.554</v>
       </c>
@@ -5349,7 +5424,7 @@
         <v>116</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E171">
         <v>0.704</v>
@@ -5375,7 +5450,7 @@
         <v>117</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E172">
         <v>0.599</v>
@@ -5398,7 +5473,7 @@
         <v>118</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E173">
         <v>0.763</v>
@@ -5456,7 +5531,7 @@
         <v>116</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G175">
         <v>0.983</v>
@@ -5488,7 +5563,7 @@
         <v>117</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G176">
         <v>0.781</v>
@@ -5520,7 +5595,7 @@
         <v>118</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G177">
         <v>0.609</v>
@@ -5584,7 +5659,7 @@
         <v>116</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G179">
         <v>0.98</v>
@@ -5616,7 +5691,7 @@
         <v>117</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G180">
         <v>0.726</v>
@@ -5648,7 +5723,7 @@
         <v>118</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G181">
         <v>0.669</v>
@@ -5740,6 +5815,9 @@
       <c r="C184" t="s">
         <v>115</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M184">
         <v>0.529</v>
       </c>
@@ -5764,7 +5842,7 @@
         <v>116</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L185">
         <v>0.78</v>
@@ -5796,7 +5874,7 @@
         <v>117</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P186">
         <v>0.695</v>
@@ -5816,7 +5894,7 @@
         <v>118</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L187">
         <v>0.993</v>
@@ -5864,6 +5942,9 @@
       <c r="C189" t="s">
         <v>115</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E189">
         <v>0.758</v>
       </c>
@@ -5879,7 +5960,7 @@
         <v>116</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E190">
         <v>0.543</v>
@@ -5896,7 +5977,7 @@
         <v>117</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E191">
         <v>0.6889999999999999</v>
@@ -5913,7 +5994,7 @@
         <v>118</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E192">
         <v>0.655</v>
@@ -5950,7 +6031,7 @@
         <v>116</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F194">
         <v>0.974</v>
@@ -5970,7 +6051,7 @@
         <v>118</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F195">
         <v>0.8090000000000001</v>
@@ -6013,7 +6094,7 @@
         <v>116</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E197">
         <v>0.68</v>
@@ -6036,7 +6117,7 @@
         <v>117</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E198">
         <v>0.619</v>
@@ -6053,7 +6134,7 @@
         <v>118</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E199">
         <v>0.968</v>
@@ -6096,7 +6177,7 @@
         <v>116</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H201">
         <v>0.631</v>
@@ -6116,7 +6197,7 @@
         <v>117</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -6136,7 +6217,7 @@
         <v>118</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H203">
         <v>0.766</v>
@@ -6188,7 +6269,7 @@
         <v>116</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G205">
         <v>0.665</v>
@@ -6220,7 +6301,7 @@
         <v>117</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G206">
         <v>0.667</v>
@@ -6252,7 +6333,7 @@
         <v>118</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G207">
         <v>0.977</v>
@@ -6300,6 +6381,9 @@
       <c r="C209" t="s">
         <v>115</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E209">
         <v>0.572</v>
       </c>
@@ -6315,7 +6399,7 @@
         <v>116</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E210">
         <v>0.694</v>
@@ -6332,7 +6416,7 @@
         <v>117</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E211">
         <v>0.597</v>
@@ -6349,7 +6433,7 @@
         <v>118</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E212">
         <v>0.756</v>
@@ -6382,6 +6466,9 @@
       <c r="C214" t="s">
         <v>115</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E214">
         <v>0.5600000000000001</v>
       </c>
@@ -6397,7 +6484,7 @@
         <v>116</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E215">
         <v>0.706</v>
@@ -6414,7 +6501,7 @@
         <v>117</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E216">
         <v>0.603</v>
@@ -6431,7 +6518,7 @@
         <v>118</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E217">
         <v>0.766</v>
@@ -6480,7 +6567,7 @@
         <v>116</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G219">
         <v>0.667</v>
@@ -6512,7 +6599,7 @@
         <v>117</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G220">
         <v>0.681</v>
@@ -6544,7 +6631,7 @@
         <v>118</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G221">
         <v>0.977</v>
@@ -6593,7 +6680,7 @@
         <v>116</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G223">
         <v>0.975</v>
@@ -6610,7 +6697,7 @@
         <v>118</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G224">
         <v>0.749</v>
@@ -6708,6 +6795,9 @@
       <c r="C227" t="s">
         <v>115</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E227">
         <v>0.5669999999999999</v>
       </c>
@@ -6735,7 +6825,7 @@
         <v>116</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E228">
         <v>0.643</v>
@@ -6788,7 +6878,7 @@
         <v>117</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E229">
         <v>0.5</v>
@@ -6829,7 +6919,7 @@
         <v>118</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E230">
         <v>0.954</v>
@@ -6914,7 +7004,7 @@
         <v>116</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G232">
         <v>0.984</v>
@@ -6946,7 +7036,7 @@
         <v>117</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G233">
         <v>0.731</v>
@@ -6978,7 +7068,7 @@
         <v>118</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G234">
         <v>0.736</v>
@@ -7091,6 +7181,9 @@
       <c r="C237" t="s">
         <v>115</v>
       </c>
+      <c r="D237" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M237">
         <v>0.59</v>
       </c>
@@ -7115,7 +7208,7 @@
         <v>116</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E238">
         <v>0.848</v>
@@ -7168,7 +7261,7 @@
         <v>117</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G239">
         <v>0.736</v>
@@ -7206,7 +7299,7 @@
         <v>118</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E240">
         <v>0.633</v>
@@ -7275,6 +7368,9 @@
       <c r="C242" t="s">
         <v>115</v>
       </c>
+      <c r="D242" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E242">
         <v>0.542</v>
       </c>
@@ -7290,7 +7386,7 @@
         <v>116</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E243">
         <v>0.919</v>
@@ -7307,7 +7403,7 @@
         <v>117</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E244">
         <v>0.631</v>
@@ -7324,7 +7420,7 @@
         <v>118</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E245">
         <v>0.651</v>
@@ -7401,6 +7497,9 @@
       <c r="C248" t="s">
         <v>115</v>
       </c>
+      <c r="D248" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M248">
         <v>1</v>
       </c>
@@ -7425,7 +7524,7 @@
         <v>116</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L249">
         <v>0.8179999999999999</v>
@@ -7457,7 +7556,7 @@
         <v>117</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P250">
         <v>0.876</v>
@@ -7477,7 +7576,7 @@
         <v>118</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L251">
         <v>0.984</v>
@@ -7532,7 +7631,7 @@
         <v>116</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E253">
         <v>0.769</v>
@@ -7555,7 +7654,7 @@
         <v>118</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E254">
         <v>0.831</v>
@@ -7638,6 +7737,9 @@
       <c r="C257" t="s">
         <v>115</v>
       </c>
+      <c r="D257" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M257">
         <v>0.507</v>
       </c>
@@ -7662,7 +7764,7 @@
         <v>116</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L258">
         <v>0.82</v>
@@ -7694,7 +7796,7 @@
         <v>117</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P259">
         <v>0.733</v>
@@ -7714,7 +7816,7 @@
         <v>118</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L260">
         <v>0.993</v>
@@ -7785,6 +7887,9 @@
       <c r="C263" t="s">
         <v>115</v>
       </c>
+      <c r="D263" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="P263">
         <v>0.443</v>
       </c>
@@ -7800,7 +7905,7 @@
         <v>116</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P264">
         <v>0.796</v>
@@ -7820,7 +7925,7 @@
         <v>117</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P265">
         <v>0.754</v>
@@ -7840,7 +7945,7 @@
         <v>118</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P266">
         <v>0.967</v>
@@ -7882,6 +7987,9 @@
       <c r="C268" t="s">
         <v>115</v>
       </c>
+      <c r="D268" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E268">
         <v>0.601</v>
       </c>
@@ -7897,7 +8005,7 @@
         <v>116</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E269">
         <v>0.961</v>
@@ -7920,7 +8028,7 @@
         <v>117</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E270">
         <v>0.509</v>
@@ -7937,7 +8045,7 @@
         <v>118</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E271">
         <v>0.638</v>
@@ -7980,7 +8088,7 @@
         <v>116</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E273">
         <v>0.9429999999999999</v>
@@ -8000,7 +8108,7 @@
         <v>118</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E274">
         <v>0.668</v>
@@ -8101,6 +8209,9 @@
       <c r="C277" t="s">
         <v>115</v>
       </c>
+      <c r="D277" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E277">
         <v>0.642</v>
       </c>
@@ -8128,7 +8239,7 @@
         <v>116</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E278">
         <v>0.948</v>
@@ -8181,7 +8292,7 @@
         <v>117</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E279">
         <v>0.624</v>
@@ -8222,7 +8333,7 @@
         <v>118</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E280">
         <v>0.6879999999999999</v>
@@ -8295,7 +8406,7 @@
         <v>116</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E282">
         <v>0.953</v>
@@ -8315,7 +8426,7 @@
         <v>118</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E283">
         <v>0.7</v>
@@ -8392,6 +8503,9 @@
       <c r="C286" t="s">
         <v>115</v>
       </c>
+      <c r="D286" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M286">
         <v>0.5629999999999999</v>
       </c>
@@ -8416,7 +8530,7 @@
         <v>116</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M287">
         <v>0.98</v>
@@ -8445,7 +8559,7 @@
         <v>117</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P288">
         <v>0.631</v>
@@ -8462,7 +8576,7 @@
         <v>118</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M289">
         <v>0.789</v>
@@ -8514,7 +8628,7 @@
         <v>116</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J291">
         <v>0.826</v>
@@ -8537,7 +8651,7 @@
         <v>117</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J292">
         <v>0.768</v>
@@ -8560,7 +8674,7 @@
         <v>118</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J293">
         <v>0.982</v>
@@ -8643,6 +8757,9 @@
       <c r="C296" t="s">
         <v>115</v>
       </c>
+      <c r="D296" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M296">
         <v>0.443</v>
       </c>
@@ -8667,7 +8784,7 @@
         <v>116</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L297">
         <v>0.835</v>
@@ -8699,7 +8816,7 @@
         <v>117</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P298">
         <v>0.656</v>
@@ -8719,7 +8836,7 @@
         <v>118</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L299">
         <v>0.821</v>
@@ -8826,6 +8943,9 @@
       <c r="C302" t="s">
         <v>115</v>
       </c>
+      <c r="D302" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M302">
         <v>0.541</v>
       </c>
@@ -8850,7 +8970,7 @@
         <v>116</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G303">
         <v>0.984</v>
@@ -8897,7 +9017,7 @@
         <v>117</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G304">
         <v>0.714</v>
@@ -8935,7 +9055,7 @@
         <v>118</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G305">
         <v>0.651</v>
@@ -8998,6 +9118,9 @@
       <c r="C307" t="s">
         <v>115</v>
       </c>
+      <c r="D307" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E307">
         <v>0.606</v>
       </c>
@@ -9013,7 +9136,7 @@
         <v>116</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E308">
         <v>0.953</v>
@@ -9030,7 +9153,7 @@
         <v>117</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E309">
         <v>0.49</v>
@@ -9047,7 +9170,7 @@
         <v>118</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E310">
         <v>0.622</v>
@@ -9087,7 +9210,7 @@
         <v>116</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E312">
         <v>0.9389999999999999</v>
@@ -9110,7 +9233,7 @@
         <v>118</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E313">
         <v>0.6820000000000001</v>
@@ -9156,7 +9279,7 @@
         <v>116</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E315">
         <v>0.927</v>
@@ -9179,7 +9302,7 @@
         <v>118</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E316">
         <v>0.719</v>
@@ -9277,6 +9400,9 @@
       <c r="C319" t="s">
         <v>115</v>
       </c>
+      <c r="D319" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M319">
         <v>0.539</v>
       </c>
@@ -9301,7 +9427,7 @@
         <v>116</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G320">
         <v>0.5659999999999999</v>
@@ -9348,7 +9474,7 @@
         <v>117</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G321">
         <v>0.5679999999999999</v>
@@ -9386,7 +9512,7 @@
         <v>118</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G322">
         <v>0.777</v>
@@ -9453,7 +9579,7 @@
         <v>116</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K324">
         <v>0.775</v>
@@ -9473,7 +9599,7 @@
         <v>117</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K325">
         <v>0.775</v>
@@ -9493,7 +9619,7 @@
         <v>118</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K326">
         <v>0.839</v>
@@ -9529,6 +9655,9 @@
       <c r="C328" t="s">
         <v>115</v>
       </c>
+      <c r="D328" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E328">
         <v>0.644</v>
       </c>
@@ -9544,7 +9673,7 @@
         <v>116</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E329">
         <v>0.881</v>
@@ -9561,7 +9690,7 @@
         <v>117</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E330">
         <v>0.53</v>
@@ -9578,7 +9707,7 @@
         <v>118</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E331">
         <v>0.542</v>
@@ -9611,6 +9740,9 @@
       <c r="C333" t="s">
         <v>115</v>
       </c>
+      <c r="D333" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E333">
         <v>0.855</v>
       </c>
@@ -9626,7 +9758,7 @@
         <v>116</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E334">
         <v>0.652</v>
@@ -9643,7 +9775,7 @@
         <v>117</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E335">
         <v>0.6840000000000001</v>
@@ -9660,7 +9792,7 @@
         <v>118</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E336">
         <v>0.572</v>
@@ -9709,7 +9841,7 @@
         <v>116</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G338">
         <v>0.981</v>
@@ -9741,7 +9873,7 @@
         <v>117</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G339">
         <v>0.734</v>
@@ -9773,7 +9905,7 @@
         <v>118</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G340">
         <v>0.672</v>
@@ -9825,7 +9957,7 @@
         <v>116</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E342">
         <v>0.952</v>
@@ -9845,7 +9977,7 @@
         <v>118</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E343">
         <v>0.665</v>
@@ -9881,6 +10013,9 @@
       <c r="C345" t="s">
         <v>115</v>
       </c>
+      <c r="D345" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E345">
         <v>0.552</v>
       </c>
@@ -9896,7 +10031,7 @@
         <v>116</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E346">
         <v>0.622</v>
@@ -9913,7 +10048,7 @@
         <v>117</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E347">
         <v>0.622</v>
@@ -9930,7 +10065,7 @@
         <v>118</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E348">
         <v>0.955</v>
@@ -9963,6 +10098,9 @@
       <c r="C350" t="s">
         <v>115</v>
       </c>
+      <c r="D350" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E350">
         <v>0.5679999999999999</v>
       </c>
@@ -9978,7 +10116,7 @@
         <v>116</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E351">
         <v>0.908</v>
@@ -9995,7 +10133,7 @@
         <v>117</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E352">
         <v>0.621</v>
@@ -10012,7 +10150,7 @@
         <v>118</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E353">
         <v>0.596</v>
@@ -10107,6 +10245,9 @@
       <c r="C356" t="s">
         <v>115</v>
       </c>
+      <c r="D356" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M356">
         <v>0.5629999999999999</v>
       </c>
@@ -10131,7 +10272,7 @@
         <v>116</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E357">
         <v>0.775</v>
@@ -10181,7 +10322,7 @@
         <v>117</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G358">
         <v>0.675</v>
@@ -10210,7 +10351,7 @@
         <v>118</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E359">
         <v>0.838</v>
@@ -10298,7 +10439,7 @@
         <v>116</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E361">
         <v>0.954</v>
@@ -10336,7 +10477,7 @@
         <v>117</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G362">
         <v>0.753</v>
@@ -10368,7 +10509,7 @@
         <v>118</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E363">
         <v>0.6850000000000001</v>
@@ -10487,6 +10628,9 @@
       <c r="C366" t="s">
         <v>115</v>
       </c>
+      <c r="D366" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M366">
         <v>0.474</v>
       </c>
@@ -10511,7 +10655,7 @@
         <v>116</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E367">
         <v>0.776</v>
@@ -10564,7 +10708,7 @@
         <v>117</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G368">
         <v>0.58</v>
@@ -10599,7 +10743,7 @@
         <v>118</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E369">
         <v>0.84</v>
@@ -10671,6 +10815,9 @@
       <c r="C371" t="s">
         <v>115</v>
       </c>
+      <c r="D371" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E371">
         <v>0.593</v>
       </c>
@@ -10686,7 +10833,7 @@
         <v>116</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E372">
         <v>0.946</v>
@@ -10706,7 +10853,7 @@
         <v>117</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E373">
         <v>0.538</v>
@@ -10723,7 +10870,7 @@
         <v>118</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E374">
         <v>0.661</v>
@@ -10772,7 +10919,7 @@
         <v>116</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E376">
         <v>0.702</v>
@@ -10801,7 +10948,7 @@
         <v>117</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E377">
         <v>0.57</v>
@@ -10827,7 +10974,7 @@
         <v>118</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E378">
         <v>0.956</v>
@@ -10901,6 +11048,9 @@
       <c r="C381" t="s">
         <v>115</v>
       </c>
+      <c r="D381" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="O381">
         <v>0.44</v>
       </c>
@@ -10919,7 +11069,7 @@
         <v>116</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O382">
         <v>0.795</v>
@@ -10942,7 +11092,7 @@
         <v>117</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P383">
         <v>0.741</v>
@@ -10962,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O384">
         <v>0.972</v>
@@ -11023,7 +11173,7 @@
         <v>116</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E386">
         <v>0.962</v>
@@ -11061,7 +11211,7 @@
         <v>117</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G387">
         <v>0.75</v>
@@ -11093,7 +11243,7 @@
         <v>118</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E388">
         <v>0.6850000000000001</v>
@@ -11191,6 +11341,9 @@
       <c r="C391" t="s">
         <v>115</v>
       </c>
+      <c r="D391" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M391">
         <v>0.5659999999999999</v>
       </c>
@@ -11215,7 +11368,7 @@
         <v>116</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L392">
         <v>0.989</v>
@@ -11247,7 +11400,7 @@
         <v>117</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P393">
         <v>0.652</v>
@@ -11267,7 +11420,7 @@
         <v>118</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L394">
         <v>0.846</v>
@@ -11315,6 +11468,9 @@
       <c r="C396" t="s">
         <v>115</v>
       </c>
+      <c r="D396" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E396">
         <v>0.533</v>
       </c>
@@ -11330,7 +11486,7 @@
         <v>116</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E397">
         <v>0.712</v>
@@ -11347,7 +11503,7 @@
         <v>117</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E398">
         <v>0.594</v>
@@ -11364,7 +11520,7 @@
         <v>118</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E399">
         <v>0.756</v>
@@ -11418,6 +11574,9 @@
       <c r="C401" t="s">
         <v>115</v>
       </c>
+      <c r="D401" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E401">
         <v>0.674</v>
       </c>
@@ -11433,7 +11592,7 @@
         <v>116</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E402">
         <v>0.657</v>
@@ -11471,7 +11630,7 @@
         <v>117</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E403">
         <v>0.639</v>
@@ -11506,7 +11665,7 @@
         <v>118</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E404">
         <v>0.95</v>
@@ -11561,7 +11720,7 @@
         <v>116</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E406">
         <v>0.9409999999999999</v>
@@ -11578,7 +11737,7 @@
         <v>118</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E407">
         <v>0.694</v>
@@ -11655,6 +11814,9 @@
       <c r="C410" t="s">
         <v>115</v>
       </c>
+      <c r="D410" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M410">
         <v>0.491</v>
       </c>
@@ -11679,7 +11841,7 @@
         <v>116</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L411">
         <v>0.838</v>
@@ -11711,7 +11873,7 @@
         <v>117</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P412">
         <v>0.65</v>
@@ -11731,7 +11893,7 @@
         <v>118</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L413">
         <v>0.989</v>
@@ -11779,6 +11941,9 @@
       <c r="C415" t="s">
         <v>115</v>
       </c>
+      <c r="D415" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E415">
         <v>0.581</v>
       </c>
@@ -11794,7 +11959,7 @@
         <v>116</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E416">
         <v>0.9320000000000001</v>
@@ -11811,7 +11976,7 @@
         <v>118</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E417">
         <v>0.604</v>
@@ -11909,6 +12074,9 @@
       <c r="C420" t="s">
         <v>115</v>
       </c>
+      <c r="D420" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M420">
         <v>0.5610000000000001</v>
       </c>
@@ -11933,7 +12101,7 @@
         <v>116</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E421">
         <v>0.871</v>
@@ -11986,7 +12154,7 @@
         <v>117</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G422">
         <v>0.695</v>
@@ -12024,7 +12192,7 @@
         <v>118</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E423">
         <v>0.662</v>
@@ -12093,6 +12261,9 @@
       <c r="C425" t="s">
         <v>115</v>
       </c>
+      <c r="D425" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E425">
         <v>0.468</v>
       </c>
@@ -12108,7 +12279,7 @@
         <v>116</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E426">
         <v>0.645</v>
@@ -12125,7 +12296,7 @@
         <v>117</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E427">
         <v>0.626</v>
@@ -12142,7 +12313,7 @@
         <v>118</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E428">
         <v>0.739</v>
@@ -12179,7 +12350,7 @@
         <v>116</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E430">
         <v>0.711</v>
@@ -12199,7 +12370,7 @@
         <v>118</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E431">
         <v>0.964</v>
@@ -12294,6 +12465,9 @@
       <c r="C434" t="s">
         <v>115</v>
       </c>
+      <c r="D434" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M434">
         <v>0.5590000000000001</v>
       </c>
@@ -12318,7 +12492,7 @@
         <v>116</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G435">
         <v>0.996</v>
@@ -12365,7 +12539,7 @@
         <v>117</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G436">
         <v>0.868</v>
@@ -12400,7 +12574,7 @@
         <v>118</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G437">
         <v>0.392</v>
@@ -12463,6 +12637,9 @@
       <c r="C439" t="s">
         <v>115</v>
       </c>
+      <c r="D439" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E439">
         <v>0.497</v>
       </c>
@@ -12478,7 +12655,7 @@
         <v>116</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E440">
         <v>0.635</v>
@@ -12495,7 +12672,7 @@
         <v>117</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E441">
         <v>0.649</v>
@@ -12512,7 +12689,7 @@
         <v>118</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E442">
         <v>0.944</v>
@@ -12610,6 +12787,9 @@
       <c r="C445" t="s">
         <v>115</v>
       </c>
+      <c r="D445" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M445">
         <v>0.504</v>
       </c>
@@ -12634,7 +12814,7 @@
         <v>116</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E446">
         <v>0.646</v>
@@ -12687,7 +12867,7 @@
         <v>117</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G447">
         <v>0.665</v>
@@ -12722,7 +12902,7 @@
         <v>118</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E448">
         <v>0.925</v>
@@ -12823,6 +13003,9 @@
       <c r="C451" t="s">
         <v>115</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M451">
         <v>0.513</v>
       </c>
@@ -12844,7 +13027,7 @@
         <v>116</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L452">
         <v>0.837</v>
@@ -12870,7 +13053,7 @@
         <v>118</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L453">
         <v>0.984</v>
@@ -12959,6 +13142,9 @@
       <c r="C456" t="s">
         <v>115</v>
       </c>
+      <c r="D456" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="M456">
         <v>0.519</v>
       </c>
@@ -12980,7 +13166,7 @@
         <v>116</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G457">
         <v>0.701</v>
@@ -13021,7 +13207,7 @@
         <v>117</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G458">
         <v>0.485</v>
@@ -13053,7 +13239,7 @@
         <v>118</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G459">
         <v>0.986</v>
@@ -13110,6 +13296,9 @@
       <c r="C461" t="s">
         <v>115</v>
       </c>
+      <c r="D461" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E461">
         <v>0.869</v>
       </c>
@@ -13125,7 +13314,7 @@
         <v>116</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E462">
         <v>0.5649999999999999</v>
@@ -13142,7 +13331,7 @@
         <v>117</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E463">
         <v>0.735</v>
@@ -13159,7 +13348,7 @@
         <v>118</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E464">
         <v>0.438</v>
@@ -13169,405 +13358,467 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D22" r:id="rId18"/>
-    <hyperlink ref="D23" r:id="rId19"/>
-    <hyperlink ref="D24" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D27" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D35" r:id="rId29"/>
-    <hyperlink ref="D36" r:id="rId30"/>
-    <hyperlink ref="D37" r:id="rId31"/>
-    <hyperlink ref="D38" r:id="rId32"/>
-    <hyperlink ref="D40" r:id="rId33"/>
-    <hyperlink ref="D41" r:id="rId34"/>
-    <hyperlink ref="D42" r:id="rId35"/>
-    <hyperlink ref="D43" r:id="rId36"/>
-    <hyperlink ref="D44" r:id="rId37"/>
-    <hyperlink ref="D46" r:id="rId38"/>
-    <hyperlink ref="D47" r:id="rId39"/>
-    <hyperlink ref="D48" r:id="rId40"/>
-    <hyperlink ref="D49" r:id="rId41"/>
-    <hyperlink ref="D50" r:id="rId42"/>
-    <hyperlink ref="D52" r:id="rId43"/>
-    <hyperlink ref="D53" r:id="rId44"/>
-    <hyperlink ref="D54" r:id="rId45"/>
-    <hyperlink ref="D55" r:id="rId46"/>
-    <hyperlink ref="D56" r:id="rId47"/>
-    <hyperlink ref="D57" r:id="rId48"/>
-    <hyperlink ref="D58" r:id="rId49"/>
-    <hyperlink ref="D60" r:id="rId50"/>
-    <hyperlink ref="D61" r:id="rId51"/>
-    <hyperlink ref="D62" r:id="rId52"/>
-    <hyperlink ref="D63" r:id="rId53"/>
-    <hyperlink ref="D64" r:id="rId54"/>
-    <hyperlink ref="D65" r:id="rId55"/>
-    <hyperlink ref="D66" r:id="rId56"/>
-    <hyperlink ref="D67" r:id="rId57"/>
-    <hyperlink ref="D69" r:id="rId58"/>
-    <hyperlink ref="D70" r:id="rId59"/>
-    <hyperlink ref="D71" r:id="rId60"/>
-    <hyperlink ref="D72" r:id="rId61"/>
-    <hyperlink ref="D73" r:id="rId62"/>
-    <hyperlink ref="D75" r:id="rId63"/>
-    <hyperlink ref="D76" r:id="rId64"/>
-    <hyperlink ref="D77" r:id="rId65"/>
-    <hyperlink ref="D78" r:id="rId66"/>
-    <hyperlink ref="D80" r:id="rId67"/>
-    <hyperlink ref="D81" r:id="rId68"/>
-    <hyperlink ref="D82" r:id="rId69"/>
-    <hyperlink ref="D83" r:id="rId70"/>
-    <hyperlink ref="D84" r:id="rId71"/>
-    <hyperlink ref="D86" r:id="rId72"/>
-    <hyperlink ref="D87" r:id="rId73"/>
-    <hyperlink ref="D88" r:id="rId74"/>
-    <hyperlink ref="D89" r:id="rId75"/>
-    <hyperlink ref="D90" r:id="rId76"/>
-    <hyperlink ref="D92" r:id="rId77"/>
-    <hyperlink ref="D93" r:id="rId78"/>
-    <hyperlink ref="D94" r:id="rId79"/>
-    <hyperlink ref="D95" r:id="rId80"/>
-    <hyperlink ref="D96" r:id="rId81"/>
-    <hyperlink ref="D97" r:id="rId82"/>
-    <hyperlink ref="D98" r:id="rId83"/>
-    <hyperlink ref="D99" r:id="rId84"/>
-    <hyperlink ref="D101" r:id="rId85"/>
-    <hyperlink ref="D102" r:id="rId86"/>
-    <hyperlink ref="D103" r:id="rId87"/>
-    <hyperlink ref="D104" r:id="rId88"/>
-    <hyperlink ref="D105" r:id="rId89"/>
-    <hyperlink ref="D106" r:id="rId90"/>
-    <hyperlink ref="D107" r:id="rId91"/>
-    <hyperlink ref="D108" r:id="rId92"/>
-    <hyperlink ref="D110" r:id="rId93"/>
-    <hyperlink ref="D111" r:id="rId94"/>
-    <hyperlink ref="D112" r:id="rId95"/>
-    <hyperlink ref="D113" r:id="rId96"/>
-    <hyperlink ref="D114" r:id="rId97"/>
-    <hyperlink ref="D116" r:id="rId98"/>
-    <hyperlink ref="D117" r:id="rId99"/>
-    <hyperlink ref="D118" r:id="rId100"/>
-    <hyperlink ref="D119" r:id="rId101"/>
-    <hyperlink ref="D120" r:id="rId102"/>
-    <hyperlink ref="D121" r:id="rId103"/>
-    <hyperlink ref="D122" r:id="rId104"/>
-    <hyperlink ref="D123" r:id="rId105"/>
-    <hyperlink ref="D125" r:id="rId106"/>
-    <hyperlink ref="D126" r:id="rId107"/>
-    <hyperlink ref="D127" r:id="rId108"/>
-    <hyperlink ref="D128" r:id="rId109"/>
-    <hyperlink ref="D129" r:id="rId110"/>
-    <hyperlink ref="D131" r:id="rId111"/>
-    <hyperlink ref="D132" r:id="rId112"/>
-    <hyperlink ref="D133" r:id="rId113"/>
-    <hyperlink ref="D134" r:id="rId114"/>
-    <hyperlink ref="D135" r:id="rId115"/>
-    <hyperlink ref="D137" r:id="rId116"/>
-    <hyperlink ref="D138" r:id="rId117"/>
-    <hyperlink ref="D139" r:id="rId118"/>
-    <hyperlink ref="D140" r:id="rId119"/>
-    <hyperlink ref="D141" r:id="rId120"/>
-    <hyperlink ref="D142" r:id="rId121"/>
-    <hyperlink ref="D143" r:id="rId122"/>
-    <hyperlink ref="D144" r:id="rId123"/>
-    <hyperlink ref="D145" r:id="rId124"/>
-    <hyperlink ref="D146" r:id="rId125"/>
-    <hyperlink ref="D148" r:id="rId126"/>
-    <hyperlink ref="D149" r:id="rId127"/>
-    <hyperlink ref="D150" r:id="rId128"/>
-    <hyperlink ref="D151" r:id="rId129"/>
-    <hyperlink ref="D152" r:id="rId130"/>
-    <hyperlink ref="D154" r:id="rId131"/>
-    <hyperlink ref="D155" r:id="rId132"/>
-    <hyperlink ref="D156" r:id="rId133"/>
-    <hyperlink ref="D157" r:id="rId134"/>
-    <hyperlink ref="D158" r:id="rId135"/>
-    <hyperlink ref="D159" r:id="rId136"/>
-    <hyperlink ref="D160" r:id="rId137"/>
-    <hyperlink ref="D161" r:id="rId138"/>
-    <hyperlink ref="D163" r:id="rId139"/>
-    <hyperlink ref="D164" r:id="rId140"/>
-    <hyperlink ref="D165" r:id="rId141"/>
-    <hyperlink ref="D166" r:id="rId142"/>
-    <hyperlink ref="D167" r:id="rId143"/>
-    <hyperlink ref="D168" r:id="rId144"/>
-    <hyperlink ref="D169" r:id="rId145"/>
-    <hyperlink ref="D171" r:id="rId146"/>
-    <hyperlink ref="D172" r:id="rId147"/>
-    <hyperlink ref="D173" r:id="rId148"/>
-    <hyperlink ref="D174" r:id="rId149"/>
-    <hyperlink ref="D175" r:id="rId150"/>
-    <hyperlink ref="D176" r:id="rId151"/>
-    <hyperlink ref="D177" r:id="rId152"/>
-    <hyperlink ref="D178" r:id="rId153"/>
-    <hyperlink ref="D179" r:id="rId154"/>
-    <hyperlink ref="D180" r:id="rId155"/>
-    <hyperlink ref="D181" r:id="rId156"/>
-    <hyperlink ref="D182" r:id="rId157"/>
-    <hyperlink ref="D183" r:id="rId158"/>
-    <hyperlink ref="D185" r:id="rId159"/>
-    <hyperlink ref="D186" r:id="rId160"/>
-    <hyperlink ref="D187" r:id="rId161"/>
-    <hyperlink ref="D188" r:id="rId162"/>
-    <hyperlink ref="D190" r:id="rId163"/>
-    <hyperlink ref="D191" r:id="rId164"/>
-    <hyperlink ref="D192" r:id="rId165"/>
-    <hyperlink ref="D193" r:id="rId166"/>
-    <hyperlink ref="D194" r:id="rId167"/>
-    <hyperlink ref="D195" r:id="rId168"/>
-    <hyperlink ref="D196" r:id="rId169"/>
-    <hyperlink ref="D197" r:id="rId170"/>
-    <hyperlink ref="D198" r:id="rId171"/>
-    <hyperlink ref="D199" r:id="rId172"/>
-    <hyperlink ref="D200" r:id="rId173"/>
-    <hyperlink ref="D201" r:id="rId174"/>
-    <hyperlink ref="D202" r:id="rId175"/>
-    <hyperlink ref="D203" r:id="rId176"/>
-    <hyperlink ref="D204" r:id="rId177"/>
-    <hyperlink ref="D205" r:id="rId178"/>
-    <hyperlink ref="D206" r:id="rId179"/>
-    <hyperlink ref="D207" r:id="rId180"/>
-    <hyperlink ref="D208" r:id="rId181"/>
-    <hyperlink ref="D210" r:id="rId182"/>
-    <hyperlink ref="D211" r:id="rId183"/>
-    <hyperlink ref="D212" r:id="rId184"/>
-    <hyperlink ref="D213" r:id="rId185"/>
-    <hyperlink ref="D215" r:id="rId186"/>
-    <hyperlink ref="D216" r:id="rId187"/>
-    <hyperlink ref="D217" r:id="rId188"/>
-    <hyperlink ref="D218" r:id="rId189"/>
-    <hyperlink ref="D219" r:id="rId190"/>
-    <hyperlink ref="D220" r:id="rId191"/>
-    <hyperlink ref="D221" r:id="rId192"/>
-    <hyperlink ref="D222" r:id="rId193"/>
-    <hyperlink ref="D223" r:id="rId194"/>
-    <hyperlink ref="D224" r:id="rId195"/>
-    <hyperlink ref="D225" r:id="rId196"/>
-    <hyperlink ref="D226" r:id="rId197"/>
-    <hyperlink ref="D228" r:id="rId198"/>
-    <hyperlink ref="D229" r:id="rId199"/>
-    <hyperlink ref="D230" r:id="rId200"/>
-    <hyperlink ref="D231" r:id="rId201"/>
-    <hyperlink ref="D232" r:id="rId202"/>
-    <hyperlink ref="D233" r:id="rId203"/>
-    <hyperlink ref="D234" r:id="rId204"/>
-    <hyperlink ref="D235" r:id="rId205"/>
-    <hyperlink ref="D236" r:id="rId206"/>
-    <hyperlink ref="D238" r:id="rId207"/>
-    <hyperlink ref="D239" r:id="rId208"/>
-    <hyperlink ref="D240" r:id="rId209"/>
-    <hyperlink ref="D241" r:id="rId210"/>
-    <hyperlink ref="D243" r:id="rId211"/>
-    <hyperlink ref="D244" r:id="rId212"/>
-    <hyperlink ref="D245" r:id="rId213"/>
-    <hyperlink ref="D246" r:id="rId214"/>
-    <hyperlink ref="D247" r:id="rId215"/>
-    <hyperlink ref="D249" r:id="rId216"/>
-    <hyperlink ref="D250" r:id="rId217"/>
-    <hyperlink ref="D251" r:id="rId218"/>
-    <hyperlink ref="D252" r:id="rId219"/>
-    <hyperlink ref="D253" r:id="rId220"/>
-    <hyperlink ref="D254" r:id="rId221"/>
-    <hyperlink ref="D255" r:id="rId222"/>
-    <hyperlink ref="D256" r:id="rId223"/>
-    <hyperlink ref="D258" r:id="rId224"/>
-    <hyperlink ref="D259" r:id="rId225"/>
-    <hyperlink ref="D260" r:id="rId226"/>
-    <hyperlink ref="D261" r:id="rId227"/>
-    <hyperlink ref="D262" r:id="rId228"/>
-    <hyperlink ref="D264" r:id="rId229"/>
-    <hyperlink ref="D265" r:id="rId230"/>
-    <hyperlink ref="D266" r:id="rId231"/>
-    <hyperlink ref="D267" r:id="rId232"/>
-    <hyperlink ref="D269" r:id="rId233"/>
-    <hyperlink ref="D270" r:id="rId234"/>
-    <hyperlink ref="D271" r:id="rId235"/>
-    <hyperlink ref="D272" r:id="rId236"/>
-    <hyperlink ref="D273" r:id="rId237"/>
-    <hyperlink ref="D274" r:id="rId238"/>
-    <hyperlink ref="D275" r:id="rId239"/>
-    <hyperlink ref="D276" r:id="rId240"/>
-    <hyperlink ref="D278" r:id="rId241"/>
-    <hyperlink ref="D279" r:id="rId242"/>
-    <hyperlink ref="D280" r:id="rId243"/>
-    <hyperlink ref="D281" r:id="rId244"/>
-    <hyperlink ref="D282" r:id="rId245"/>
-    <hyperlink ref="D283" r:id="rId246"/>
-    <hyperlink ref="D284" r:id="rId247"/>
-    <hyperlink ref="D285" r:id="rId248"/>
-    <hyperlink ref="D287" r:id="rId249"/>
-    <hyperlink ref="D288" r:id="rId250"/>
-    <hyperlink ref="D289" r:id="rId251"/>
-    <hyperlink ref="D290" r:id="rId252"/>
-    <hyperlink ref="D291" r:id="rId253"/>
-    <hyperlink ref="D292" r:id="rId254"/>
-    <hyperlink ref="D293" r:id="rId255"/>
-    <hyperlink ref="D294" r:id="rId256"/>
-    <hyperlink ref="D295" r:id="rId257"/>
-    <hyperlink ref="D297" r:id="rId258"/>
-    <hyperlink ref="D298" r:id="rId259"/>
-    <hyperlink ref="D299" r:id="rId260"/>
-    <hyperlink ref="D300" r:id="rId261"/>
-    <hyperlink ref="D301" r:id="rId262"/>
-    <hyperlink ref="D303" r:id="rId263"/>
-    <hyperlink ref="D304" r:id="rId264"/>
-    <hyperlink ref="D305" r:id="rId265"/>
-    <hyperlink ref="D306" r:id="rId266"/>
-    <hyperlink ref="D308" r:id="rId267"/>
-    <hyperlink ref="D309" r:id="rId268"/>
-    <hyperlink ref="D310" r:id="rId269"/>
-    <hyperlink ref="D311" r:id="rId270"/>
-    <hyperlink ref="D312" r:id="rId271"/>
-    <hyperlink ref="D313" r:id="rId272"/>
-    <hyperlink ref="D314" r:id="rId273"/>
-    <hyperlink ref="D315" r:id="rId274"/>
-    <hyperlink ref="D316" r:id="rId275"/>
-    <hyperlink ref="D317" r:id="rId276"/>
-    <hyperlink ref="D318" r:id="rId277"/>
-    <hyperlink ref="D320" r:id="rId278"/>
-    <hyperlink ref="D321" r:id="rId279"/>
-    <hyperlink ref="D322" r:id="rId280"/>
-    <hyperlink ref="D323" r:id="rId281"/>
-    <hyperlink ref="D324" r:id="rId282"/>
-    <hyperlink ref="D325" r:id="rId283"/>
-    <hyperlink ref="D326" r:id="rId284"/>
-    <hyperlink ref="D327" r:id="rId285"/>
-    <hyperlink ref="D329" r:id="rId286"/>
-    <hyperlink ref="D330" r:id="rId287"/>
-    <hyperlink ref="D331" r:id="rId288"/>
-    <hyperlink ref="D332" r:id="rId289"/>
-    <hyperlink ref="D334" r:id="rId290"/>
-    <hyperlink ref="D335" r:id="rId291"/>
-    <hyperlink ref="D336" r:id="rId292"/>
-    <hyperlink ref="D337" r:id="rId293"/>
-    <hyperlink ref="D338" r:id="rId294"/>
-    <hyperlink ref="D339" r:id="rId295"/>
-    <hyperlink ref="D340" r:id="rId296"/>
-    <hyperlink ref="D341" r:id="rId297"/>
-    <hyperlink ref="D342" r:id="rId298"/>
-    <hyperlink ref="D343" r:id="rId299"/>
-    <hyperlink ref="D344" r:id="rId300"/>
-    <hyperlink ref="D346" r:id="rId301"/>
-    <hyperlink ref="D347" r:id="rId302"/>
-    <hyperlink ref="D348" r:id="rId303"/>
-    <hyperlink ref="D349" r:id="rId304"/>
-    <hyperlink ref="D351" r:id="rId305"/>
-    <hyperlink ref="D352" r:id="rId306"/>
-    <hyperlink ref="D353" r:id="rId307"/>
-    <hyperlink ref="D354" r:id="rId308"/>
-    <hyperlink ref="D355" r:id="rId309"/>
-    <hyperlink ref="D357" r:id="rId310"/>
-    <hyperlink ref="D358" r:id="rId311"/>
-    <hyperlink ref="D359" r:id="rId312"/>
-    <hyperlink ref="D360" r:id="rId313"/>
-    <hyperlink ref="D361" r:id="rId314"/>
-    <hyperlink ref="D362" r:id="rId315"/>
-    <hyperlink ref="D363" r:id="rId316"/>
-    <hyperlink ref="D364" r:id="rId317"/>
-    <hyperlink ref="D365" r:id="rId318"/>
-    <hyperlink ref="D367" r:id="rId319"/>
-    <hyperlink ref="D368" r:id="rId320"/>
-    <hyperlink ref="D369" r:id="rId321"/>
-    <hyperlink ref="D370" r:id="rId322"/>
-    <hyperlink ref="D372" r:id="rId323"/>
-    <hyperlink ref="D373" r:id="rId324"/>
-    <hyperlink ref="D374" r:id="rId325"/>
-    <hyperlink ref="D375" r:id="rId326"/>
-    <hyperlink ref="D376" r:id="rId327"/>
-    <hyperlink ref="D377" r:id="rId328"/>
-    <hyperlink ref="D378" r:id="rId329"/>
-    <hyperlink ref="D379" r:id="rId330"/>
-    <hyperlink ref="D380" r:id="rId331"/>
-    <hyperlink ref="D382" r:id="rId332"/>
-    <hyperlink ref="D383" r:id="rId333"/>
-    <hyperlink ref="D384" r:id="rId334"/>
-    <hyperlink ref="D385" r:id="rId335"/>
-    <hyperlink ref="D386" r:id="rId336"/>
-    <hyperlink ref="D387" r:id="rId337"/>
-    <hyperlink ref="D388" r:id="rId338"/>
-    <hyperlink ref="D389" r:id="rId339"/>
-    <hyperlink ref="D390" r:id="rId340"/>
-    <hyperlink ref="D392" r:id="rId341"/>
-    <hyperlink ref="D393" r:id="rId342"/>
-    <hyperlink ref="D394" r:id="rId343"/>
-    <hyperlink ref="D395" r:id="rId344"/>
-    <hyperlink ref="D397" r:id="rId345"/>
-    <hyperlink ref="D398" r:id="rId346"/>
-    <hyperlink ref="D399" r:id="rId347"/>
-    <hyperlink ref="D400" r:id="rId348"/>
-    <hyperlink ref="D402" r:id="rId349"/>
-    <hyperlink ref="D403" r:id="rId350"/>
-    <hyperlink ref="D404" r:id="rId351"/>
-    <hyperlink ref="D405" r:id="rId352"/>
-    <hyperlink ref="D406" r:id="rId353"/>
-    <hyperlink ref="D407" r:id="rId354"/>
-    <hyperlink ref="D408" r:id="rId355"/>
-    <hyperlink ref="D409" r:id="rId356"/>
-    <hyperlink ref="D411" r:id="rId357"/>
-    <hyperlink ref="D412" r:id="rId358"/>
-    <hyperlink ref="D413" r:id="rId359"/>
-    <hyperlink ref="D414" r:id="rId360"/>
-    <hyperlink ref="D416" r:id="rId361"/>
-    <hyperlink ref="D417" r:id="rId362"/>
-    <hyperlink ref="D418" r:id="rId363"/>
-    <hyperlink ref="D419" r:id="rId364"/>
-    <hyperlink ref="D421" r:id="rId365"/>
-    <hyperlink ref="D422" r:id="rId366"/>
-    <hyperlink ref="D423" r:id="rId367"/>
-    <hyperlink ref="D424" r:id="rId368"/>
-    <hyperlink ref="D426" r:id="rId369"/>
-    <hyperlink ref="D427" r:id="rId370"/>
-    <hyperlink ref="D428" r:id="rId371"/>
-    <hyperlink ref="D429" r:id="rId372"/>
-    <hyperlink ref="D430" r:id="rId373"/>
-    <hyperlink ref="D431" r:id="rId374"/>
-    <hyperlink ref="D432" r:id="rId375"/>
-    <hyperlink ref="D433" r:id="rId376"/>
-    <hyperlink ref="D435" r:id="rId377"/>
-    <hyperlink ref="D436" r:id="rId378"/>
-    <hyperlink ref="D437" r:id="rId379"/>
-    <hyperlink ref="D438" r:id="rId380"/>
-    <hyperlink ref="D440" r:id="rId381"/>
-    <hyperlink ref="D441" r:id="rId382"/>
-    <hyperlink ref="D442" r:id="rId383"/>
-    <hyperlink ref="D443" r:id="rId384"/>
-    <hyperlink ref="D444" r:id="rId385"/>
-    <hyperlink ref="D446" r:id="rId386"/>
-    <hyperlink ref="D447" r:id="rId387"/>
-    <hyperlink ref="D448" r:id="rId388"/>
-    <hyperlink ref="D449" r:id="rId389"/>
-    <hyperlink ref="D450" r:id="rId390"/>
-    <hyperlink ref="D452" r:id="rId391"/>
-    <hyperlink ref="D453" r:id="rId392"/>
-    <hyperlink ref="D454" r:id="rId393"/>
-    <hyperlink ref="D455" r:id="rId394"/>
-    <hyperlink ref="D457" r:id="rId395"/>
-    <hyperlink ref="D458" r:id="rId396"/>
-    <hyperlink ref="D459" r:id="rId397"/>
-    <hyperlink ref="D460" r:id="rId398"/>
-    <hyperlink ref="D462" r:id="rId399"/>
-    <hyperlink ref="D463" r:id="rId400"/>
-    <hyperlink ref="D464" r:id="rId401"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+    <hyperlink ref="D323" r:id="rId322"/>
+    <hyperlink ref="D324" r:id="rId323"/>
+    <hyperlink ref="D325" r:id="rId324"/>
+    <hyperlink ref="D326" r:id="rId325"/>
+    <hyperlink ref="D327" r:id="rId326"/>
+    <hyperlink ref="D328" r:id="rId327"/>
+    <hyperlink ref="D329" r:id="rId328"/>
+    <hyperlink ref="D330" r:id="rId329"/>
+    <hyperlink ref="D331" r:id="rId330"/>
+    <hyperlink ref="D332" r:id="rId331"/>
+    <hyperlink ref="D333" r:id="rId332"/>
+    <hyperlink ref="D334" r:id="rId333"/>
+    <hyperlink ref="D335" r:id="rId334"/>
+    <hyperlink ref="D336" r:id="rId335"/>
+    <hyperlink ref="D337" r:id="rId336"/>
+    <hyperlink ref="D338" r:id="rId337"/>
+    <hyperlink ref="D339" r:id="rId338"/>
+    <hyperlink ref="D340" r:id="rId339"/>
+    <hyperlink ref="D341" r:id="rId340"/>
+    <hyperlink ref="D342" r:id="rId341"/>
+    <hyperlink ref="D343" r:id="rId342"/>
+    <hyperlink ref="D344" r:id="rId343"/>
+    <hyperlink ref="D345" r:id="rId344"/>
+    <hyperlink ref="D346" r:id="rId345"/>
+    <hyperlink ref="D347" r:id="rId346"/>
+    <hyperlink ref="D348" r:id="rId347"/>
+    <hyperlink ref="D349" r:id="rId348"/>
+    <hyperlink ref="D350" r:id="rId349"/>
+    <hyperlink ref="D351" r:id="rId350"/>
+    <hyperlink ref="D352" r:id="rId351"/>
+    <hyperlink ref="D353" r:id="rId352"/>
+    <hyperlink ref="D354" r:id="rId353"/>
+    <hyperlink ref="D355" r:id="rId354"/>
+    <hyperlink ref="D356" r:id="rId355"/>
+    <hyperlink ref="D357" r:id="rId356"/>
+    <hyperlink ref="D358" r:id="rId357"/>
+    <hyperlink ref="D359" r:id="rId358"/>
+    <hyperlink ref="D360" r:id="rId359"/>
+    <hyperlink ref="D361" r:id="rId360"/>
+    <hyperlink ref="D362" r:id="rId361"/>
+    <hyperlink ref="D363" r:id="rId362"/>
+    <hyperlink ref="D364" r:id="rId363"/>
+    <hyperlink ref="D365" r:id="rId364"/>
+    <hyperlink ref="D366" r:id="rId365"/>
+    <hyperlink ref="D367" r:id="rId366"/>
+    <hyperlink ref="D368" r:id="rId367"/>
+    <hyperlink ref="D369" r:id="rId368"/>
+    <hyperlink ref="D370" r:id="rId369"/>
+    <hyperlink ref="D371" r:id="rId370"/>
+    <hyperlink ref="D372" r:id="rId371"/>
+    <hyperlink ref="D373" r:id="rId372"/>
+    <hyperlink ref="D374" r:id="rId373"/>
+    <hyperlink ref="D375" r:id="rId374"/>
+    <hyperlink ref="D376" r:id="rId375"/>
+    <hyperlink ref="D377" r:id="rId376"/>
+    <hyperlink ref="D378" r:id="rId377"/>
+    <hyperlink ref="D379" r:id="rId378"/>
+    <hyperlink ref="D380" r:id="rId379"/>
+    <hyperlink ref="D381" r:id="rId380"/>
+    <hyperlink ref="D382" r:id="rId381"/>
+    <hyperlink ref="D383" r:id="rId382"/>
+    <hyperlink ref="D384" r:id="rId383"/>
+    <hyperlink ref="D385" r:id="rId384"/>
+    <hyperlink ref="D386" r:id="rId385"/>
+    <hyperlink ref="D387" r:id="rId386"/>
+    <hyperlink ref="D388" r:id="rId387"/>
+    <hyperlink ref="D389" r:id="rId388"/>
+    <hyperlink ref="D390" r:id="rId389"/>
+    <hyperlink ref="D391" r:id="rId390"/>
+    <hyperlink ref="D392" r:id="rId391"/>
+    <hyperlink ref="D393" r:id="rId392"/>
+    <hyperlink ref="D394" r:id="rId393"/>
+    <hyperlink ref="D395" r:id="rId394"/>
+    <hyperlink ref="D396" r:id="rId395"/>
+    <hyperlink ref="D397" r:id="rId396"/>
+    <hyperlink ref="D398" r:id="rId397"/>
+    <hyperlink ref="D399" r:id="rId398"/>
+    <hyperlink ref="D400" r:id="rId399"/>
+    <hyperlink ref="D401" r:id="rId400"/>
+    <hyperlink ref="D402" r:id="rId401"/>
+    <hyperlink ref="D403" r:id="rId402"/>
+    <hyperlink ref="D404" r:id="rId403"/>
+    <hyperlink ref="D405" r:id="rId404"/>
+    <hyperlink ref="D406" r:id="rId405"/>
+    <hyperlink ref="D407" r:id="rId406"/>
+    <hyperlink ref="D408" r:id="rId407"/>
+    <hyperlink ref="D409" r:id="rId408"/>
+    <hyperlink ref="D410" r:id="rId409"/>
+    <hyperlink ref="D411" r:id="rId410"/>
+    <hyperlink ref="D412" r:id="rId411"/>
+    <hyperlink ref="D413" r:id="rId412"/>
+    <hyperlink ref="D414" r:id="rId413"/>
+    <hyperlink ref="D415" r:id="rId414"/>
+    <hyperlink ref="D416" r:id="rId415"/>
+    <hyperlink ref="D417" r:id="rId416"/>
+    <hyperlink ref="D418" r:id="rId417"/>
+    <hyperlink ref="D419" r:id="rId418"/>
+    <hyperlink ref="D420" r:id="rId419"/>
+    <hyperlink ref="D421" r:id="rId420"/>
+    <hyperlink ref="D422" r:id="rId421"/>
+    <hyperlink ref="D423" r:id="rId422"/>
+    <hyperlink ref="D424" r:id="rId423"/>
+    <hyperlink ref="D425" r:id="rId424"/>
+    <hyperlink ref="D426" r:id="rId425"/>
+    <hyperlink ref="D427" r:id="rId426"/>
+    <hyperlink ref="D428" r:id="rId427"/>
+    <hyperlink ref="D429" r:id="rId428"/>
+    <hyperlink ref="D430" r:id="rId429"/>
+    <hyperlink ref="D431" r:id="rId430"/>
+    <hyperlink ref="D432" r:id="rId431"/>
+    <hyperlink ref="D433" r:id="rId432"/>
+    <hyperlink ref="D434" r:id="rId433"/>
+    <hyperlink ref="D435" r:id="rId434"/>
+    <hyperlink ref="D436" r:id="rId435"/>
+    <hyperlink ref="D437" r:id="rId436"/>
+    <hyperlink ref="D438" r:id="rId437"/>
+    <hyperlink ref="D439" r:id="rId438"/>
+    <hyperlink ref="D440" r:id="rId439"/>
+    <hyperlink ref="D441" r:id="rId440"/>
+    <hyperlink ref="D442" r:id="rId441"/>
+    <hyperlink ref="D443" r:id="rId442"/>
+    <hyperlink ref="D444" r:id="rId443"/>
+    <hyperlink ref="D445" r:id="rId444"/>
+    <hyperlink ref="D446" r:id="rId445"/>
+    <hyperlink ref="D447" r:id="rId446"/>
+    <hyperlink ref="D448" r:id="rId447"/>
+    <hyperlink ref="D449" r:id="rId448"/>
+    <hyperlink ref="D450" r:id="rId449"/>
+    <hyperlink ref="D451" r:id="rId450"/>
+    <hyperlink ref="D452" r:id="rId451"/>
+    <hyperlink ref="D453" r:id="rId452"/>
+    <hyperlink ref="D454" r:id="rId453"/>
+    <hyperlink ref="D455" r:id="rId454"/>
+    <hyperlink ref="D456" r:id="rId455"/>
+    <hyperlink ref="D457" r:id="rId456"/>
+    <hyperlink ref="D458" r:id="rId457"/>
+    <hyperlink ref="D459" r:id="rId458"/>
+    <hyperlink ref="D460" r:id="rId459"/>
+    <hyperlink ref="D461" r:id="rId460"/>
+    <hyperlink ref="D462" r:id="rId461"/>
+    <hyperlink ref="D463" r:id="rId462"/>
+    <hyperlink ref="D464" r:id="rId463"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
